--- a/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>132</v>
       </c>
       <c r="E2">
-        <v>0.0263510740860501</v>
+        <v>0.02601518943497679</v>
       </c>
       <c r="F2">
         <v>0.5028377186209199</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>139</v>
       </c>
       <c r="E3">
-        <v>0.01131874341567677</v>
+        <v>0.01101021647796185</v>
       </c>
       <c r="F3">
         <v>0.5098417283118124</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>122</v>
       </c>
       <c r="E4">
-        <v>0.04904845666318114</v>
+        <v>0.05151036632781263</v>
       </c>
       <c r="F4">
         <v>0.50655665912626</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>116</v>
       </c>
       <c r="E5">
-        <v>0.01685087084137144</v>
+        <v>0.01622240674782391</v>
       </c>
       <c r="F5">
         <v>0.5003068434777096</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.03084391408343447</v>
+        <v>0.03079592233537105</v>
       </c>
       <c r="F6">
         <v>0.5253945748819653</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>149</v>
       </c>
       <c r="E2">
-        <v>0.0263510740860501</v>
+        <v>0.02601518943497679</v>
       </c>
       <c r="F2">
         <v>0.7049616151111391</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01131874341567677</v>
+        <v>0.01101021647796185</v>
       </c>
       <c r="F3">
         <v>0.7080978498704468</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>145</v>
       </c>
       <c r="E4">
-        <v>0.04904845666318114</v>
+        <v>0.05151036632781263</v>
       </c>
       <c r="F4">
         <v>0.7006214904844242</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.01685087084137144</v>
+        <v>0.01622240674782391</v>
       </c>
       <c r="F5">
         <v>0.7037885729617145</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.03084391408343447</v>
+        <v>0.03079592233537105</v>
       </c>
       <c r="F6">
         <v>0.7031737342828336</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>163</v>
       </c>
       <c r="E2">
-        <v>0.0263510740860501</v>
+        <v>0.02601518943497679</v>
       </c>
       <c r="F2">
         <v>0.817748682643634</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>166</v>
       </c>
       <c r="E3">
-        <v>0.01131874341567677</v>
+        <v>0.01101021647796185</v>
       </c>
       <c r="F3">
         <v>0.8067839974425369</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>159</v>
       </c>
       <c r="E4">
-        <v>0.04904845666318114</v>
+        <v>0.05151036632781263</v>
       </c>
       <c r="F4">
         <v>0.8108183283491617</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.01685087084137144</v>
+        <v>0.01622240674782391</v>
       </c>
       <c r="F5">
         <v>0.8058988197133444</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>154</v>
       </c>
       <c r="E6">
-        <v>0.03084391408343447</v>
+        <v>0.03079592233537105</v>
       </c>
       <c r="F6">
         <v>0.802540566705937</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>183</v>
       </c>
       <c r="E2">
-        <v>0.0263510740860501</v>
+        <v>0.02601518943497679</v>
       </c>
       <c r="F2">
         <v>0.9037588735377693</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>191</v>
       </c>
       <c r="E3">
-        <v>0.01131874341567677</v>
+        <v>0.01101021647796185</v>
       </c>
       <c r="F3">
         <v>0.9126426190970049</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>183</v>
       </c>
       <c r="E4">
-        <v>0.04904845666318114</v>
+        <v>0.05151036632781263</v>
       </c>
       <c r="F4">
         <v>0.9063447813776424</v>
       </c>
       <c r="G4">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>181</v>
       </c>
       <c r="E5">
-        <v>0.01685087084137144</v>
+        <v>0.01622240674782391</v>
       </c>
       <c r="F5">
         <v>0.9023751289608183</v>
       </c>
       <c r="G5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>172</v>
       </c>
       <c r="E6">
-        <v>0.03084391408343447</v>
+        <v>0.03079592233537105</v>
       </c>
       <c r="F6">
         <v>0.9004769063673926</v>
       </c>
       <c r="G6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H6">
         <v>8</v>

--- a/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001337001164466956</v>
+        <v>0.00012417634080768</v>
       </c>
       <c r="C2">
-        <v>0.0001049438772109408</v>
+        <v>9.536557641688245E-05</v>
       </c>
       <c r="D2">
-        <v>4.586175678114704E-05</v>
+        <v>3.61714294543325E-05</v>
       </c>
       <c r="E2">
-        <v>6.13749183688588E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.336610464477339E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.758782740644013E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.52332063293853E-05</v>
+        <v>1.550376488537108E-05</v>
       </c>
       <c r="I2">
-        <v>5.432054855634049E-05</v>
+        <v>4.464626007693001E-05</v>
       </c>
       <c r="J2">
-        <v>3.662165402671824E-05</v>
+        <v>2.691380639653004E-05</v>
       </c>
       <c r="K2">
-        <v>0.0001043102872277795</v>
+        <v>9.473078507384298E-05</v>
       </c>
       <c r="L2">
-        <v>0.0001274629266124593</v>
+        <v>0.000117927324540232</v>
       </c>
       <c r="M2">
-        <v>0.0002440148935148958</v>
+        <v>0.0002347002874503102</v>
       </c>
       <c r="N2">
-        <v>0.0002504825133430079</v>
+        <v>0.0002411801706335501</v>
       </c>
       <c r="O2">
-        <v>0.0004270743386497845</v>
+        <v>0.0004181068344626799</v>
       </c>
       <c r="P2">
-        <v>0.000479599327253845</v>
+        <v>0.00047073141651927</v>
       </c>
       <c r="Q2">
-        <v>0.0006622785423988391</v>
+        <v>0.0006537570125817133</v>
       </c>
       <c r="R2">
-        <v>0.0006104089837773595</v>
+        <v>0.0006017891032787468</v>
       </c>
       <c r="S2">
-        <v>0.0005779732846393924</v>
+        <v>0.0005692919023042594</v>
       </c>
       <c r="T2">
-        <v>0.0004633137276866621</v>
+        <v>0.0004544149375719955</v>
       </c>
       <c r="U2">
-        <v>0.000277601932622264</v>
+        <v>0.0002683510114679249</v>
       </c>
       <c r="V2">
-        <v>0.0001872880150225075</v>
+        <v>0.0001778658482362458</v>
       </c>
       <c r="W2">
-        <v>4.130138890234645E-05</v>
+        <v>3.160241459066004E-05</v>
       </c>
       <c r="X2">
-        <v>5.867198844069369E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.076931171378751E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>5.658344849620014E-05</v>
+        <v>4.69134507367637E-05</v>
       </c>
       <c r="AA2">
-        <v>0.0001948327348219939</v>
+        <v>0.0001854248736969645</v>
       </c>
       <c r="AB2">
-        <v>0.0002235106440598305</v>
+        <v>0.0002141571595671095</v>
       </c>
       <c r="AC2">
-        <v>0.0003764484299952528</v>
+        <v>0.0003673849332308178</v>
       </c>
       <c r="AD2">
-        <v>0.0004970074367911954</v>
+        <v>0.0004881725338454255</v>
       </c>
       <c r="AE2">
-        <v>0.0005461742254845057</v>
+        <v>0.000537432548455883</v>
       </c>
       <c r="AF2">
-        <v>0.0005366036857388588</v>
+        <v>0.0005278438618601145</v>
       </c>
       <c r="AG2">
-        <v>0.0005232363360941184</v>
+        <v>0.00051445116617461</v>
       </c>
       <c r="AH2">
-        <v>0.0004932387268913552</v>
+        <v>0.0004843966780357911</v>
       </c>
       <c r="AI2">
-        <v>0.0004061169892067612</v>
+        <v>0.0003971097474615462</v>
       </c>
       <c r="AJ2">
-        <v>0.0002541567932453578</v>
+        <v>0.0002448614173954987</v>
       </c>
       <c r="AK2">
-        <v>6.294079832724293E-05</v>
+        <v>5.328285483826782E-05</v>
       </c>
       <c r="AL2">
-        <v>1.477981460720169E-05</v>
+        <v>5.030552323622805E-06</v>
       </c>
       <c r="AM2">
-        <v>7.097891811361644E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>5.012497266784495E-05</v>
+        <v>4.044272889136177E-05</v>
       </c>
       <c r="AO2">
-        <v>0.0001467151261007999</v>
+        <v>0.0001372160284251806</v>
       </c>
       <c r="AP2">
-        <v>0.0002428823435449951</v>
+        <v>0.0002335655900346954</v>
       </c>
       <c r="AQ2">
-        <v>0.0001807240551969557</v>
+        <v>0.0001712894423837901</v>
       </c>
       <c r="AR2">
-        <v>0.0002339166637832731</v>
+        <v>0.0002245829103073289</v>
       </c>
       <c r="AS2">
-        <v>0.0003645448203116112</v>
+        <v>0.0003554587529266494</v>
       </c>
       <c r="AT2">
-        <v>0.000531816585866084</v>
+        <v>0.0005230476850923872</v>
       </c>
       <c r="AU2">
-        <v>0.000703370481306752</v>
+        <v>0.000694926866557782</v>
       </c>
       <c r="AV2">
-        <v>0.0006517354426790396</v>
+        <v>0.0006431939219256115</v>
       </c>
       <c r="AW2">
-        <v>0.0007981260187884649</v>
+        <v>0.0007898620714963552</v>
       </c>
       <c r="AX2">
-        <v>0.0005447275855229526</v>
+        <v>0.0005359831654976692</v>
       </c>
       <c r="AY2">
-        <v>0.0004335993584763712</v>
+        <v>0.0004246442264814293</v>
       </c>
       <c r="AZ2">
-        <v>0.0002816479125147353</v>
+        <v>0.0002724046630061608</v>
       </c>
       <c r="BA2">
-        <v>0.0001228613767347532</v>
+        <v>0.0001133170495918217</v>
       </c>
       <c r="BB2">
-        <v>7.053587812539095E-05</v>
+        <v>6.089233578602937E-05</v>
       </c>
       <c r="BC2">
-        <v>6.321751231988878E-05</v>
+        <v>5.356009351264372E-05</v>
       </c>
       <c r="BD2">
-        <v>2.082597144651495E-05</v>
+        <v>1.108817337549786E-05</v>
       </c>
       <c r="BE2">
-        <v>8.987076761153391E-08</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>2.505848833402872E-05</v>
+        <v>1.532871560449043E-05</v>
       </c>
       <c r="BG2">
-        <v>0.0001171786368857816</v>
+        <v>0.0001076235346109285</v>
       </c>
       <c r="BH2">
-        <v>0.0002064847145123231</v>
+        <v>0.000197098946888254</v>
       </c>
       <c r="BI2">
-        <v>0.0002962725321260615</v>
+        <v>0.0002870570125875019</v>
       </c>
       <c r="BJ2">
-        <v>0.0003797417299077279</v>
+        <v>0.0003706844776207733</v>
       </c>
       <c r="BK2">
-        <v>0.0006155367836410796</v>
+        <v>0.0006069266260440016</v>
       </c>
       <c r="BL2">
-        <v>0.0007005242813823946</v>
+        <v>0.0006920752699092256</v>
       </c>
       <c r="BM2">
-        <v>0.0006077576838478222</v>
+        <v>0.0005991327761779395</v>
       </c>
       <c r="BN2">
-        <v>0.0005366036857388588</v>
+        <v>0.0005278438618601145</v>
       </c>
       <c r="BO2">
-        <v>0.0004124805490376389</v>
+        <v>0.0004034853733377631</v>
       </c>
       <c r="BP2">
-        <v>0.0002782312126055398</v>
+        <v>0.0002689814846388207</v>
       </c>
       <c r="BQ2">
-        <v>0.0001413606462431042</v>
+        <v>0.0001318513958544676</v>
       </c>
       <c r="BR2">
-        <v>7.105706811153946E-05</v>
+        <v>6.141451400866348E-05</v>
       </c>
       <c r="BS2">
-        <v>4.626785277035436E-08</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>3.222321914361401E-05</v>
+        <v>2.250703157224016E-05</v>
       </c>
       <c r="BU2">
-        <v>5.378688257052356E-05</v>
+        <v>4.411158219868935E-05</v>
       </c>
       <c r="BV2">
-        <v>7.846915791455076E-05</v>
+        <v>6.884065799109604E-05</v>
       </c>
       <c r="BW2">
-        <v>0.0002069856644990095</v>
+        <v>0.0001976008467340464</v>
       </c>
       <c r="BX2">
-        <v>0.0003966355194587471</v>
+        <v>0.0003876102997504263</v>
       </c>
       <c r="BY2">
-        <v>0.0006020685839990195</v>
+        <v>0.0005934328891379199</v>
       </c>
       <c r="BZ2">
-        <v>0.0005861455844221999</v>
+        <v>0.0005774796977125226</v>
       </c>
       <c r="CA2">
-        <v>0.0008601217171408256</v>
+        <v>0.0008519753208621475</v>
       </c>
       <c r="CB2">
-        <v>0.001064752271702426</v>
+        <v>0.001056993878619245</v>
       </c>
       <c r="CC2">
-        <v>0.001043541972266125</v>
+        <v>0.001035743362002395</v>
       </c>
       <c r="CD2">
-        <v>0.0009518558247028381</v>
+        <v>0.0009438833669004858</v>
       </c>
       <c r="CE2">
-        <v>0.000681721981882097</v>
+        <v>0.0006732373190747251</v>
       </c>
       <c r="CF2">
-        <v>0.0003503644406884785</v>
+        <v>0.0003412514856638926</v>
       </c>
       <c r="CG2">
-        <v>0.0001601997757424228</v>
+        <v>0.0001507262465219265</v>
       </c>
       <c r="CH2">
-        <v>3.181248915452985E-05</v>
+        <v>2.209552279159873E-05</v>
       </c>
       <c r="CI2">
-        <v>1.021756172845119E-05</v>
+        <v>4.59648885822545E-07</v>
       </c>
       <c r="CJ2">
-        <v>4.997189367191327E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0001328621264689666</v>
+        <v>0.0001233367619040457</v>
       </c>
       <c r="CL2">
-        <v>0.0002030225246043366</v>
+        <v>0.0001936301922678246</v>
       </c>
       <c r="CM2">
-        <v>0.001680748155331304</v>
+        <v>0.001674157761678967</v>
       </c>
       <c r="CN2">
-        <v>0.1312200265126081</v>
+        <v>0.1314590575710049</v>
       </c>
       <c r="CO2">
-        <v>0.05190065362065325</v>
+        <v>0.0519892859753332</v>
       </c>
       <c r="CP2">
-        <v>0.02789750825857702</v>
+        <v>0.02794062787385974</v>
       </c>
       <c r="CQ2">
-        <v>0.0001972039947589737</v>
+        <v>0.000187800629817004</v>
       </c>
       <c r="CR2">
-        <v>0.01972522347576917</v>
+        <v>0.01975284749403787</v>
       </c>
       <c r="CS2">
-        <v>0.0002035192645911349</v>
+        <v>0.0001941278741310823</v>
       </c>
       <c r="CT2">
-        <v>0.01466735261019055</v>
+        <v>0.01468538632039181</v>
       </c>
       <c r="CU2">
-        <v>0.0006318515332074878</v>
+        <v>0.000623272310262271</v>
       </c>
       <c r="CV2">
-        <v>0.005681992848991528</v>
+        <v>0.005682989277993475</v>
       </c>
       <c r="CW2">
-        <v>0.0004953904868341685</v>
+        <v>0.0004865525179642915</v>
       </c>
       <c r="CX2">
-        <v>0.01057131671904956</v>
+        <v>0.0105815838715242</v>
       </c>
       <c r="CY2">
-        <v>0.03066054318514474</v>
+        <v>0.03070890183417331</v>
       </c>
       <c r="CZ2">
-        <v>0.003548241105699553</v>
+        <v>0.003545191694643211</v>
       </c>
       <c r="DA2">
-        <v>0.01888814749801586</v>
+        <v>0.01891418432342894</v>
       </c>
       <c r="DB2">
-        <v>0.001821456751591738</v>
+        <v>0.001815133157709845</v>
       </c>
       <c r="DC2">
-        <v>0.0005478719854393849</v>
+        <v>0.0005391335275599704</v>
       </c>
       <c r="DD2">
-        <v>0.03251566313584182</v>
+        <v>0.03256753930682817</v>
       </c>
       <c r="DE2">
-        <v>0.003624224203680175</v>
+        <v>0.003621318865364502</v>
       </c>
       <c r="DF2">
-        <v>0.0004714529074703498</v>
+        <v>0.0004625695501817904</v>
       </c>
       <c r="DG2">
-        <v>0.008729969767986439</v>
+        <v>0.008736745513703358</v>
       </c>
       <c r="DH2">
-        <v>0.0110148057072631</v>
+        <v>0.01102591376614569</v>
       </c>
       <c r="DI2">
-        <v>0.005651029649814428</v>
+        <v>0.005651967369010064</v>
       </c>
       <c r="DJ2">
-        <v>0.000178958925243867</v>
+        <v>0.0001695209655401858</v>
       </c>
       <c r="DK2">
-        <v>0.0003932695395482037</v>
+        <v>0.0003842379375527211</v>
       </c>
       <c r="DL2">
-        <v>0.003365371310559624</v>
+        <v>0.003361975157224123</v>
       </c>
       <c r="DM2">
-        <v>0.008145526783518989</v>
+        <v>0.008151194357750741</v>
       </c>
       <c r="DN2">
-        <v>0.01570919158250194</v>
+        <v>0.01572920073987586</v>
       </c>
       <c r="DO2">
-        <v>3.74402870049617E-05</v>
+        <v>2.773399159756925E-05</v>
       </c>
       <c r="DP2">
-        <v>2.715982327818223E-05</v>
+        <v>1.743403492270229E-05</v>
       </c>
       <c r="DQ2">
-        <v>0.001312149265127437</v>
+        <v>0.001304859965353469</v>
       </c>
       <c r="DR2">
-        <v>0.0006086168838249875</v>
+        <v>0.0005999936052976216</v>
       </c>
       <c r="DS2">
-        <v>0.009692320742410351</v>
+        <v>0.009700921216863731</v>
       </c>
       <c r="DT2">
-        <v>0.02049224245538435</v>
+        <v>0.02052132083033862</v>
       </c>
       <c r="DU2">
-        <v>0.01331126764623078</v>
+        <v>0.01332673006251892</v>
       </c>
       <c r="DV2">
-        <v>0.003467191607853579</v>
+        <v>0.003463988517576531</v>
       </c>
       <c r="DW2">
-        <v>0.000784513479150241</v>
+        <v>0.0007762237209087851</v>
       </c>
       <c r="DX2">
-        <v>0.001061249871795508</v>
+        <v>0.001053484837757076</v>
       </c>
       <c r="DY2">
-        <v>0.0007653580796593278</v>
+        <v>0.0007570320005652533</v>
       </c>
       <c r="DZ2">
-        <v>3.153186216198798E-06</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0001049438772109408</v>
+        <v>9.536557641688245E-05</v>
       </c>
       <c r="EB2">
-        <v>0.008247517780808409</v>
+        <v>0.008253378741765544</v>
       </c>
       <c r="EC2">
-        <v>0.006433008029032043</v>
+        <v>0.006435428469664837</v>
       </c>
       <c r="ED2">
-        <v>7.340949204901987E-05</v>
+        <v>6.377139841397021E-05</v>
       </c>
       <c r="EE2">
-        <v>0.0007730348794553041</v>
+        <v>0.0007647233564614092</v>
       </c>
       <c r="EF2">
-        <v>7.196551308739602E-05</v>
+        <v>6.232468150124938E-05</v>
       </c>
       <c r="EG2">
-        <v>0.001254563866657865</v>
+        <v>0.001247165378309062</v>
       </c>
       <c r="EH2">
-        <v>0.01963887147806412</v>
+        <v>0.01966633176295918</v>
       </c>
       <c r="EI2">
-        <v>0.01150142969433025</v>
+        <v>0.01151346044856688</v>
       </c>
       <c r="EJ2">
-        <v>0.002376722836834612</v>
+        <v>0.00237145209166286</v>
       </c>
       <c r="EK2">
-        <v>0.001712079654498617</v>
+        <v>0.001705548668991963</v>
       </c>
       <c r="EL2">
-        <v>0.03374432910318797</v>
+        <v>0.03379853496693476</v>
       </c>
       <c r="EM2">
-        <v>0.064324038290481</v>
+        <v>0.06443622681916981</v>
       </c>
       <c r="EN2">
-        <v>0.02410764735929892</v>
+        <v>0.02414358096004652</v>
       </c>
       <c r="EO2">
-        <v>0.02061517445211723</v>
+        <v>0.0206444859203535</v>
       </c>
       <c r="EP2">
-        <v>0.00889121676370103</v>
+        <v>0.008898298252368876</v>
       </c>
       <c r="EQ2">
-        <v>0.001898082849555271</v>
+        <v>0.001891904547616373</v>
       </c>
       <c r="ER2">
-        <v>0.005364537857428427</v>
+        <v>0.005364932355054988</v>
       </c>
       <c r="ES2">
-        <v>1.426715262082654E-05</v>
+        <v>4.516918270835825E-06</v>
       </c>
       <c r="ET2">
-        <v>0.005762525246851245</v>
+        <v>0.005763674374592525</v>
       </c>
       <c r="EU2">
-        <v>0.001275216166108996</v>
+        <v>0.001267856836908242</v>
       </c>
       <c r="EV2">
-        <v>0.00158686975782628</v>
+        <v>0.001580101359875913</v>
       </c>
       <c r="EW2">
-        <v>0.01744554753635537</v>
+        <v>0.01746884902541486</v>
       </c>
       <c r="EX2">
-        <v>0.01493817960299287</v>
+        <v>0.01495672683249168</v>
       </c>
       <c r="EY2">
-        <v>0.01401544262751615</v>
+        <v>0.01403224024100157</v>
       </c>
       <c r="EZ2">
-        <v>0.01144700169577677</v>
+        <v>0.01145892924823393</v>
       </c>
       <c r="FA2">
-        <v>0.0001508468259909931</v>
+        <v>0.0001413555624961668</v>
       </c>
       <c r="FB2">
-        <v>0.008682558769246465</v>
+        <v>0.008689244618227034</v>
       </c>
       <c r="FC2">
-        <v>0.008807002765939159</v>
+        <v>0.008813924575128508</v>
       </c>
       <c r="FD2">
-        <v>0.009141638757045647</v>
+        <v>0.009149195074772375</v>
       </c>
       <c r="FE2">
-        <v>0.001510171959864652</v>
+        <v>0.001503258134019803</v>
       </c>
       <c r="FF2">
-        <v>0.003617758903852001</v>
+        <v>0.003614841306580188</v>
       </c>
       <c r="FG2">
-        <v>0.002172522642261574</v>
+        <v>0.002166864709906631</v>
       </c>
       <c r="FH2">
-        <v>0.01799630952171795</v>
+        <v>0.01802065531919334</v>
       </c>
       <c r="FI2">
-        <v>0.01639447456428939</v>
+        <v>0.01641578309744483</v>
       </c>
       <c r="FJ2">
-        <v>0.0034112282093409</v>
+        <v>0.003407919005988508</v>
       </c>
       <c r="FK2">
-        <v>0.0001007724473218035</v>
+        <v>9.118623701427959E-05</v>
       </c>
       <c r="FL2">
-        <v>0.0004870463370559283</v>
+        <v>0.000478192546713131</v>
       </c>
       <c r="FM2">
-        <v>0.001011741773111269</v>
+        <v>0.001003882865992477</v>
       </c>
       <c r="FN2">
-        <v>0.001322300864857641</v>
+        <v>0.001315030813690721</v>
       </c>
       <c r="FO2">
-        <v>0.0005031973866266871</v>
+        <v>0.0004943742205416284</v>
       </c>
       <c r="FP2">
-        <v>0.004881496370266063</v>
+        <v>0.004880974965372698</v>
       </c>
       <c r="FQ2">
-        <v>0.001418520162300452</v>
+        <v>0.001411432554048551</v>
       </c>
       <c r="FR2">
-        <v>0.005746814847268775</v>
+        <v>0.005747934186275653</v>
       </c>
       <c r="FS2">
-        <v>0.01507285759941358</v>
+        <v>0.01509166019396814</v>
       </c>
       <c r="FT2">
-        <v>0.002093675944357057</v>
+        <v>0.002087868509544835</v>
       </c>
       <c r="FU2">
-        <v>0.002000628646829945</v>
+        <v>0.001994644783581362</v>
       </c>
       <c r="FV2">
-        <v>0.0002558723131997649</v>
+        <v>0.000246580190174127</v>
       </c>
       <c r="FW2">
-        <v>0.001410839362504582</v>
+        <v>0.001403737190568039</v>
       </c>
       <c r="FX2">
-        <v>0.003642541703193356</v>
+        <v>0.003639671096975047</v>
       </c>
       <c r="FY2">
-        <v>0.0001826809551449478</v>
+        <v>0.000173250052840385</v>
       </c>
       <c r="FZ2">
-        <v>0.001555642058656208</v>
+        <v>0.001548814449376957</v>
       </c>
       <c r="GA2">
-        <v>0.008476377774726072</v>
+        <v>0.008482672680697684</v>
       </c>
       <c r="GB2">
-        <v>0.01604148157367077</v>
+        <v>0.0160621207912949</v>
       </c>
       <c r="GC2">
-        <v>0.004451860881684345</v>
+        <v>0.004450524838220383</v>
       </c>
       <c r="GD2">
-        <v>0.0006248402433938246</v>
+        <v>0.0006162477262323159</v>
       </c>
       <c r="GE2">
-        <v>0.001241264167011327</v>
+        <v>0.00123384046089398</v>
       </c>
       <c r="GF2">
-        <v>0.0003209201314710103</v>
+        <v>0.000311751346631126</v>
       </c>
       <c r="GG2">
-        <v>0.001828692451399437</v>
+        <v>0.001822382577241136</v>
       </c>
       <c r="GH2">
-        <v>0.005856578844351613</v>
+        <v>0.005857906308590374</v>
       </c>
       <c r="GI2">
-        <v>0.02563594631868181</v>
+        <v>0.02567477775099316</v>
       </c>
       <c r="GJ2">
-        <v>0.02747703626975177</v>
+        <v>0.02751935862151913</v>
       </c>
       <c r="GK2">
-        <v>0.01430913861971069</v>
+        <v>0.01432649311476114</v>
       </c>
       <c r="GL2">
-        <v>0.008625296770768301</v>
+        <v>0.008631874044377817</v>
       </c>
       <c r="GM2">
-        <v>0.002983245720715251</v>
+        <v>0.002979125013071336</v>
       </c>
       <c r="GN2">
-        <v>2.292575039070981E-05</v>
+        <v>1.319193374339521E-05</v>
       </c>
       <c r="GO2">
-        <v>0.001266590666338233</v>
+        <v>0.001259214982192437</v>
       </c>
       <c r="GP2">
-        <v>0.0007069428512118104</v>
+        <v>0.0006985060100892993</v>
       </c>
       <c r="GQ2">
-        <v>0.000489484386991133</v>
+        <v>0.0004806352194729558</v>
       </c>
       <c r="GR2">
-        <v>0.0003764484299952528</v>
+        <v>0.0003673849332308178</v>
       </c>
       <c r="GS2">
-        <v>2.391395836444652E-05</v>
+        <v>1.418201547372926E-05</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.739463942678373E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.458195666980785E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.992292485244269E-05</v>
+        <v>1.220106524975432E-05</v>
       </c>
       <c r="E3">
-        <v>1.064870042113138E-05</v>
+        <v>2.913440143442563E-06</v>
       </c>
       <c r="F3">
-        <v>2.155717784033875E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.470131589111606E-05</v>
+        <v>6.971911389639826E-06</v>
       </c>
       <c r="H3">
-        <v>0.0001121748641691872</v>
+        <v>0.0001045863028564098</v>
       </c>
       <c r="I3">
-        <v>0.0003009633977709423</v>
+        <v>0.0002936476240967805</v>
       </c>
       <c r="J3">
-        <v>0.0006708270450315813</v>
+        <v>0.0006640457012246421</v>
       </c>
       <c r="K3">
-        <v>0.0009878291926837342</v>
+        <v>0.0009815058971790107</v>
       </c>
       <c r="L3">
-        <v>0.001150989891475299</v>
+        <v>0.001144902352988701</v>
       </c>
       <c r="M3">
-        <v>0.0003132561376798973</v>
+        <v>0.0003059581262470533</v>
       </c>
       <c r="N3">
-        <v>5.359799560303138E-05</v>
+        <v>4.592479437410655E-05</v>
       </c>
       <c r="O3">
-        <v>4.327412467949418E-05</v>
+        <v>3.558600610195249E-05</v>
       </c>
       <c r="P3">
-        <v>9.356947930698627E-05</v>
+        <v>8.595403437524505E-05</v>
       </c>
       <c r="Q3">
-        <v>6.206498954032137E-05</v>
+        <v>5.440402258875576E-05</v>
       </c>
       <c r="R3">
-        <v>3.512528973984778E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.044767592262025E-05</v>
+        <v>2.712125177087828E-06</v>
       </c>
       <c r="T3">
-        <v>9.834901927158704E-05</v>
+        <v>9.074048047654669E-05</v>
       </c>
       <c r="U3">
-        <v>0.00015692761883773</v>
+        <v>0.000149403722460024</v>
       </c>
       <c r="V3">
-        <v>0.0002528237981274838</v>
+        <v>0.0002454384657388169</v>
       </c>
       <c r="W3">
-        <v>0.0002089812184521998</v>
+        <v>0.0002015325362744739</v>
       </c>
       <c r="X3">
-        <v>3.084030277158413E-05</v>
+        <v>2.31342180980486E-05</v>
       </c>
       <c r="Y3">
-        <v>1.261730690655108E-05</v>
+        <v>4.884891142267157E-06</v>
       </c>
       <c r="Z3">
-        <v>2.970515977999147E-05</v>
+        <v>2.199743489573837E-05</v>
       </c>
       <c r="AA3">
-        <v>2.216042583587085E-05</v>
+        <v>1.444179928234084E-05</v>
       </c>
       <c r="AB3">
-        <v>4.228230268684002E-05</v>
+        <v>3.459275098847186E-05</v>
       </c>
       <c r="AC3">
-        <v>6.714690950268261E-05</v>
+        <v>5.949328560802685E-05</v>
       </c>
       <c r="AD3">
-        <v>9.151525532220069E-05</v>
+        <v>8.389684216511598E-05</v>
       </c>
       <c r="AE3">
-        <v>0.0001480118689037637</v>
+        <v>0.0001404750898243143</v>
       </c>
       <c r="AF3">
-        <v>8.228646939055284E-05</v>
+        <v>7.465472121426143E-05</v>
       </c>
       <c r="AG3">
-        <v>2.706765179952593E-05</v>
+        <v>1.935611588098969E-05</v>
       </c>
       <c r="AH3">
-        <v>2.155717784033875E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.863431086198669E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>8.302269438510006E-07</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>7.378711945350249E-05</v>
+        <v>6.614309024745328E-05</v>
       </c>
       <c r="AL3">
-        <v>0.0002618759180604401</v>
+        <v>0.000254503665419647</v>
       </c>
       <c r="AM3">
-        <v>0.0007364850545452913</v>
+        <v>0.0007297985824608542</v>
       </c>
       <c r="AN3">
-        <v>0.0007533784944201715</v>
+        <v>0.0007467164323011261</v>
       </c>
       <c r="AO3">
-        <v>0.0004607210565877119</v>
+        <v>0.0004536361227514785</v>
       </c>
       <c r="AP3">
-        <v>0.000314718547669066</v>
+        <v>0.0003074226493273088</v>
       </c>
       <c r="AQ3">
-        <v>1.047102892244729E-05</v>
+        <v>2.7355119205409E-06</v>
       </c>
       <c r="AR3">
-        <v>3.663834272864148E-07</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>8.324090938348386E-06</v>
+        <v>5.854717451607644E-07</v>
       </c>
       <c r="AT3">
-        <v>9.366802930625636E-06</v>
+        <v>1.629690391135158E-06</v>
       </c>
       <c r="AU3">
-        <v>3.909853971042026E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>9.78658352751657E-08</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>3.629491373118506E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>9.557197929215493E-06</v>
+        <v>1.820360498605192E-06</v>
       </c>
       <c r="AY3">
-        <v>2.635852980477798E-05</v>
+        <v>1.864596924925374E-05</v>
       </c>
       <c r="AZ3">
-        <v>5.557961958835467E-05</v>
+        <v>4.790928168230897E-05</v>
       </c>
       <c r="BA3">
-        <v>1.493959888935124E-05</v>
+        <v>7.210538691923405E-06</v>
       </c>
       <c r="BB3">
-        <v>4.257455968467544E-09</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>6.197751554096924E-06</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>4.998304562980517E-05</v>
+        <v>4.230462102397234E-05</v>
       </c>
       <c r="BE3">
-        <v>8.819064434682411E-05</v>
+        <v>8.056742733454763E-05</v>
       </c>
       <c r="BF3">
-        <v>0.0002119744884300305</v>
+        <v>0.0002045301313404516</v>
       </c>
       <c r="BG3">
-        <v>0.0003033483477532784</v>
+        <v>0.0002960360201828681</v>
       </c>
       <c r="BH3">
-        <v>0.0001228289890902784</v>
+        <v>0.0001152558223225155</v>
       </c>
       <c r="BI3">
-        <v>1.688514187494175E-05</v>
+        <v>9.158892865602196E-06</v>
       </c>
       <c r="BJ3">
-        <v>3.140718276738559E-07</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>5.042508662653124E-06</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001740002787112829</v>
+        <v>0.0001665010512606719</v>
       </c>
       <c r="BM3">
-        <v>0.0002889167178601649</v>
+        <v>0.0002815835374860127</v>
       </c>
       <c r="BN3">
-        <v>9.356947930698627E-05</v>
+        <v>8.595403437524505E-05</v>
       </c>
       <c r="BO3">
-        <v>0.0003272862775759843</v>
+        <v>0.0003200085388189151</v>
       </c>
       <c r="BP3">
-        <v>0.0002815990279143627</v>
+        <v>0.0002742552739353292</v>
       </c>
       <c r="BQ3">
-        <v>6.669962950599532E-05</v>
+        <v>5.904535931968314E-05</v>
       </c>
       <c r="BR3">
-        <v>7.739463942678373E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>4.55634496625385E-05</v>
+        <v>3.78786390165975E-05</v>
       </c>
       <c r="BT3">
-        <v>0.0001047942392238511</v>
+        <v>9.719501336904922E-05</v>
       </c>
       <c r="BU3">
-        <v>2.284551983079676E-05</v>
+        <v>1.512788319529588E-05</v>
       </c>
       <c r="BV3">
-        <v>3.497176974098481E-07</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>4.442960967093618E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1.580097688297152E-05</v>
+        <v>8.073161322939574E-06</v>
       </c>
       <c r="BY3">
-        <v>9.78658352751657E-08</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1.60769158809278E-05</v>
+        <v>8.349499035511718E-06</v>
       </c>
       <c r="CA3">
-        <v>2.151924484061969E-05</v>
+        <v>1.379969182060211E-05</v>
       </c>
       <c r="CB3">
-        <v>1.41527718951788E-05</v>
+        <v>6.42257478189255E-06</v>
       </c>
       <c r="CC3">
-        <v>9.577771529063117E-05</v>
+        <v>8.816546112195162E-05</v>
       </c>
       <c r="CD3">
-        <v>6.839529949343652E-05</v>
+        <v>6.074347944433829E-05</v>
       </c>
       <c r="CE3">
-        <v>4.232926968649216E-05</v>
+        <v>3.463978585250476E-05</v>
       </c>
       <c r="CF3">
-        <v>2.521398681325493E-07</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>3.164756976560519E-05</v>
+        <v>2.39426515424511E-05</v>
       </c>
       <c r="CH3">
-        <v>7.005178948116787E-05</v>
+        <v>6.240236295663135E-05</v>
       </c>
       <c r="CI3">
-        <v>6.562516951395323E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>9.557197929215493E-06</v>
+        <v>1.820360498605192E-06</v>
       </c>
       <c r="CK3">
-        <v>0.0001152550091463744</v>
+        <v>0.0001076708984506916</v>
       </c>
       <c r="CL3">
-        <v>0.0001252070790726653</v>
+        <v>0.0001176373484963825</v>
       </c>
       <c r="CM3">
-        <v>0.0002736921279729244</v>
+        <v>0.0002663369490173701</v>
       </c>
       <c r="CN3">
-        <v>0.0003085269377149236</v>
+        <v>0.0003012220928835338</v>
       </c>
       <c r="CO3">
-        <v>0.0251384878138141</v>
+        <v>0.02516706071147631</v>
       </c>
       <c r="CP3">
-        <v>0.01673849487602788</v>
+        <v>0.01675493030859001</v>
       </c>
       <c r="CQ3">
-        <v>0.1046246892251069</v>
+        <v>0.1047681147188025</v>
       </c>
       <c r="CR3">
-        <v>0.004049610970006929</v>
+        <v>0.004047711757920079</v>
       </c>
       <c r="CS3">
-        <v>0.009030394933117211</v>
+        <v>0.009035692642738629</v>
       </c>
       <c r="CT3">
-        <v>0.0250285298146285</v>
+        <v>0.02505694382985027</v>
       </c>
       <c r="CU3">
-        <v>0.0006943554548573202</v>
+        <v>0.0006876081081329066</v>
       </c>
       <c r="CV3">
-        <v>0.0179889088667668</v>
+        <v>0.01800715106944</v>
       </c>
       <c r="CW3">
-        <v>0.0004123092969462692</v>
+        <v>0.0004051544111413337</v>
       </c>
       <c r="CX3">
-        <v>0.005099569962230505</v>
+        <v>0.005099187875303046</v>
       </c>
       <c r="CY3">
-        <v>0.005768455557276465</v>
+        <v>0.005769039968252747</v>
       </c>
       <c r="CZ3">
-        <v>0.02825545479072858</v>
+        <v>0.02828853151097499</v>
       </c>
       <c r="DA3">
-        <v>0.03699724972598328</v>
+        <v>0.03704295779386588</v>
       </c>
       <c r="DB3">
-        <v>0.006923265248723474</v>
+        <v>0.006925518287570158</v>
       </c>
       <c r="DC3">
-        <v>0.01355453489960958</v>
+        <v>0.01356636970888785</v>
       </c>
       <c r="DD3">
-        <v>0.03756692272176405</v>
+        <v>0.03761345393154164</v>
       </c>
       <c r="DE3">
-        <v>0.004618424465794064</v>
+        <v>0.004617347153678404</v>
       </c>
       <c r="DF3">
-        <v>0.02468372981718223</v>
+        <v>0.02471164561794519</v>
       </c>
       <c r="DG3">
-        <v>0.0001711948087320614</v>
+        <v>0.0001636915275525706</v>
       </c>
       <c r="DH3">
-        <v>0.0001497741588907115</v>
+        <v>0.0001422399262102139</v>
       </c>
       <c r="DI3">
-        <v>0.007704658342936157</v>
+        <v>0.007708040445995239</v>
       </c>
       <c r="DJ3">
-        <v>4.14375236930968E-06</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.005415188559892904</v>
+        <v>0.005415262522124347</v>
       </c>
       <c r="DL3">
-        <v>1.044767592262025E-05</v>
+        <v>2.712125177087828E-06</v>
       </c>
       <c r="DM3">
-        <v>0.002669778380226532</v>
+        <v>0.002665885396236962</v>
       </c>
       <c r="DN3">
-        <v>0.005104506362193944</v>
+        <v>0.005104131408056086</v>
       </c>
       <c r="DO3">
-        <v>0.0121902949097137</v>
+        <v>0.01220015847742211</v>
       </c>
       <c r="DP3">
-        <v>0.008398754437795398</v>
+        <v>0.008403139466355708</v>
       </c>
       <c r="DQ3">
-        <v>0.001243784690788023</v>
+        <v>0.001237831234990121</v>
       </c>
       <c r="DR3">
-        <v>0.003295407575592867</v>
+        <v>0.003292418586711457</v>
       </c>
       <c r="DS3">
-        <v>0.002586223880845371</v>
+        <v>0.002582210165823321</v>
       </c>
       <c r="DT3">
-        <v>0.0001931853785691903</v>
+        <v>0.0001857138723895007</v>
       </c>
       <c r="DU3">
-        <v>0.009326188930926441</v>
+        <v>0.009331914044398293</v>
       </c>
       <c r="DV3">
-        <v>0.01403346389606244</v>
+        <v>0.01404599072782489</v>
       </c>
       <c r="DW3">
-        <v>0.001167603691352251</v>
+        <v>0.001161540158768715</v>
       </c>
       <c r="DX3">
-        <v>0.004203345968868305</v>
+        <v>0.004201668894251945</v>
       </c>
       <c r="DY3">
-        <v>0.0006031561555327795</v>
+        <v>0.0005962770315174917</v>
       </c>
       <c r="DZ3">
-        <v>0.001545089288556438</v>
+        <v>0.001539571199081698</v>
       </c>
       <c r="EA3">
-        <v>0.0001114440091746002</v>
+        <v>0.0001038543918220076</v>
       </c>
       <c r="EB3">
-        <v>0.0006153785454422554</v>
+        <v>0.0006085170820169306</v>
       </c>
       <c r="EC3">
-        <v>0.004311920568064157</v>
+        <v>0.004310400376961659</v>
       </c>
       <c r="ED3">
-        <v>0.008795973934853429</v>
+        <v>0.008800932920775171</v>
       </c>
       <c r="EE3">
-        <v>0.0006851437949255456</v>
+        <v>0.0006783831379279253</v>
       </c>
       <c r="EF3">
-        <v>0.0002031614984953031</v>
+        <v>0.0001957044071857609</v>
       </c>
       <c r="EG3">
-        <v>0.0008945885233743125</v>
+        <v>0.0008881305009265984</v>
       </c>
       <c r="EH3">
-        <v>0.00123119199088129</v>
+        <v>0.00122522033941861</v>
       </c>
       <c r="EI3">
-        <v>0.01122967191682847</v>
+        <v>0.01123814744431627</v>
       </c>
       <c r="EJ3">
-        <v>0.0232549308277645</v>
+        <v>0.02328078210323588</v>
       </c>
       <c r="EK3">
-        <v>0.01446196689288877</v>
+        <v>0.01447511288471573</v>
       </c>
       <c r="EL3">
-        <v>0.001481684389026041</v>
+        <v>0.001476074683431987</v>
       </c>
       <c r="EM3">
-        <v>0.006388108652687061</v>
+        <v>0.006389588423680359</v>
       </c>
       <c r="EN3">
-        <v>0.04054434169971206</v>
+        <v>0.04059517509393205</v>
       </c>
       <c r="EO3">
-        <v>0.03851398471474972</v>
+        <v>0.03856188436995014</v>
       </c>
       <c r="EP3">
-        <v>0.01628607087937872</v>
+        <v>0.01630185258752578</v>
       </c>
       <c r="EQ3">
-        <v>0.01369421389857507</v>
+        <v>0.01370625053528197</v>
       </c>
       <c r="ER3">
-        <v>0.006957642248468863</v>
+        <v>0.006959944959932862</v>
       </c>
       <c r="ES3">
-        <v>0.009998084925950106</v>
+        <v>0.01000478088716563</v>
       </c>
       <c r="ET3">
-        <v>0.006260131453634913</v>
+        <v>0.006261426305569515</v>
       </c>
       <c r="EU3">
-        <v>0.001148645991492659</v>
+        <v>0.001142555066216995</v>
       </c>
       <c r="EV3">
-        <v>0.003955175570706356</v>
+        <v>0.003953139905366305</v>
       </c>
       <c r="EW3">
-        <v>3.049752677412288E-05</v>
+        <v>2.279094681068209E-05</v>
       </c>
       <c r="EX3">
-        <v>0.002121952984283951</v>
+        <v>0.002117268426816469</v>
       </c>
       <c r="EY3">
-        <v>0.01613279788051392</v>
+        <v>0.01614835811875163</v>
       </c>
       <c r="EZ3">
-        <v>0.01157555891426669</v>
+        <v>0.01158453422686039</v>
       </c>
       <c r="FA3">
-        <v>0.008705262935525272</v>
+        <v>0.008710090849719132</v>
       </c>
       <c r="FB3">
-        <v>0.001523269888718042</v>
+        <v>0.001517720271573456</v>
       </c>
       <c r="FC3">
-        <v>0.00788499094160054</v>
+        <v>0.007888633614000442</v>
       </c>
       <c r="FD3">
-        <v>0.01392697889685111</v>
+        <v>0.01393935186444115</v>
       </c>
       <c r="FE3">
-        <v>0.009788764927500413</v>
+        <v>0.009795158434393086</v>
       </c>
       <c r="FF3">
-        <v>0.008876168934259472</v>
+        <v>0.008881243796946076</v>
       </c>
       <c r="FG3">
-        <v>4.561220266217742E-05</v>
+        <v>3.79274624612756E-05</v>
       </c>
       <c r="FH3">
-        <v>0.002824018179084169</v>
+        <v>0.002820348061969552</v>
       </c>
       <c r="FI3">
-        <v>0.005875504956483613</v>
+        <v>0.005876244047155043</v>
       </c>
       <c r="FJ3">
-        <v>0.02934080178269005</v>
+        <v>0.02937544676154501</v>
       </c>
       <c r="FK3">
-        <v>0.01860003686224054</v>
+        <v>0.01861916210669386</v>
       </c>
       <c r="FL3">
-        <v>0.003230177276075989</v>
+        <v>0.003227094033486307</v>
       </c>
       <c r="FM3">
-        <v>0.0001796656686693228</v>
+        <v>0.0001721746273533196</v>
       </c>
       <c r="FN3">
-        <v>5.769904557265733E-05</v>
+        <v>5.003177010477166E-05</v>
       </c>
       <c r="FO3">
-        <v>0.0004077138069803052</v>
+        <v>0.0004005522809794204</v>
       </c>
       <c r="FP3">
-        <v>0.002698264980015549</v>
+        <v>0.002694413157383294</v>
       </c>
       <c r="FQ3">
-        <v>0.001256185390696179</v>
+        <v>0.00125024985313505</v>
       </c>
       <c r="FR3">
-        <v>0.003609306573268003</v>
+        <v>0.003606771148830927</v>
       </c>
       <c r="FS3">
-        <v>0.0008104858539972112</v>
+        <v>0.0008039063084456149</v>
       </c>
       <c r="FT3">
-        <v>0.009030394933117211</v>
+        <v>0.009035692642738629</v>
       </c>
       <c r="FU3">
-        <v>0.008983400933465268</v>
+        <v>0.00898863073969261</v>
       </c>
       <c r="FV3">
-        <v>0.001573072888349181</v>
+        <v>0.00156759523342818</v>
       </c>
       <c r="FW3">
-        <v>0.00308795577712934</v>
+        <v>0.003084667033357367</v>
       </c>
       <c r="FX3">
-        <v>7.101702447401895E-06</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.00250776758142645</v>
+        <v>0.002503640501952415</v>
       </c>
       <c r="FZ3">
-        <v>0.001240621390811452</v>
+        <v>0.001234663364242675</v>
       </c>
       <c r="GA3">
-        <v>0.001409791089558512</v>
+        <v>0.001404077502637452</v>
       </c>
       <c r="GB3">
-        <v>0.005255969661072144</v>
+        <v>0.0052558135619402</v>
       </c>
       <c r="GC3">
-        <v>0.01503662288863264</v>
+        <v>0.01505059922247828</v>
       </c>
       <c r="GD3">
-        <v>0.01779393286821088</v>
+        <v>0.0178118933427451</v>
       </c>
       <c r="GE3">
-        <v>0.004806791364398942</v>
+        <v>0.004805986230685664</v>
       </c>
       <c r="GF3">
-        <v>0.004009011670307623</v>
+        <v>0.004007053794768692</v>
       </c>
       <c r="GG3">
-        <v>0.003194335976341445</v>
+        <v>0.003191200945312428</v>
       </c>
       <c r="GH3">
-        <v>0.0001307265490317859</v>
+        <v>0.0001231647937448272</v>
       </c>
       <c r="GI3">
-        <v>0.002184179383823077</v>
+        <v>0.002179584739616036</v>
       </c>
       <c r="GJ3">
-        <v>0.0133574464010693</v>
+        <v>0.01336899642977807</v>
       </c>
       <c r="GK3">
-        <v>0.02962065978061731</v>
+        <v>0.02965570913679829</v>
       </c>
       <c r="GL3">
-        <v>0.02369750082448664</v>
+        <v>0.02372399158595871</v>
       </c>
       <c r="GM3">
-        <v>0.01319578840226661</v>
+        <v>0.01320710484526487</v>
       </c>
       <c r="GN3">
-        <v>0.01128878191639068</v>
+        <v>0.01129734285413561</v>
       </c>
       <c r="GO3">
-        <v>0.002819633979116641</v>
+        <v>0.002815957527106924</v>
       </c>
       <c r="GP3">
-        <v>0.000681907344949516</v>
+        <v>0.0006751420114838412</v>
       </c>
       <c r="GQ3">
-        <v>0.003079535177191706</v>
+        <v>0.003076234266178806</v>
       </c>
       <c r="GR3">
-        <v>0.00173295208716505</v>
+        <v>0.001727705447699685</v>
       </c>
       <c r="GS3">
-        <v>0.001240621390811452</v>
+        <v>0.001234663364242675</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002855443051765782</v>
+        <v>0.0002851493811690933</v>
       </c>
       <c r="C4">
-        <v>0.0008489744153908951</v>
+        <v>0.000848626359905732</v>
       </c>
       <c r="D4">
-        <v>0.0007690830539425599</v>
+        <v>0.0007687283527528285</v>
       </c>
       <c r="E4">
-        <v>0.0005277188095669136</v>
+        <v>0.0005273440306687493</v>
       </c>
       <c r="F4">
-        <v>0.0004410563679958267</v>
+        <v>0.0004406743801457381</v>
       </c>
       <c r="G4">
-        <v>0.0002740492049681858</v>
+        <v>0.0002736533247491834</v>
       </c>
       <c r="H4">
-        <v>0.000192267953485589</v>
+        <v>0.0001918652703528959</v>
       </c>
       <c r="I4">
-        <v>0.000267397704847602</v>
+        <v>0.0002670012713284188</v>
       </c>
       <c r="J4">
-        <v>4.708963085367893E-05</v>
+        <v>4.667487116822162E-05</v>
       </c>
       <c r="K4">
-        <v>2.989771654201E-05</v>
+        <v>2.948152675971359E-05</v>
       </c>
       <c r="L4">
-        <v>4.186419775894805E-07</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>7.28062663198909E-06</v>
+        <v>6.86255546358271E-06</v>
       </c>
       <c r="N4">
-        <v>1.025527118591585E-08</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.91657433474521E-06</v>
+        <v>1.498056961565123E-06</v>
       </c>
       <c r="P4">
-        <v>2.759839550032605E-07</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.065786569321441E-05</v>
+        <v>1.02400754579734E-05</v>
       </c>
       <c r="R4">
-        <v>4.1449330751427E-05</v>
+        <v>4.103410188172403E-05</v>
       </c>
       <c r="S4">
-        <v>0.0004712897685439222</v>
+        <v>0.0004709102956371829</v>
       </c>
       <c r="T4">
-        <v>0.001111009920141287</v>
+        <v>0.001110683661888257</v>
       </c>
       <c r="U4">
-        <v>0.00165151992994009</v>
+        <v>0.001651238633617564</v>
       </c>
       <c r="V4">
-        <v>0.001915983334734496</v>
+        <v>0.001915724037607197</v>
       </c>
       <c r="W4">
-        <v>0.002159499339149152</v>
+        <v>0.002159260298722873</v>
       </c>
       <c r="X4">
-        <v>0.001874624833984716</v>
+        <v>0.00187436209648073</v>
       </c>
       <c r="Y4">
-        <v>0.001631864129583753</v>
+        <v>0.001631581198207827</v>
       </c>
       <c r="Z4">
-        <v>0.0009365454169784532</v>
+        <v>0.0009362046460231159</v>
       </c>
       <c r="AA4">
-        <v>5.369221697337595E-05</v>
+        <v>5.327800651922404E-05</v>
       </c>
       <c r="AB4">
-        <v>8.532321154680822E-06</v>
+        <v>8.11435410756937E-06</v>
       </c>
       <c r="AC4">
-        <v>6.326783114697044E-05</v>
+        <v>6.285441723329179E-05</v>
       </c>
       <c r="AD4">
-        <v>5.547825100575462E-05</v>
+        <v>5.506418912153959E-05</v>
       </c>
       <c r="AE4">
-        <v>0.000426741267736311</v>
+        <v>0.0004263580890950597</v>
       </c>
       <c r="AF4">
-        <v>0.000788260214290219</v>
+        <v>0.0007879071083385686</v>
       </c>
       <c r="AG4">
-        <v>0.001784677532354078</v>
+        <v>0.001784407312649483</v>
       </c>
       <c r="AH4">
-        <v>0.0009297286168548726</v>
+        <v>0.0009293872788489944</v>
       </c>
       <c r="AI4">
-        <v>0.0005389218097700106</v>
+        <v>0.0005385479627852383</v>
       </c>
       <c r="AJ4">
-        <v>0.0005212381094494261</v>
+        <v>0.0005208627914589546</v>
       </c>
       <c r="AK4">
-        <v>0.0006851792124214831</v>
+        <v>0.0006848175317519583</v>
       </c>
       <c r="AL4">
-        <v>0.0004916733689134526</v>
+        <v>0.0004912955916016267</v>
       </c>
       <c r="AM4">
-        <v>0.0004809753287195099</v>
+        <v>0.0004805966614990218</v>
       </c>
       <c r="AN4">
-        <v>0.0002431823044086056</v>
+        <v>0.0002427838565490181</v>
       </c>
       <c r="AO4">
-        <v>0.0002059566337337485</v>
+        <v>0.0002055550892839267</v>
       </c>
       <c r="AP4">
-        <v>7.431715134728144E-05</v>
+        <v>7.390465656323583E-05</v>
       </c>
       <c r="AQ4">
-        <v>8.108625646999726E-05</v>
+        <v>8.067432476901872E-05</v>
       </c>
       <c r="AR4">
-        <v>6.455408717028872E-05</v>
+        <v>6.414078025287818E-05</v>
       </c>
       <c r="AS4">
-        <v>6.918148725417798E-05</v>
+        <v>6.876856526366467E-05</v>
       </c>
       <c r="AT4">
-        <v>2.698804648926114E-05</v>
+        <v>2.657161466818593E-05</v>
       </c>
       <c r="AU4">
-        <v>0.000169455863072033</v>
+        <v>0.0001690512823322553</v>
       </c>
       <c r="AV4">
-        <v>0.0007043806127695817</v>
+        <v>0.0007040205293545247</v>
       </c>
       <c r="AW4">
-        <v>0.001812141932851975</v>
+        <v>0.001811873997753482</v>
       </c>
       <c r="AX4">
-        <v>0.002955409553578056</v>
+        <v>0.002955236720361819</v>
       </c>
       <c r="AY4">
-        <v>0.002571005646609271</v>
+        <v>0.002570800837034711</v>
       </c>
       <c r="AZ4">
-        <v>0.001396094925309538</v>
+        <v>0.001395792381644505</v>
       </c>
       <c r="BA4">
-        <v>0.00100967581830422</v>
+        <v>0.00100934113064792</v>
       </c>
       <c r="BB4">
-        <v>0.00119752322170967</v>
+        <v>0.001197204160002463</v>
       </c>
       <c r="BC4">
-        <v>0.0009408805770570444</v>
+        <v>0.0009405401667188328</v>
       </c>
       <c r="BD4">
-        <v>0.0004288483577745101</v>
+        <v>0.0004284653544100051</v>
       </c>
       <c r="BE4">
-        <v>0.0001804157432707226</v>
+        <v>0.0001800120742205767</v>
       </c>
       <c r="BF4">
-        <v>1.323928924001255E-05</v>
+        <v>1.282171373860441E-05</v>
       </c>
       <c r="BG4">
-        <v>0.000263774194781912</v>
+        <v>0.0002633774598436897</v>
       </c>
       <c r="BH4">
-        <v>0.0003480689863100762</v>
+        <v>0.0003476792633725381</v>
       </c>
       <c r="BI4">
-        <v>0.0004410563679958267</v>
+        <v>0.0004406743801457381</v>
       </c>
       <c r="BJ4">
-        <v>0.0002129774838610281</v>
+        <v>0.0002125765234354978</v>
       </c>
       <c r="BK4">
-        <v>0.0002582228346812725</v>
+        <v>0.0002578256379572136</v>
       </c>
       <c r="BL4">
-        <v>0.000182037493300123</v>
+        <v>0.0001816339591540692</v>
       </c>
       <c r="BM4">
-        <v>0.0002189181039687245</v>
+        <v>0.0002185176377093403</v>
       </c>
       <c r="BN4">
-        <v>0.0002774056050290333</v>
+        <v>0.0002770100040097192</v>
       </c>
       <c r="BO4">
-        <v>0.0007690830539425599</v>
+        <v>0.0007687283527528285</v>
       </c>
       <c r="BP4">
-        <v>0.0008430950852843099</v>
+        <v>0.0008427465407313646</v>
       </c>
       <c r="BQ4">
-        <v>0.0007996511544967231</v>
+        <v>0.0007992989960921166</v>
       </c>
       <c r="BR4">
-        <v>0.000670968012163851</v>
+        <v>0.0006706051493460093</v>
       </c>
       <c r="BS4">
-        <v>0.0004916733689134526</v>
+        <v>0.0004912955916016267</v>
       </c>
       <c r="BT4">
-        <v>0.000209744993802427</v>
+        <v>0.0002093437644845714</v>
       </c>
       <c r="BU4">
-        <v>7.554192536948514E-05</v>
+        <v>7.512953246737228E-05</v>
       </c>
       <c r="BV4">
-        <v>1.265456672941223E-05</v>
+        <v>1.223694258828899E-05</v>
       </c>
       <c r="BW4">
-        <v>8.532321154680822E-06</v>
+        <v>8.11435410756937E-06</v>
       </c>
       <c r="BX4">
-        <v>0.0002521011345702933</v>
+        <v>0.0002517034286170806</v>
       </c>
       <c r="BY4">
-        <v>0.0006363668115365725</v>
+        <v>0.0006360010704431213</v>
       </c>
       <c r="BZ4">
-        <v>0.001623709029435911</v>
+        <v>0.001623425419683934</v>
       </c>
       <c r="CA4">
-        <v>0.001347434924427391</v>
+        <v>0.001347128333015713</v>
       </c>
       <c r="CB4">
-        <v>0.001262740322891978</v>
+        <v>0.001262426686221713</v>
       </c>
       <c r="CC4">
-        <v>0.0008378445751891243</v>
+        <v>0.0008374955938763307</v>
       </c>
       <c r="CD4">
-        <v>0.0005347256096939385</v>
+        <v>0.0005343514136513267</v>
       </c>
       <c r="CE4">
-        <v>0.0005903200507017995</v>
+        <v>0.0005899504792421698</v>
       </c>
       <c r="CF4">
-        <v>0.0006435254616663503</v>
+        <v>0.000643160316059983</v>
       </c>
       <c r="CG4">
-        <v>0.0006699421121452527</v>
+        <v>0.0006695791639886671</v>
       </c>
       <c r="CH4">
-        <v>0.0003372335661136429</v>
+        <v>0.0003368429418395875</v>
       </c>
       <c r="CI4">
-        <v>0.0001842367833399935</v>
+        <v>0.0001838334321402758</v>
       </c>
       <c r="CJ4">
-        <v>3.665169066445151E-05</v>
+        <v>3.623606270656097E-05</v>
       </c>
       <c r="CK4">
-        <v>1.871283233924136E-05</v>
+        <v>1.829571215051935E-05</v>
       </c>
       <c r="CL4">
-        <v>3.913999070956142E-05</v>
+        <v>3.872456973909326E-05</v>
       </c>
       <c r="CM4">
-        <v>0.002421516043899202</v>
+        <v>0.002421298799141193</v>
       </c>
       <c r="CN4">
-        <v>0.08749176758612155</v>
+        <v>0.08749862684812283</v>
       </c>
       <c r="CO4">
-        <v>0.03796481368825686</v>
+        <v>0.03796755308676095</v>
       </c>
       <c r="CP4">
-        <v>0.02551534446256281</v>
+        <v>0.02551704826105952</v>
       </c>
       <c r="CQ4">
-        <v>7.174121130058272E-06</v>
+        <v>6.756041102069481E-06</v>
       </c>
       <c r="CR4">
-        <v>0.0194212923520849</v>
+        <v>0.01942248922130646</v>
       </c>
       <c r="CS4">
-        <v>0.001334850924199258</v>
+        <v>0.00133454328599671</v>
       </c>
       <c r="CT4">
-        <v>0.02817716651081847</v>
+        <v>0.0281790917310387</v>
       </c>
       <c r="CU4">
-        <v>0.006279890113846929</v>
+        <v>0.006279993825118681</v>
       </c>
       <c r="CV4">
-        <v>0.001203798821823439</v>
+        <v>0.001203480282147445</v>
       </c>
       <c r="CW4">
-        <v>0.005552613700662274</v>
+        <v>0.005552656913976627</v>
       </c>
       <c r="CX4">
-        <v>0.01843130633413764</v>
+        <v>0.01843242085209514</v>
       </c>
       <c r="CY4">
-        <v>0.03570708064732685</v>
+        <v>0.03570963223795645</v>
       </c>
       <c r="CZ4">
-        <v>0.0006563876618995266</v>
+        <v>0.0006560235862258943</v>
       </c>
       <c r="DA4">
-        <v>0.05474589899247796</v>
+        <v>0.05475003431331013</v>
       </c>
       <c r="DB4">
-        <v>0.009390001170229539</v>
+        <v>0.009390363593818625</v>
       </c>
       <c r="DC4">
-        <v>0.009348913169484663</v>
+        <v>0.009349272175198408</v>
       </c>
       <c r="DD4">
-        <v>0.05427868798400797</v>
+        <v>0.05428278444023354</v>
       </c>
       <c r="DE4">
-        <v>0.00666532312083437</v>
+        <v>0.006665458894069379</v>
       </c>
       <c r="DF4">
-        <v>0.0006445308816845774</v>
+        <v>0.0006441658197133402</v>
       </c>
       <c r="DG4">
-        <v>0.005443264798679909</v>
+        <v>0.005443298915885694</v>
       </c>
       <c r="DH4">
-        <v>0.004010467072704992</v>
+        <v>0.004010382003678119</v>
       </c>
       <c r="DI4">
-        <v>0.003620979665644049</v>
+        <v>0.003620862197391609</v>
       </c>
       <c r="DJ4">
-        <v>8.827686160035437E-06</v>
+        <v>8.409743682646291E-06</v>
       </c>
       <c r="DK4">
-        <v>0.00287356935209439</v>
+        <v>0.00287338971106075</v>
       </c>
       <c r="DL4">
-        <v>0.002402693743557976</v>
+        <v>0.002402474933080656</v>
       </c>
       <c r="DM4">
-        <v>0.004103161074385424</v>
+        <v>0.004103083716041398</v>
       </c>
       <c r="DN4">
-        <v>0.01007190368259162</v>
+        <v>0.01007232282974329</v>
       </c>
       <c r="DO4">
-        <v>0.002578185246739428</v>
+        <v>0.002577981034394663</v>
       </c>
       <c r="DP4">
-        <v>0.003787094568655515</v>
+        <v>0.00378699091854999</v>
       </c>
       <c r="DQ4">
-        <v>0.001612326029229551</v>
+        <v>0.001612041472591013</v>
       </c>
       <c r="DR4">
-        <v>0.0002774056050290333</v>
+        <v>0.0002770100040097192</v>
       </c>
       <c r="DS4">
-        <v>0.008960203162437813</v>
+        <v>0.008960529833593444</v>
       </c>
       <c r="DT4">
-        <v>0.01241332822503886</v>
+        <v>0.01241394214188147</v>
       </c>
       <c r="DU4">
-        <v>0.009876014179040377</v>
+        <v>0.009876417031266731</v>
       </c>
       <c r="DV4">
-        <v>0.0001003173918186348</v>
+        <v>9.990705984560839E-05</v>
       </c>
       <c r="DW4">
-        <v>0.0002631311447702543</v>
+        <v>0.0002627343563403863</v>
       </c>
       <c r="DX4">
-        <v>0.0006151108111512266</v>
+        <v>0.0006147433018929036</v>
       </c>
       <c r="DY4">
-        <v>8.514751154362299E-05</v>
+        <v>8.473591767518237E-05</v>
       </c>
       <c r="DZ4">
-        <v>0.0001306627823687607</v>
+        <v>0.00013025497465489</v>
       </c>
       <c r="EA4">
-        <v>0.0009936570180138185</v>
+        <v>0.0009933209978453125</v>
       </c>
       <c r="EB4">
-        <v>0.008156348147864879</v>
+        <v>0.008156607950928069</v>
       </c>
       <c r="EC4">
-        <v>0.0008979556162788659</v>
+        <v>0.0008976116352591343</v>
       </c>
       <c r="ED4">
-        <v>0.001264896022931058</v>
+        <v>0.001264582565581127</v>
       </c>
       <c r="EE4">
-        <v>0.0003291020459662282</v>
+        <v>0.0003287107452776066</v>
       </c>
       <c r="EF4">
-        <v>0.0006867674124502753</v>
+        <v>0.0006864058638940103</v>
       </c>
       <c r="EG4">
-        <v>0.002351409342628251</v>
+        <v>0.002351186266095486</v>
       </c>
       <c r="EH4">
-        <v>0.01080904219595506</v>
+        <v>0.01080952266143574</v>
       </c>
       <c r="EI4">
-        <v>0.01545326328014926</v>
+        <v>0.01545413007176978</v>
       </c>
       <c r="EJ4">
-        <v>0.01080273819584078</v>
+        <v>0.01080321813692781</v>
       </c>
       <c r="EK4">
-        <v>0.0003025402854846951</v>
+        <v>0.0003021467752754223</v>
       </c>
       <c r="EL4">
-        <v>0.02340410842428861</v>
+        <v>0.02340563660115703</v>
       </c>
       <c r="EM4">
-        <v>0.04694406385103998</v>
+        <v>0.04694755018191253</v>
       </c>
       <c r="EN4">
-        <v>0.02517744945643718</v>
+        <v>0.02517912514738452</v>
       </c>
       <c r="EO4">
-        <v>0.01526048627665444</v>
+        <v>0.01526133703226069</v>
       </c>
       <c r="EP4">
-        <v>0.007747291740449173</v>
+        <v>0.00774751751645379</v>
       </c>
       <c r="EQ4">
-        <v>0.004773291886534098</v>
+        <v>0.004773270272532376</v>
       </c>
       <c r="ER4">
-        <v>0.005699738103329464</v>
+        <v>0.005699793555079827</v>
       </c>
       <c r="ES4">
-        <v>9.132967165569818E-06</v>
+        <v>8.715050082758213E-06</v>
       </c>
       <c r="ET4">
-        <v>0.004895505088749677</v>
+        <v>0.004895493640963945</v>
       </c>
       <c r="EU4">
-        <v>0.002878946052191863</v>
+        <v>0.002878766858415095</v>
       </c>
       <c r="EV4">
-        <v>0.0005810063105329526</v>
+        <v>0.0005806359643166475</v>
       </c>
       <c r="EW4">
-        <v>0.01037634918811085</v>
+        <v>0.01037679366033961</v>
       </c>
       <c r="EX4">
-        <v>0.01660467530102299</v>
+        <v>0.01660563787201174</v>
       </c>
       <c r="EY4">
-        <v>0.01389171825184031</v>
+        <v>0.01389245514747784</v>
       </c>
       <c r="EZ4">
-        <v>0.006708232121612259</v>
+        <v>0.006708371464201167</v>
       </c>
       <c r="FA4">
-        <v>0.002788606850554121</v>
+        <v>0.002788420141976827</v>
       </c>
       <c r="FB4">
-        <v>0.014905502270219</v>
+        <v>0.01490632349673987</v>
       </c>
       <c r="FC4">
-        <v>0.01504897927282007</v>
+        <v>0.01504981243437064</v>
       </c>
       <c r="FD4">
-        <v>0.0110351542000542</v>
+        <v>0.01103565347449684</v>
       </c>
       <c r="FE4">
-        <v>0.003820754669265732</v>
+        <v>0.0038206538191511</v>
       </c>
       <c r="FF4">
-        <v>0.0003702849867128258</v>
+        <v>0.0003698971117970599</v>
       </c>
       <c r="FG4">
-        <v>0.001064322019294891</v>
+        <v>0.001063991877342919</v>
       </c>
       <c r="FH4">
-        <v>0.01587573828780823</v>
+        <v>0.01587664022270379</v>
       </c>
       <c r="FI4">
-        <v>0.01687404030590626</v>
+        <v>0.01687502528382626</v>
       </c>
       <c r="FJ4">
-        <v>0.004457443580808144</v>
+        <v>0.004457395693195731</v>
       </c>
       <c r="FK4">
-        <v>0.000176355433197114</v>
+        <v>0.0001759514263930393</v>
       </c>
       <c r="FL4">
-        <v>1.561742128312525E-05</v>
+        <v>1.52000436048947E-05</v>
       </c>
       <c r="FM4">
-        <v>2.391705743358777E-06</v>
+        <v>1.973227893637991E-06</v>
       </c>
       <c r="FN4">
-        <v>0.002650488048050192</v>
+        <v>0.00265028985016116</v>
       </c>
       <c r="FO4">
-        <v>0.000113262102053307</v>
+        <v>0.0001128528468765497</v>
       </c>
       <c r="FP4">
-        <v>0.004589362583199678</v>
+        <v>0.004589325669173157</v>
       </c>
       <c r="FQ4">
-        <v>0.0006699421121452527</v>
+        <v>0.0006695791639886671</v>
       </c>
       <c r="FR4">
-        <v>0.002366174042895918</v>
+        <v>0.002365952194553964</v>
       </c>
       <c r="FS4">
-        <v>0.006292775414080525</v>
+        <v>0.006292880197206569</v>
       </c>
       <c r="FT4">
-        <v>0.002014544036521284</v>
+        <v>0.002014292938093997</v>
       </c>
       <c r="FU4">
-        <v>0.001408963825542836</v>
+        <v>0.001408662352367872</v>
       </c>
       <c r="FV4">
-        <v>4.708963085367893E-05</v>
+        <v>4.667487116822162E-05</v>
       </c>
       <c r="FW4">
-        <v>0.003010563854577937</v>
+        <v>0.003010395609331958</v>
       </c>
       <c r="FX4">
-        <v>0.00643298461662235</v>
+        <v>0.006433101062948531</v>
       </c>
       <c r="FY4">
-        <v>3.01147305459442E-05</v>
+        <v>2.969855881579926E-05</v>
       </c>
       <c r="FZ4">
-        <v>0.002269834541149397</v>
+        <v>0.002269604678876334</v>
       </c>
       <c r="GA4">
-        <v>0.006001197808794569</v>
+        <v>0.006001278337250417</v>
       </c>
       <c r="GB4">
-        <v>0.01497220727142829</v>
+        <v>0.01497303404675597</v>
       </c>
       <c r="GC4">
-        <v>0.007140520129449127</v>
+        <v>0.007140695431600326</v>
       </c>
       <c r="GD4">
-        <v>0.005422406498301773</v>
+        <v>0.00542243888042507</v>
       </c>
       <c r="GE4">
-        <v>0.005519586700063534</v>
+        <v>0.005519627166050957</v>
       </c>
       <c r="GF4">
-        <v>0.0009968710180720845</v>
+        <v>0.0009965352652578266</v>
       </c>
       <c r="GG4">
-        <v>0.0003291020459662282</v>
+        <v>0.0003287107452776066</v>
       </c>
       <c r="GH4">
-        <v>0.006640526620384839</v>
+        <v>0.006640660330941064</v>
       </c>
       <c r="GI4">
-        <v>0.01682943330509758</v>
+        <v>0.0168304145724168</v>
       </c>
       <c r="GJ4">
-        <v>0.02307428241830926</v>
+        <v>0.0230757831588422</v>
       </c>
       <c r="GK4">
-        <v>0.01288617523361101</v>
+        <v>0.01288682848388678</v>
       </c>
       <c r="GL4">
-        <v>0.007793548141287746</v>
+        <v>0.007793777765097292</v>
       </c>
       <c r="GM4">
-        <v>0.003171249857490983</v>
+        <v>0.003171094978792829</v>
       </c>
       <c r="GN4">
-        <v>5.171941793761145E-06</v>
+        <v>4.753695215946183E-06</v>
       </c>
       <c r="GO4">
-        <v>0.0003239883858735236</v>
+        <v>0.000323596659808821</v>
       </c>
       <c r="GP4">
-        <v>0.0009483105171917403</v>
+        <v>0.0009479707249076738</v>
       </c>
       <c r="GQ4">
-        <v>0.001887740034222479</v>
+        <v>0.001887478387696849</v>
       </c>
       <c r="GR4">
-        <v>0.0006851792124214831</v>
+        <v>0.0006848175317519583</v>
       </c>
       <c r="GS4">
-        <v>1.126562820423242E-06</v>
+        <v>7.079797307121745E-07</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.001028231789443103</v>
+        <v>0.001014159647250178</v>
       </c>
       <c r="C5">
-        <v>0.0008425417413495902</v>
+        <v>0.000827871353787393</v>
       </c>
       <c r="D5">
-        <v>0.0008444818613296709</v>
+        <v>0.0008298177243328962</v>
       </c>
       <c r="E5">
-        <v>0.0009402326903465932</v>
+        <v>0.0009258770377874685</v>
       </c>
       <c r="F5">
-        <v>0.0001147411788219477</v>
+        <v>9.772600584579883E-05</v>
       </c>
       <c r="G5">
-        <v>3.250815966623742E-05</v>
+        <v>1.522805314401945E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001505637184541563</v>
+        <v>0.0001336639564473649</v>
       </c>
       <c r="I5">
-        <v>4.331153955531869E-05</v>
+        <v>2.60662387324771E-05</v>
       </c>
       <c r="J5">
-        <v>4.446064954352073E-05</v>
+        <v>2.721905085623398E-05</v>
       </c>
       <c r="K5">
-        <v>6.106870537300516E-05</v>
+        <v>4.388061355156613E-05</v>
       </c>
       <c r="L5">
-        <v>0.0004091985157987424</v>
+        <v>0.0003931320083009168</v>
       </c>
       <c r="M5">
-        <v>0.0002202248277389429</v>
+        <v>0.0002035494958320726</v>
       </c>
       <c r="N5">
-        <v>3.060579468576908E-05</v>
+        <v>1.331955923498485E-05</v>
       </c>
       <c r="O5">
-        <v>1.732900982208236E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.933590480147749E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.505653453740275E-05</v>
+        <v>2.781685563764295E-05</v>
       </c>
       <c r="R5">
-        <v>8.3120159146602E-08</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1.527608984315977E-07</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>9.850293898866638E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>9.882689898534026E-05</v>
+        <v>8.176045431038307E-05</v>
       </c>
       <c r="V5">
-        <v>8.557890312135797E-05</v>
+        <v>6.84697768258232E-05</v>
       </c>
       <c r="W5">
-        <v>0.0002889965970328603</v>
+        <v>0.0002725428300021864</v>
       </c>
       <c r="X5">
-        <v>0.0007349112324546369</v>
+        <v>0.0007198940871948686</v>
       </c>
       <c r="Y5">
-        <v>0.0006642582931800335</v>
+        <v>0.0006490135224003169</v>
       </c>
       <c r="Z5">
-        <v>0.0001410969985513514</v>
+        <v>0.0001241667372183863</v>
       </c>
       <c r="AA5">
-        <v>5.235531646246587E-05</v>
+        <v>3.513915235271676E-05</v>
       </c>
       <c r="AB5">
-        <v>6.937443928772984E-05</v>
+        <v>5.221310639550594E-05</v>
       </c>
       <c r="AC5">
-        <v>0.0003932361359626288</v>
+        <v>0.0003771182018002213</v>
       </c>
       <c r="AD5">
-        <v>0.0006992621228206477</v>
+        <v>0.0006841301253381773</v>
       </c>
       <c r="AE5">
-        <v>0.0003354761565556529</v>
+        <v>0.0003191721346596041</v>
       </c>
       <c r="AF5">
-        <v>3.696805962044745E-05</v>
+        <v>1.970232174384305E-05</v>
       </c>
       <c r="AG5">
-        <v>8.175205916064833E-05</v>
+        <v>6.463060376238606E-05</v>
       </c>
       <c r="AH5">
-        <v>0.0002309970876283436</v>
+        <v>0.0002143564611602494</v>
       </c>
       <c r="AI5">
-        <v>3.430987964773909E-05</v>
+        <v>1.703557780189836E-05</v>
       </c>
       <c r="AJ5">
-        <v>0.0001022224989504775</v>
+        <v>8.516699402148893E-05</v>
       </c>
       <c r="AK5">
-        <v>0.0001470326784904096</v>
+        <v>0.0001301215403849597</v>
       </c>
       <c r="AL5">
-        <v>1.524397884348946E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1.292400386730873E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>9.367163903826953E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>2.833484970908496E-05</v>
+        <v>1.104129786019474E-05</v>
       </c>
       <c r="AP5">
-        <v>0.0002040792179047105</v>
+        <v>0.0001873518690135345</v>
       </c>
       <c r="AQ5">
-        <v>0.0004622598352539598</v>
+        <v>0.000446364277621124</v>
       </c>
       <c r="AR5">
-        <v>0.0004083925958070168</v>
+        <v>0.0003923234918431555</v>
       </c>
       <c r="AS5">
-        <v>0.0003367007965430794</v>
+        <v>0.0003204007201207328</v>
       </c>
       <c r="AT5">
-        <v>6.197865936366262E-05</v>
+        <v>4.479349917893084E-05</v>
       </c>
       <c r="AU5">
-        <v>3.932118459628782E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>7.812583919787887E-08</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>2.57634527354856E-05</v>
+        <v>8.461616509765225E-06</v>
       </c>
       <c r="AX5">
-        <v>5.075651947888078E-05</v>
+        <v>3.353520445823657E-05</v>
       </c>
       <c r="AY5">
-        <v>2.280218176588909E-05</v>
+        <v>5.490805090031999E-06</v>
       </c>
       <c r="AZ5">
-        <v>8.244423915354169E-06</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>7.404834923974263E-05</v>
+        <v>5.69020744780642E-05</v>
       </c>
       <c r="BB5">
-        <v>0.00011516853881756</v>
+        <v>9.81547426849254E-05</v>
       </c>
       <c r="BC5">
-        <v>3.097647568196328E-05</v>
+        <v>1.3691434469598E-05</v>
       </c>
       <c r="BD5">
-        <v>4.247277956393027E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.00020185856792751</v>
+        <v>0.0001851240646757246</v>
       </c>
       <c r="BF5">
-        <v>0.000131789298646914</v>
+        <v>0.0001148290503091331</v>
       </c>
       <c r="BG5">
-        <v>2.034260379114167E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>6.213884636201797E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.000266366837265201</v>
+        <v>0.0002498401629940597</v>
       </c>
       <c r="BJ5">
-        <v>0.0004232811956541549</v>
+        <v>0.0004072600589131197</v>
       </c>
       <c r="BK5">
-        <v>0.0002689168272390201</v>
+        <v>0.0002523983683768854</v>
       </c>
       <c r="BL5">
-        <v>0.0001673432382818803</v>
+        <v>0.0001504975355536481</v>
       </c>
       <c r="BM5">
-        <v>0.0001823563181277404</v>
+        <v>0.0001655589836647357</v>
       </c>
       <c r="BN5">
-        <v>8.292194914863702E-05</v>
+        <v>6.58042628337212E-05</v>
       </c>
       <c r="BO5">
-        <v>6.513652933124064E-05</v>
+        <v>4.796154298783349E-05</v>
       </c>
       <c r="BP5">
-        <v>1.722920382310707E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>6.006533238330682E-05</v>
+        <v>4.287400795327674E-05</v>
       </c>
       <c r="BR5">
-        <v>0.0002367862275689063</v>
+        <v>0.0002201642522143051</v>
       </c>
       <c r="BS5">
-        <v>0.0004025636558668628</v>
+        <v>0.0003864757725641906</v>
       </c>
       <c r="BT5">
-        <v>0.0004574846953029863</v>
+        <v>0.0004415737534026972</v>
       </c>
       <c r="BU5">
-        <v>0.0003963331659308315</v>
+        <v>0.0003802252095989862</v>
       </c>
       <c r="BV5">
-        <v>0.0002276251576629634</v>
+        <v>0.0002109736677075255</v>
       </c>
       <c r="BW5">
-        <v>9.255660504971763E-05</v>
+        <v>7.546995910738251E-05</v>
       </c>
       <c r="BX5">
-        <v>1.944889780031739E-05</v>
+        <v>2.126717709711617E-06</v>
       </c>
       <c r="BY5">
-        <v>8.580893911899618E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>5.835196940089799E-05</v>
+        <v>4.11551249579182E-05</v>
       </c>
       <c r="CA5">
-        <v>6.499461933269763E-05</v>
+        <v>4.781917579193201E-05</v>
       </c>
       <c r="CB5">
-        <v>1.699907282546984E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>4.330347755540146E-07</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0003083156468345108</v>
+        <v>0.0002919241207919848</v>
       </c>
       <c r="CE5">
-        <v>0.0003189627267251969</v>
+        <v>0.0003026055028238263</v>
       </c>
       <c r="CF5">
-        <v>9.384641903647504E-05</v>
+        <v>7.676392854163278E-05</v>
       </c>
       <c r="CG5">
-        <v>0.000348238536424621</v>
+        <v>0.0003319756316198535</v>
       </c>
       <c r="CH5">
-        <v>0.0003134194667821098</v>
+        <v>0.0002970443839290847</v>
       </c>
       <c r="CI5">
-        <v>7.640641921553223E-05</v>
+        <v>5.926774154620161E-05</v>
       </c>
       <c r="CJ5">
-        <v>4.154071957349977E-05</v>
+        <v>2.428971362609812E-05</v>
       </c>
       <c r="CK5">
-        <v>0.00027111221721648</v>
+        <v>0.0002546008313337604</v>
       </c>
       <c r="CL5">
-        <v>0.0003573518763310539</v>
+        <v>0.0003411183323533938</v>
       </c>
       <c r="CM5">
-        <v>0.005222561946379747</v>
+        <v>0.005222002852513037</v>
       </c>
       <c r="CN5">
-        <v>0.1150843588184243</v>
+        <v>0.1154377460556258</v>
       </c>
       <c r="CO5">
-        <v>0.05279758145792512</v>
+        <v>0.0529502967877985</v>
       </c>
       <c r="CP5">
-        <v>0.01640799783153843</v>
+        <v>0.01644347532277839</v>
       </c>
       <c r="CQ5">
-        <v>0.0005281264945777042</v>
+        <v>0.0005124431423071612</v>
       </c>
       <c r="CR5">
-        <v>0.03046923468717115</v>
+        <v>0.03055001385139512</v>
       </c>
       <c r="CS5">
-        <v>0.00577252444073326</v>
+        <v>0.005773737183962281</v>
       </c>
       <c r="CT5">
-        <v>0.006282023935502208</v>
+        <v>0.006284878154494316</v>
       </c>
       <c r="CU5">
-        <v>0.008943100908180825</v>
+        <v>0.008954528429794835</v>
       </c>
       <c r="CV5">
-        <v>0.0006852016629650071</v>
+        <v>0.0006700243663128459</v>
       </c>
       <c r="CW5">
-        <v>0.00442225895459649</v>
+        <v>0.004419121491216905</v>
       </c>
       <c r="CX5">
-        <v>0.02278215576609469</v>
+        <v>0.022838169147688</v>
       </c>
       <c r="CY5">
-        <v>0.02999992669198955</v>
+        <v>0.03007919386708022</v>
       </c>
       <c r="CZ5">
-        <v>0.00301999496899359</v>
+        <v>0.003012339773271875</v>
       </c>
       <c r="DA5">
-        <v>0.05388785944673119</v>
+        <v>0.05404408737065428</v>
       </c>
       <c r="DB5">
-        <v>0.007905357918835372</v>
+        <v>0.007913442100597601</v>
       </c>
       <c r="DC5">
-        <v>0.02512140374207754</v>
+        <v>0.0251849535763972</v>
       </c>
       <c r="DD5">
-        <v>0.05776479440692654</v>
+        <v>0.05793351281383845</v>
       </c>
       <c r="DE5">
-        <v>0.01324818286398038</v>
+        <v>0.01327348024760819</v>
       </c>
       <c r="DF5">
-        <v>0.0003333546265774346</v>
+        <v>0.0003170437696598094</v>
       </c>
       <c r="DG5">
-        <v>0.007305826424990787</v>
+        <v>0.007311979071145116</v>
       </c>
       <c r="DH5">
-        <v>0.006461917333655236</v>
+        <v>0.006465351122707843</v>
       </c>
       <c r="DI5">
-        <v>0.003070374468476342</v>
+        <v>0.003062881582488407</v>
       </c>
       <c r="DJ5">
-        <v>0.0003153105967626935</v>
+        <v>0.0002989416066419672</v>
       </c>
       <c r="DK5">
-        <v>0.002416330975191433</v>
+        <v>0.002406730930014422</v>
       </c>
       <c r="DL5">
-        <v>0.00139452948568231</v>
+        <v>0.001381637460048134</v>
       </c>
       <c r="DM5">
-        <v>0.001813681781378856</v>
+        <v>0.001802140156169984</v>
       </c>
       <c r="DN5">
-        <v>0.002881161370419</v>
+        <v>0.002873058888704851</v>
       </c>
       <c r="DO5">
-        <v>0.0001729224582245982</v>
+        <v>0.0001560947303018504</v>
       </c>
       <c r="DP5">
-        <v>0.0007278113525275317</v>
+        <v>0.0007127713332886116</v>
       </c>
       <c r="DQ5">
-        <v>0.0002367862275689063</v>
+        <v>0.0002201642522143051</v>
       </c>
       <c r="DR5">
-        <v>0.002264237976752978</v>
+        <v>0.002254147927222214</v>
       </c>
       <c r="DS5">
-        <v>0.01291402586741118</v>
+        <v>0.0129382466835123</v>
       </c>
       <c r="DT5">
-        <v>0.01201424687664925</v>
+        <v>0.01203556883726447</v>
       </c>
       <c r="DU5">
-        <v>0.006078964937587024</v>
+        <v>0.006081164952940117</v>
       </c>
       <c r="DV5">
-        <v>0.000585916093984376</v>
+        <v>0.0005704189248754622</v>
       </c>
       <c r="DW5">
-        <v>0.0004704344251700309</v>
+        <v>0.0004545652039543225</v>
       </c>
       <c r="DX5">
-        <v>0.001432865385288714</v>
+        <v>0.001420096868020505</v>
       </c>
       <c r="DY5">
-        <v>1.688784282661184E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0006910428529050353</v>
+        <v>0.0006758843750580203</v>
       </c>
       <c r="EA5">
-        <v>0.001209670887580261</v>
+        <v>0.001196183295293913</v>
       </c>
       <c r="EB5">
-        <v>0.009438310903096483</v>
+        <v>0.00945133386339618</v>
       </c>
       <c r="EC5">
-        <v>0.0006763648630557349</v>
+        <v>0.0006611590965169041</v>
       </c>
       <c r="ED5">
-        <v>0.001696163582585421</v>
+        <v>0.001684243344096218</v>
       </c>
       <c r="EE5">
-        <v>8.3120159146602E-08</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0004232811956541549</v>
+        <v>0.0004072600589131197</v>
       </c>
       <c r="EG5">
-        <v>0.001598379083589378</v>
+        <v>0.001586143808703171</v>
       </c>
       <c r="EH5">
-        <v>0.002690544772376069</v>
+        <v>0.00268182817322129</v>
       </c>
       <c r="EI5">
-        <v>0.005728267541187647</v>
+        <v>0.005729337700118354</v>
       </c>
       <c r="EJ5">
-        <v>0.003563780963410518</v>
+        <v>0.003557877705697193</v>
       </c>
       <c r="EK5">
-        <v>0.006609529232139698</v>
+        <v>0.006613438588599523</v>
       </c>
       <c r="EL5">
-        <v>0.03903296559924698</v>
+        <v>0.03914133489236823</v>
       </c>
       <c r="EM5">
-        <v>0.04698094651764474</v>
+        <v>0.0471149221522383</v>
       </c>
       <c r="EN5">
-        <v>0.02448391374862267</v>
+        <v>0.02454540975485377</v>
       </c>
       <c r="EO5">
-        <v>0.01304902486602514</v>
+        <v>0.01307368061402814</v>
       </c>
       <c r="EP5">
-        <v>0.005813198940315653</v>
+        <v>0.005814542726275679</v>
       </c>
       <c r="EQ5">
-        <v>0.004791271950807818</v>
+        <v>0.004789323351982101</v>
       </c>
       <c r="ER5">
-        <v>0.003009248269103927</v>
+        <v>0.003001558450291153</v>
       </c>
       <c r="ES5">
-        <v>0.001083792688872657</v>
+        <v>0.001069899549545731</v>
       </c>
       <c r="ET5">
-        <v>0.008771259909945123</v>
+        <v>0.008782133804251148</v>
       </c>
       <c r="EU5">
-        <v>0.00623973793593636</v>
+        <v>0.006242455920360784</v>
       </c>
       <c r="EV5">
-        <v>0.002114230778293108</v>
+        <v>0.002103657444317338</v>
       </c>
       <c r="EW5">
-        <v>0.0156045748397872</v>
+        <v>0.01563746390968032</v>
       </c>
       <c r="EX5">
-        <v>0.02600788673297598</v>
+        <v>0.02607429258650447</v>
       </c>
       <c r="EY5">
-        <v>0.02247399676925857</v>
+        <v>0.02252901734216477</v>
       </c>
       <c r="EZ5">
-        <v>0.01201424687664925</v>
+        <v>0.01203556883726447</v>
       </c>
       <c r="FA5">
-        <v>8.114918416683808E-05</v>
+        <v>6.402578646107467E-05</v>
       </c>
       <c r="FB5">
-        <v>0.00910642790650394</v>
+        <v>0.009118381625517471</v>
       </c>
       <c r="FC5">
-        <v>0.008711325910560468</v>
+        <v>0.008722006713002056</v>
       </c>
       <c r="FD5">
-        <v>0.007740339220529627</v>
+        <v>0.007747891754671973</v>
       </c>
       <c r="FE5">
-        <v>0.002043378979020546</v>
+        <v>0.002032577378849282</v>
       </c>
       <c r="FF5">
-        <v>0.0005239335946207528</v>
+        <v>0.0005082367339096185</v>
       </c>
       <c r="FG5">
-        <v>0.001128970588408814</v>
+        <v>0.001115223000604268</v>
       </c>
       <c r="FH5">
-        <v>0.01231632837354776</v>
+        <v>0.01233862356271518</v>
       </c>
       <c r="FI5">
-        <v>0.01022190089505133</v>
+        <v>0.0102374483798956</v>
       </c>
       <c r="FJ5">
-        <v>0.000728286042522658</v>
+        <v>0.0007132475526122848</v>
       </c>
       <c r="FK5">
-        <v>0.002316679276214561</v>
+        <v>0.002306758179004525</v>
       </c>
       <c r="FL5">
-        <v>0.003200300267142389</v>
+        <v>0.003193225968516561</v>
       </c>
       <c r="FM5">
-        <v>0.0007254104925521813</v>
+        <v>0.0007103627383625879</v>
       </c>
       <c r="FN5">
-        <v>6.640058931826248E-05</v>
+        <v>4.922967544961358E-05</v>
       </c>
       <c r="FO5">
-        <v>0.001189779987784481</v>
+        <v>0.001176228312157019</v>
       </c>
       <c r="FP5">
-        <v>0.005009485948567406</v>
+        <v>0.005008240378875508</v>
       </c>
       <c r="FQ5">
-        <v>0.001730264582235304</v>
+        <v>0.001718454208358328</v>
       </c>
       <c r="FR5">
-        <v>0.004480510953998415</v>
+        <v>0.0044775611635138</v>
       </c>
       <c r="FS5">
-        <v>0.008521170912512796</v>
+        <v>0.008531239084669703</v>
       </c>
       <c r="FT5">
-        <v>0.002158703677836503</v>
+        <v>0.002148273624055245</v>
       </c>
       <c r="FU5">
-        <v>0.002382518475538587</v>
+        <v>0.002372809495221818</v>
       </c>
       <c r="FV5">
-        <v>1.21358928754003E-05</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.002585332773456285</v>
+        <v>0.002576277208418348</v>
       </c>
       <c r="FX5">
-        <v>0.006791413930272281</v>
+        <v>0.006795909272246764</v>
       </c>
       <c r="FY5">
-        <v>0.0002350044175872002</v>
+        <v>0.0002183767017010981</v>
       </c>
       <c r="FZ5">
-        <v>0.002469156374649072</v>
+        <v>0.00245972651926376</v>
       </c>
       <c r="GA5">
-        <v>0.004117062957729949</v>
+        <v>0.004112942231683784</v>
       </c>
       <c r="GB5">
-        <v>0.006702176931188481</v>
+        <v>0.006706384774602769</v>
       </c>
       <c r="GC5">
-        <v>0.001639781883164294</v>
+        <v>0.00162767999740354</v>
       </c>
       <c r="GD5">
-        <v>0.0009970546897631995</v>
+        <v>0.0009828821030084772</v>
       </c>
       <c r="GE5">
-        <v>0.000428893335596535</v>
+        <v>0.0004128902797207195</v>
       </c>
       <c r="GF5">
-        <v>0.0005863419939800032</v>
+        <v>0.0005708461970108608</v>
       </c>
       <c r="GG5">
-        <v>0.004027245558652109</v>
+        <v>0.00402283546414689</v>
       </c>
       <c r="GH5">
-        <v>0.01594858583625523</v>
+        <v>0.01598258322071732</v>
       </c>
       <c r="GI5">
-        <v>0.02457035874773514</v>
+        <v>0.02463213325742373</v>
       </c>
       <c r="GJ5">
-        <v>0.01854952780955125</v>
+        <v>0.01859190475720074</v>
       </c>
       <c r="GK5">
-        <v>0.01044599389275056</v>
+        <v>0.01046226334734785</v>
       </c>
       <c r="GL5">
-        <v>0.005706379641412371</v>
+        <v>0.005707379283183876</v>
       </c>
       <c r="GM5">
-        <v>0.002249428476905028</v>
+        <v>0.002239290714991203</v>
       </c>
       <c r="GN5">
-        <v>0.0002186448277551648</v>
+        <v>0.0002019644054964774</v>
       </c>
       <c r="GO5">
-        <v>3.0385680688029E-05</v>
+        <v>1.30987360868018E-05</v>
       </c>
       <c r="GP5">
-        <v>7.373610424294847E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0007367232424360329</v>
+        <v>0.0007217119350043635</v>
       </c>
       <c r="GR5">
-        <v>9.3585589039153E-05</v>
+        <v>7.650225821743449E-05</v>
       </c>
       <c r="GS5">
-        <v>0.0005693263341547037</v>
+        <v>0.0005537757171249274</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>9.904919930533083E-05</v>
+        <v>9.246846012617265E-05</v>
       </c>
       <c r="C6">
-        <v>3.167758377783323E-05</v>
+        <v>2.501087740792111E-05</v>
       </c>
       <c r="D6">
-        <v>5.198366963541904E-05</v>
+        <v>4.534287413528074E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001059083092572253</v>
+        <v>9.933632240512685E-05</v>
       </c>
       <c r="F6">
-        <v>0.0003190035977627082</v>
+        <v>0.0003127035236912709</v>
       </c>
       <c r="G6">
-        <v>0.000455061236808485</v>
+        <v>0.0004489347743228439</v>
       </c>
       <c r="H6">
-        <v>0.0002931348979441351</v>
+        <v>0.0002868018150241723</v>
       </c>
       <c r="I6">
-        <v>0.0008311553941707957</v>
+        <v>0.000825508833464476</v>
       </c>
       <c r="J6">
-        <v>0.0009614434632570368</v>
+        <v>0.000955963152078807</v>
       </c>
       <c r="K6">
-        <v>0.000827015134199833</v>
+        <v>0.0008213632904597622</v>
       </c>
       <c r="L6">
-        <v>0.0005311811962746272</v>
+        <v>0.0005251518639976708</v>
       </c>
       <c r="M6">
-        <v>0.0002596820981787521</v>
+        <v>0.0002533063289851092</v>
       </c>
       <c r="N6">
-        <v>0.0001194202841624608</v>
+        <v>0.0001128655387927736</v>
       </c>
       <c r="O6">
-        <v>5.823320259158872E-05</v>
+        <v>5.160038158913108E-05</v>
       </c>
       <c r="P6">
-        <v>1.523633389314188E-07</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>6.698579953020348E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>9.055643936489375E-06</v>
+        <v>2.360071632424742E-06</v>
       </c>
       <c r="S6">
-        <v>8.273136941977389E-08</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2.765332280605688E-05</v>
+        <v>2.098148141885453E-05</v>
       </c>
       <c r="U6">
-        <v>9.620777932525878E-05</v>
+        <v>8.962341445163675E-05</v>
       </c>
       <c r="V6">
-        <v>0.0002924354279490407</v>
+        <v>0.000286101452494885</v>
       </c>
       <c r="W6">
-        <v>0.0006223800556350154</v>
+        <v>0.0006164670944689161</v>
       </c>
       <c r="X6">
-        <v>0.0006794911952344736</v>
+        <v>0.0006736511087381248</v>
       </c>
       <c r="Y6">
-        <v>0.0008640515939400823</v>
+        <v>0.000858447009277509</v>
       </c>
       <c r="Z6">
-        <v>0.001020940092839764</v>
+        <v>0.001015535700252242</v>
       </c>
       <c r="AA6">
-        <v>0.0009903250930544791</v>
+        <v>0.0009848816352685664</v>
       </c>
       <c r="AB6">
-        <v>0.001618479288648998</v>
+        <v>0.001613837365027478</v>
       </c>
       <c r="AC6">
-        <v>0.001071431292485651</v>
+        <v>0.001066091327425321</v>
       </c>
       <c r="AD6">
-        <v>0.000544524456181046</v>
+        <v>0.0005385121501036347</v>
       </c>
       <c r="AE6">
-        <v>0.0002376638883331741</v>
+        <v>0.0002312600235738982</v>
       </c>
       <c r="AF6">
-        <v>1.394943990216735E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>3.709376973984749E-05</v>
+        <v>3.043397450436653E-05</v>
       </c>
       <c r="AH6">
-        <v>4.707012266987959E-05</v>
+        <v>4.04230574102E-05</v>
       </c>
       <c r="AI6">
-        <v>2.400084483167308E-05</v>
+        <v>1.732434282785511E-05</v>
       </c>
       <c r="AJ6">
-        <v>9.261331935046808E-05</v>
+        <v>8.602436789206711E-05</v>
       </c>
       <c r="AK6">
-        <v>0.0003379889776295566</v>
+        <v>0.0003317131291872625</v>
       </c>
       <c r="AL6">
-        <v>0.0003091746478316423</v>
+        <v>0.0003028620318728387</v>
       </c>
       <c r="AM6">
-        <v>0.0003406376276109807</v>
+        <v>0.0003343651588857441</v>
       </c>
       <c r="AN6">
-        <v>0.0001874372686854322</v>
+        <v>0.0001809693140070059</v>
       </c>
       <c r="AO6">
-        <v>0.0001200946591577311</v>
+        <v>0.0001135407743006412</v>
       </c>
       <c r="AP6">
-        <v>0.000202054228582918</v>
+        <v>0.0001956049253643077</v>
       </c>
       <c r="AQ6">
-        <v>0.0002573701481949667</v>
+        <v>0.0002509914289185075</v>
       </c>
       <c r="AR6">
-        <v>0.0003509507775386507</v>
+        <v>0.0003446914685472303</v>
       </c>
       <c r="AS6">
-        <v>0.000382009537320824</v>
+        <v>0.0003757898597721984</v>
       </c>
       <c r="AT6">
-        <v>0.0003590783974816486</v>
+        <v>0.000352829459455041</v>
       </c>
       <c r="AU6">
-        <v>0.000411463117114255</v>
+        <v>0.0004052810227747104</v>
       </c>
       <c r="AV6">
-        <v>0.000240837978310913</v>
+        <v>0.0002344381637380019</v>
       </c>
       <c r="AW6">
-        <v>5.198366963541904E-05</v>
+        <v>4.534287413528074E-05</v>
       </c>
       <c r="AX6">
-        <v>1.013762692890102E-05</v>
+        <v>3.443435251344644E-06</v>
       </c>
       <c r="AY6">
-        <v>3.225945677375234E-05</v>
+        <v>2.559349288250046E-05</v>
       </c>
       <c r="AZ6">
-        <v>0.0002771836580560071</v>
+        <v>0.0002708302211149705</v>
       </c>
       <c r="BA6">
-        <v>0.0009336288934521107</v>
+        <v>0.0009281130904661005</v>
       </c>
       <c r="BB6">
-        <v>0.001166929591815885</v>
+        <v>0.001161711484016227</v>
       </c>
       <c r="BC6">
-        <v>0.001009812792917804</v>
+        <v>0.001004394201728876</v>
       </c>
       <c r="BD6">
-        <v>0.00167179998827504</v>
+        <v>0.001667226102665077</v>
       </c>
       <c r="BE6">
-        <v>0.001692018088133243</v>
+        <v>0.0016874700011216</v>
       </c>
       <c r="BF6">
-        <v>0.0007296456548827215</v>
+        <v>0.0007238695662282825</v>
       </c>
       <c r="BG6">
-        <v>0.0002115088085166095</v>
+        <v>0.0002050715694836402</v>
       </c>
       <c r="BH6">
-        <v>9.942367930270448E-06</v>
+        <v>3.247927099306506E-06</v>
       </c>
       <c r="BI6">
-        <v>3.791199373410898E-09</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1.713246287984362E-05</v>
+        <v>1.044719671775513E-05</v>
       </c>
       <c r="BK6">
-        <v>4.525724968259395E-05</v>
+        <v>3.860787116982268E-05</v>
       </c>
       <c r="BL6">
-        <v>7.464118947651337E-06</v>
+        <v>7.665158338572074E-07</v>
       </c>
       <c r="BM6">
-        <v>2.241868784276934E-05</v>
+        <v>1.574016698293014E-05</v>
       </c>
       <c r="BN6">
-        <v>7.862128944859944E-06</v>
+        <v>1.165033697785117E-06</v>
       </c>
       <c r="BO6">
-        <v>2.375041483342944E-08</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>7.804062945267183E-06</v>
+        <v>1.106893605106948E-06</v>
       </c>
       <c r="BQ6">
-        <v>0.000100277545296716</v>
+        <v>9.369837350544552E-05</v>
       </c>
       <c r="BR6">
-        <v>3.296209276882449E-05</v>
+        <v>2.629702545162899E-05</v>
       </c>
       <c r="BS6">
-        <v>0.0001752674987707834</v>
+        <v>0.0001687840152836223</v>
       </c>
       <c r="BT6">
-        <v>0.0002640031681484468</v>
+        <v>0.0002576329127048222</v>
       </c>
       <c r="BU6">
-        <v>0.0005119481364095159</v>
+        <v>0.0005058942624600277</v>
       </c>
       <c r="BV6">
-        <v>0.0008128984942988382</v>
+        <v>0.0008072286375147627</v>
       </c>
       <c r="BW6">
-        <v>0.0007274225348983132</v>
+        <v>0.000721643609509468</v>
       </c>
       <c r="BX6">
-        <v>0.0003551964975088738</v>
+        <v>0.0003489426061197435</v>
       </c>
       <c r="BY6">
-        <v>0.0001913951286576742</v>
+        <v>0.000184932224267868</v>
       </c>
       <c r="BZ6">
-        <v>2.300505983865689E-05</v>
+        <v>1.632728719826929E-05</v>
       </c>
       <c r="CA6">
-        <v>4.595710267768562E-07</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>6.667124953240955E-05</v>
+        <v>6.004919560426462E-05</v>
       </c>
       <c r="CC6">
-        <v>0.0003398835976162689</v>
+        <v>0.0003336101667374625</v>
       </c>
       <c r="CD6">
-        <v>0.0004794853166371898</v>
+        <v>0.0004733900196433241</v>
       </c>
       <c r="CE6">
-        <v>0.0005059283964517346</v>
+        <v>0.0004998668412238744</v>
       </c>
       <c r="CF6">
-        <v>0.0004347034769512616</v>
+        <v>0.0004285510376590489</v>
       </c>
       <c r="CG6">
-        <v>0.0004844458566023996</v>
+        <v>0.0004783568893318469</v>
       </c>
       <c r="CH6">
-        <v>0.0003933377972413746</v>
+        <v>0.0003871325747221243</v>
       </c>
       <c r="CI6">
-        <v>0.0001755422587688564</v>
+        <v>0.0001690591258795692</v>
       </c>
       <c r="CJ6">
-        <v>8.947936937244766E-05</v>
+        <v>8.288641894692287E-05</v>
       </c>
       <c r="CK6">
-        <v>4.525724968259395E-05</v>
+        <v>3.860787116982268E-05</v>
       </c>
       <c r="CL6">
-        <v>2.734498380821938E-06</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>1.219393691447935E-05</v>
+        <v>5.502369119271574E-06</v>
       </c>
       <c r="CN6">
-        <v>0.1116813042167372</v>
+        <v>0.1118171041066513</v>
       </c>
       <c r="CO6">
-        <v>0.007834519945053575</v>
+        <v>0.007837809782436438</v>
       </c>
       <c r="CP6">
-        <v>0.07721937345843159</v>
+        <v>0.0773111994084001</v>
       </c>
       <c r="CQ6">
-        <v>0.0008134899442946902</v>
+        <v>0.0008078208422096703</v>
       </c>
       <c r="CR6">
-        <v>0.02811289380283374</v>
+        <v>0.0281420591490635</v>
       </c>
       <c r="CS6">
-        <v>0.01556201489085776</v>
+        <v>0.01557516512756242</v>
       </c>
       <c r="CT6">
-        <v>0.0006629883353502144</v>
+        <v>0.0006571271909574124</v>
       </c>
       <c r="CU6">
-        <v>0.02257500784167301</v>
+        <v>0.02259710676244943</v>
       </c>
       <c r="CV6">
-        <v>0.0006086206357315153</v>
+        <v>0.0006026901173394797</v>
       </c>
       <c r="CW6">
-        <v>0.003929026372444265</v>
+        <v>0.003927332741517574</v>
       </c>
       <c r="CX6">
-        <v>0.01650079488427374</v>
+        <v>0.01651514301831452</v>
       </c>
       <c r="CY6">
-        <v>0.02628710981563865</v>
+        <v>0.02631394543414741</v>
       </c>
       <c r="CZ6">
-        <v>0.03396921976176114</v>
+        <v>0.03400585786765217</v>
       </c>
       <c r="DA6">
-        <v>0.02916966779542219</v>
+        <v>0.02920018160109876</v>
       </c>
       <c r="DB6">
-        <v>0.009145173935861469</v>
+        <v>0.009150136187372419</v>
       </c>
       <c r="DC6">
-        <v>0.06118146257091147</v>
+        <v>0.06125282390631244</v>
       </c>
       <c r="DD6">
-        <v>0.02210529684496727</v>
+        <v>0.02212679640747482</v>
       </c>
       <c r="DE6">
-        <v>0.02718050180937295</v>
+        <v>0.02720847740945025</v>
       </c>
       <c r="DF6">
-        <v>0.0002449999382817236</v>
+        <v>0.0002386054344320885</v>
       </c>
       <c r="DG6">
-        <v>0.0002313726083772972</v>
+        <v>0.0002249607158505435</v>
       </c>
       <c r="DH6">
-        <v>0.008161496942760364</v>
+        <v>0.00816520400769097</v>
       </c>
       <c r="DI6">
-        <v>0.002246680984243184</v>
+        <v>0.002242840655396767</v>
       </c>
       <c r="DJ6">
-        <v>0.004066694471478748</v>
+        <v>0.004065176507108926</v>
       </c>
       <c r="DK6">
-        <v>0.0001162982991843564</v>
+        <v>0.0001097395701150646</v>
       </c>
       <c r="DL6">
-        <v>0.0006961915551173477</v>
+        <v>0.0006903727785304091</v>
       </c>
       <c r="DM6">
-        <v>0.0004674176667218247</v>
+        <v>0.0004613069712258732</v>
       </c>
       <c r="DN6">
-        <v>0.005518695261295322</v>
+        <v>0.005519030071686737</v>
       </c>
       <c r="DO6">
-        <v>0.002781510080492228</v>
+        <v>0.002778352201585269</v>
       </c>
       <c r="DP6">
-        <v>0.0009767967931493581</v>
+        <v>0.0009713360730500898</v>
       </c>
       <c r="DQ6">
-        <v>0.00222144698442016</v>
+        <v>0.00221757445661192</v>
       </c>
       <c r="DR6">
-        <v>0.0001241830791290575</v>
+        <v>0.0001176344111571025</v>
       </c>
       <c r="DS6">
-        <v>0.002623474181600592</v>
+        <v>0.002620114646519003</v>
       </c>
       <c r="DT6">
-        <v>0.006924411251436509</v>
+        <v>0.006926539776491348</v>
       </c>
       <c r="DU6">
-        <v>0.00833684944153055</v>
+        <v>0.008340780258876664</v>
       </c>
       <c r="DV6">
-        <v>7.425538947921913E-05</v>
+        <v>6.764301302726959E-05</v>
       </c>
       <c r="DW6">
-        <v>0.002911922779577594</v>
+        <v>0.002908931309228471</v>
       </c>
       <c r="DX6">
-        <v>1.620996788631342E-05</v>
+        <v>9.523524606792648E-06</v>
       </c>
       <c r="DY6">
-        <v>8.545396940067929E-07</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0003436811675896352</v>
+        <v>0.0003374125824670088</v>
       </c>
       <c r="EA6">
-        <v>0.001245393191265591</v>
+        <v>0.001240275204194348</v>
       </c>
       <c r="EB6">
-        <v>0.005801466259312143</v>
+        <v>0.005802161889733415</v>
       </c>
       <c r="EC6">
-        <v>0.002354061483490085</v>
+        <v>0.002350358173769447</v>
       </c>
       <c r="ED6">
-        <v>0.000466086316731162</v>
+        <v>0.0004599739224126766</v>
       </c>
       <c r="EE6">
-        <v>0.001064047992537433</v>
+        <v>0.001058698606275754</v>
       </c>
       <c r="EF6">
-        <v>0.000150132998947061</v>
+        <v>0.0001436174434615675</v>
       </c>
       <c r="EG6">
-        <v>0.0007655833946306768</v>
+        <v>0.0007598531630705643</v>
       </c>
       <c r="EH6">
-        <v>0.004687366467125742</v>
+        <v>0.004686640489521083</v>
       </c>
       <c r="EI6">
-        <v>0.0129829939089454</v>
+        <v>0.01299285327623904</v>
       </c>
       <c r="EJ6">
-        <v>0.01716435887961992</v>
+        <v>0.01717955373126007</v>
       </c>
       <c r="EK6">
-        <v>0.0005184756963637357</v>
+        <v>0.000512430151678543</v>
       </c>
       <c r="EL6">
-        <v>0.01095551892316484</v>
+        <v>0.01096279120200162</v>
       </c>
       <c r="EM6">
-        <v>0.03930916272431011</v>
+        <v>0.03935261467742274</v>
       </c>
       <c r="EN6">
-        <v>0.03122906778097884</v>
+        <v>0.03126220941189028</v>
       </c>
       <c r="EO6">
-        <v>0.01433663889945178</v>
+        <v>0.0143482255380332</v>
       </c>
       <c r="EP6">
-        <v>0.007655554946308723</v>
+        <v>0.007658616421671991</v>
       </c>
       <c r="EQ6">
-        <v>0.002531713982244141</v>
+        <v>0.00252823735977345</v>
       </c>
       <c r="ER6">
-        <v>0.004688786967115779</v>
+        <v>0.00468806280209039</v>
       </c>
       <c r="ES6">
-        <v>0.0004794853166371898</v>
+        <v>0.0004733900196433241</v>
       </c>
       <c r="ET6">
-        <v>0.004188101670627274</v>
+        <v>0.004186738623662451</v>
       </c>
       <c r="EU6">
-        <v>0.008897381937599327</v>
+        <v>0.008902028002808151</v>
       </c>
       <c r="EV6">
-        <v>0.0007954234944213969</v>
+        <v>0.0007897313392756727</v>
       </c>
       <c r="EW6">
-        <v>0.005925726558440659</v>
+        <v>0.005926580746865249</v>
       </c>
       <c r="EX6">
-        <v>0.02689000581141031</v>
+        <v>0.02691761073424209</v>
       </c>
       <c r="EY6">
-        <v>0.02297801283884658</v>
+        <v>0.02300062600003709</v>
       </c>
       <c r="EZ6">
-        <v>0.01594614188816373</v>
+        <v>0.01595978227667183</v>
       </c>
       <c r="FA6">
-        <v>0.001128648492084365</v>
+        <v>0.001123381537027933</v>
       </c>
       <c r="FB6">
-        <v>0.01024917292811871</v>
+        <v>0.01025554389888355</v>
       </c>
       <c r="FC6">
-        <v>0.01542139689184396</v>
+        <v>0.01543436769787519</v>
       </c>
       <c r="FD6">
-        <v>0.01531698789257622</v>
+        <v>0.01532982547116016</v>
       </c>
       <c r="FE6">
-        <v>0.01158789991872971</v>
+        <v>0.01159597912519097</v>
       </c>
       <c r="FF6">
-        <v>0.0008093939943234165</v>
+        <v>0.000803719665744869</v>
       </c>
       <c r="FG6">
-        <v>1.493675689524293E-06</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.002577384681923835</v>
+        <v>0.00257396633595016</v>
       </c>
       <c r="FI6">
-        <v>0.01154811091900877</v>
+        <v>0.01155613935411028</v>
       </c>
       <c r="FJ6">
-        <v>0.004964168565184425</v>
+        <v>0.004963795791203853</v>
       </c>
       <c r="FK6">
-        <v>1.443726189874607E-07</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001655044488392553</v>
+        <v>0.001650449222513713</v>
       </c>
       <c r="FM6">
-        <v>0.0005316593962712734</v>
+        <v>0.0005256306741846769</v>
       </c>
       <c r="FN6">
-        <v>0.0002871865979858528</v>
+        <v>0.0002808459249460276</v>
       </c>
       <c r="FO6">
-        <v>0.0005054619964550057</v>
+        <v>0.0004993998460937622</v>
       </c>
       <c r="FP6">
-        <v>0.003033998178721434</v>
+        <v>0.003031162478410515</v>
       </c>
       <c r="FQ6">
-        <v>0.002372044783363961</v>
+        <v>0.002368364420603384</v>
       </c>
       <c r="FR6">
-        <v>0.0001755422587688564</v>
+        <v>0.0001690591258795692</v>
       </c>
       <c r="FS6">
-        <v>0.005862660658882964</v>
+        <v>0.005863434374274884</v>
       </c>
       <c r="FT6">
-        <v>0.002043160985670546</v>
+        <v>0.002039060962256876</v>
       </c>
       <c r="FU6">
-        <v>0.0004389968169211508</v>
+        <v>0.0004328498559950613</v>
       </c>
       <c r="FV6">
-        <v>0.0001653525988403203</v>
+        <v>0.0001588564637923059</v>
       </c>
       <c r="FW6">
-        <v>0.002204044684542209</v>
+        <v>0.002200149951138609</v>
       </c>
       <c r="FX6">
-        <v>0.00998674992995918</v>
+        <v>0.009992786045046833</v>
       </c>
       <c r="FY6">
-        <v>0.004549171268094957</v>
+        <v>0.004548268951345937</v>
       </c>
       <c r="FZ6">
-        <v>1.612654488689849E-05</v>
+        <v>9.439995158380651E-06</v>
       </c>
       <c r="GA6">
-        <v>0.002030182885761567</v>
+        <v>0.002026066302097979</v>
       </c>
       <c r="GB6">
-        <v>0.008434681940844416</v>
+        <v>0.008438737593925352</v>
       </c>
       <c r="GC6">
-        <v>0.007049769950557321</v>
+        <v>0.007052058435190325</v>
       </c>
       <c r="GD6">
-        <v>0.002916358379546486</v>
+        <v>0.002913372569089376</v>
       </c>
       <c r="GE6">
-        <v>0.002795611480393329</v>
+        <v>0.002792471595083907</v>
       </c>
       <c r="GF6">
-        <v>0.001801028387368713</v>
+        <v>0.001796619399132053</v>
       </c>
       <c r="GG6">
-        <v>6.368473955335506E-05</v>
+        <v>5.705887479373388E-05</v>
       </c>
       <c r="GH6">
-        <v>0.002602473781747876</v>
+        <v>0.002599087449841453</v>
       </c>
       <c r="GI6">
-        <v>0.01157019591885388</v>
+        <v>0.01157825253474606</v>
       </c>
       <c r="GJ6">
-        <v>0.01398462990192055</v>
+        <v>0.01399576737174743</v>
       </c>
       <c r="GK6">
-        <v>0.01058247192578116</v>
+        <v>0.0105892681910604</v>
       </c>
       <c r="GL6">
-        <v>0.00478348596645162</v>
+        <v>0.004782882638768133</v>
       </c>
       <c r="GM6">
-        <v>0.003729477473843777</v>
+        <v>0.003727529215532891</v>
       </c>
       <c r="GN6">
-        <v>1.012993592895496E-06</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0001725612987897629</v>
+        <v>0.0001660743621508826</v>
       </c>
       <c r="GP6">
-        <v>0.0003986476172041348</v>
+        <v>0.000392449170094707</v>
       </c>
       <c r="GQ6">
-        <v>0.0008088039943275545</v>
+        <v>0.0008031289129001731</v>
       </c>
       <c r="GR6">
-        <v>0.0003289863176926956</v>
+        <v>0.000322698981721447</v>
       </c>
       <c r="GS6">
-        <v>2.722293180907538E-05</v>
+        <v>2.055054123651289E-05</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001337001164466956</v>
+        <v>0.00012417634080768</v>
       </c>
       <c r="C2">
-        <v>0.0002386439936576364</v>
+        <v>0.0002195419172245625</v>
       </c>
       <c r="D2">
-        <v>0.0002845057504387834</v>
+        <v>0.000255713346678895</v>
       </c>
       <c r="E2">
-        <v>0.0002906432422756693</v>
+        <v>0.000255713346678895</v>
       </c>
       <c r="F2">
-        <v>0.0002907769033221171</v>
+        <v>0.000255713346678895</v>
       </c>
       <c r="G2">
-        <v>0.0003005356860627611</v>
+        <v>0.000255713346678895</v>
       </c>
       <c r="H2">
-        <v>0.0003257688923921464</v>
+        <v>0.000271217111564266</v>
       </c>
       <c r="I2">
-        <v>0.0003800894409484869</v>
+        <v>0.0003158633716411961</v>
       </c>
       <c r="J2">
-        <v>0.0004167110949752051</v>
+        <v>0.0003427771780377261</v>
       </c>
       <c r="K2">
-        <v>0.0005210213822029846</v>
+        <v>0.0004375079631115691</v>
       </c>
       <c r="L2">
-        <v>0.000648484308815444</v>
+        <v>0.0005554352876518011</v>
       </c>
       <c r="M2">
-        <v>0.0008924992023303397</v>
+        <v>0.0007901355751021113</v>
       </c>
       <c r="N2">
-        <v>0.001142981715673348</v>
+        <v>0.001031315745735661</v>
       </c>
       <c r="O2">
-        <v>0.001570056054323132</v>
+        <v>0.001449422580198341</v>
       </c>
       <c r="P2">
-        <v>0.002049655381576977</v>
+        <v>0.001920153996717611</v>
       </c>
       <c r="Q2">
-        <v>0.002711933923975816</v>
+        <v>0.002573911009299324</v>
       </c>
       <c r="R2">
-        <v>0.003322342907753175</v>
+        <v>0.003175700112578071</v>
       </c>
       <c r="S2">
-        <v>0.003900316192392568</v>
+        <v>0.003744992014882331</v>
       </c>
       <c r="T2">
-        <v>0.00436362992007923</v>
+        <v>0.004199406952454326</v>
       </c>
       <c r="U2">
-        <v>0.004641231852701494</v>
+        <v>0.00446775796392225</v>
       </c>
       <c r="V2">
-        <v>0.004828519867724001</v>
+        <v>0.004645623812158496</v>
       </c>
       <c r="W2">
-        <v>0.004869821256626348</v>
+        <v>0.004677226226749156</v>
       </c>
       <c r="X2">
-        <v>0.004875688455470417</v>
+        <v>0.004677226226749156</v>
       </c>
       <c r="Y2">
-        <v>0.004876765386641796</v>
+        <v>0.004677226226749156</v>
       </c>
       <c r="Z2">
-        <v>0.004933348835137996</v>
+        <v>0.00472413967748592</v>
       </c>
       <c r="AA2">
-        <v>0.00512818156995999</v>
+        <v>0.004909564551182885</v>
       </c>
       <c r="AB2">
-        <v>0.00535169221401982</v>
+        <v>0.005123721710749995</v>
       </c>
       <c r="AC2">
-        <v>0.005728140644015073</v>
+        <v>0.005491106643980812</v>
       </c>
       <c r="AD2">
-        <v>0.006225148080806268</v>
+        <v>0.005979279177826238</v>
       </c>
       <c r="AE2">
-        <v>0.006771322306290774</v>
+        <v>0.006516711726282121</v>
       </c>
       <c r="AF2">
-        <v>0.007307925992029633</v>
+        <v>0.007044555588142236</v>
       </c>
       <c r="AG2">
-        <v>0.007831162328123751</v>
+        <v>0.007559006754316845</v>
       </c>
       <c r="AH2">
-        <v>0.008324401055015106</v>
+        <v>0.008043403432352636</v>
       </c>
       <c r="AI2">
-        <v>0.008730518044221867</v>
+        <v>0.008440513179814181</v>
       </c>
       <c r="AJ2">
-        <v>0.008984674837467226</v>
+        <v>0.00868537459720968</v>
       </c>
       <c r="AK2">
-        <v>0.009047615635794469</v>
+        <v>0.008738657452047948</v>
       </c>
       <c r="AL2">
-        <v>0.009062395450401672</v>
+        <v>0.00874368800437157</v>
       </c>
       <c r="AM2">
-        <v>0.009069493342213034</v>
+        <v>0.00874368800437157</v>
       </c>
       <c r="AN2">
-        <v>0.009119618314880878</v>
+        <v>0.008784130733262932</v>
       </c>
       <c r="AO2">
-        <v>0.009266333440981678</v>
+        <v>0.008921346761688114</v>
       </c>
       <c r="AP2">
-        <v>0.009509215784526672</v>
+        <v>0.00915491235172281</v>
       </c>
       <c r="AQ2">
-        <v>0.009689939839723629</v>
+        <v>0.009326201794106601</v>
       </c>
       <c r="AR2">
-        <v>0.009923856503506903</v>
+        <v>0.00955078470441393</v>
       </c>
       <c r="AS2">
-        <v>0.01028840132381851</v>
+        <v>0.009906243457340579</v>
       </c>
       <c r="AT2">
-        <v>0.0108202179096846</v>
+        <v>0.01042929114243297</v>
       </c>
       <c r="AU2">
-        <v>0.01152358839099135</v>
+        <v>0.01112421800899075</v>
       </c>
       <c r="AV2">
-        <v>0.01217532383367039</v>
+        <v>0.01176741193091636</v>
       </c>
       <c r="AW2">
-        <v>0.01297344985245885</v>
+        <v>0.01255727400241271</v>
       </c>
       <c r="AX2">
-        <v>0.01351817743798181</v>
+        <v>0.01309325716791038</v>
       </c>
       <c r="AY2">
-        <v>0.01395177679645818</v>
+        <v>0.01351790139439181</v>
       </c>
       <c r="AZ2">
-        <v>0.01423342470897291</v>
+        <v>0.01379030605739797</v>
       </c>
       <c r="BA2">
-        <v>0.01435628608570767</v>
+        <v>0.0139036231069898</v>
       </c>
       <c r="BB2">
-        <v>0.01442682196383306</v>
+        <v>0.01396451544277582</v>
       </c>
       <c r="BC2">
-        <v>0.01449003947615295</v>
+        <v>0.01401807553628847</v>
       </c>
       <c r="BD2">
-        <v>0.01451086544759946</v>
+        <v>0.01402916370966397</v>
       </c>
       <c r="BE2">
-        <v>0.01451095531836707</v>
+        <v>0.01402916370966397</v>
       </c>
       <c r="BF2">
-        <v>0.0145360138067011</v>
+        <v>0.01404449242526846</v>
       </c>
       <c r="BG2">
-        <v>0.01465319244358688</v>
+        <v>0.01415211595987938</v>
       </c>
       <c r="BH2">
-        <v>0.01485967715809921</v>
+        <v>0.01434921490676764</v>
       </c>
       <c r="BI2">
-        <v>0.01515594969022527</v>
+        <v>0.01463627191935514</v>
       </c>
       <c r="BJ2">
-        <v>0.015535691420133</v>
+        <v>0.01500695639697591</v>
       </c>
       <c r="BK2">
-        <v>0.01615122820377407</v>
+        <v>0.01561388302301992</v>
       </c>
       <c r="BL2">
-        <v>0.01685175248515647</v>
+        <v>0.01630595829292914</v>
       </c>
       <c r="BM2">
-        <v>0.01745951016900429</v>
+        <v>0.01690509106910708</v>
       </c>
       <c r="BN2">
-        <v>0.01799611385474315</v>
+        <v>0.0174329349309672</v>
       </c>
       <c r="BO2">
-        <v>0.01840859440378079</v>
+        <v>0.01783642030430496</v>
       </c>
       <c r="BP2">
-        <v>0.01868682561638633</v>
+        <v>0.01810540178894378</v>
       </c>
       <c r="BQ2">
-        <v>0.01882818626262943</v>
+        <v>0.01823725318479824</v>
       </c>
       <c r="BR2">
-        <v>0.01889924333074097</v>
+        <v>0.01829866769880691</v>
       </c>
       <c r="BS2">
-        <v>0.01889928959859374</v>
+        <v>0.01829866769880691</v>
       </c>
       <c r="BT2">
-        <v>0.01893151281773736</v>
+        <v>0.01832117473037915</v>
       </c>
       <c r="BU2">
-        <v>0.01898529970030788</v>
+        <v>0.01836528631257784</v>
       </c>
       <c r="BV2">
-        <v>0.01906376885822243</v>
+        <v>0.01843412697056893</v>
       </c>
       <c r="BW2">
-        <v>0.01927075452272144</v>
+        <v>0.01863172781730298</v>
       </c>
       <c r="BX2">
-        <v>0.01966739004218019</v>
+        <v>0.01901933811705341</v>
       </c>
       <c r="BY2">
-        <v>0.02026945862617921</v>
+        <v>0.01961277100619133</v>
       </c>
       <c r="BZ2">
-        <v>0.02085560421060141</v>
+        <v>0.02019025070390385</v>
       </c>
       <c r="CA2">
-        <v>0.02171572592774224</v>
+        <v>0.021042226024766</v>
       </c>
       <c r="CB2">
-        <v>0.02278047819944466</v>
+        <v>0.02209921990338524</v>
       </c>
       <c r="CC2">
-        <v>0.02382402017171079</v>
+        <v>0.02313496326538764</v>
       </c>
       <c r="CD2">
-        <v>0.02477587599641362</v>
+        <v>0.02407884663228812</v>
       </c>
       <c r="CE2">
-        <v>0.02545759797829572</v>
+        <v>0.02475208395136285</v>
       </c>
       <c r="CF2">
-        <v>0.0258079624189842</v>
+        <v>0.02509333543702674</v>
       </c>
       <c r="CG2">
-        <v>0.02596816219472662</v>
+        <v>0.02524406168354867</v>
       </c>
       <c r="CH2">
-        <v>0.02599997468388115</v>
+        <v>0.02526615720634027</v>
       </c>
       <c r="CI2">
-        <v>0.0260101922456096</v>
+        <v>0.02526661685522609</v>
       </c>
       <c r="CJ2">
-        <v>0.02601518943497679</v>
+        <v>0.02526661685522609</v>
       </c>
       <c r="CK2">
-        <v>0.02614805156144576</v>
+        <v>0.02538995361713013</v>
       </c>
       <c r="CL2">
-        <v>0.0263510740860501</v>
+        <v>0.02558358380939795</v>
       </c>
       <c r="CM2">
-        <v>0.0280318222413814</v>
+        <v>0.02725774157107692</v>
       </c>
       <c r="CN2">
-        <v>0.1592518487539895</v>
+        <v>0.1587167991420818</v>
       </c>
       <c r="CO2">
-        <v>0.2111525023746428</v>
+        <v>0.210706085117415</v>
       </c>
       <c r="CP2">
-        <v>0.2390500106332198</v>
+        <v>0.2386467129912747</v>
       </c>
       <c r="CQ2">
-        <v>0.2392472146279787</v>
+        <v>0.2388345136210917</v>
       </c>
       <c r="CR2">
-        <v>0.2589724381037479</v>
+        <v>0.2585873611151296</v>
       </c>
       <c r="CS2">
-        <v>0.259175957368339</v>
+        <v>0.2587814889892607</v>
       </c>
       <c r="CT2">
-        <v>0.2738433099785296</v>
+        <v>0.2734668753096525</v>
       </c>
       <c r="CU2">
-        <v>0.2744751615117371</v>
+        <v>0.2740901476199147</v>
       </c>
       <c r="CV2">
-        <v>0.2801571543607286</v>
+        <v>0.2797731368979082</v>
       </c>
       <c r="CW2">
-        <v>0.2806525448475627</v>
+        <v>0.2802596894158725</v>
       </c>
       <c r="CX2">
-        <v>0.2912238615666123</v>
+        <v>0.2908412732873967</v>
       </c>
       <c r="CY2">
-        <v>0.321884404751757</v>
+        <v>0.32155017512157</v>
       </c>
       <c r="CZ2">
-        <v>0.3254326458574566</v>
+        <v>0.3250953668162133</v>
       </c>
       <c r="DA2">
-        <v>0.3443207933554724</v>
+        <v>0.3440095511396422</v>
       </c>
       <c r="DB2">
-        <v>0.3461422501070642</v>
+        <v>0.3458246842973521</v>
       </c>
       <c r="DC2">
-        <v>0.3466901220925035</v>
+        <v>0.346363817824912</v>
       </c>
       <c r="DD2">
-        <v>0.3792057852283454</v>
+        <v>0.3789313571317402</v>
       </c>
       <c r="DE2">
-        <v>0.3828300094320256</v>
+        <v>0.3825526759971047</v>
       </c>
       <c r="DF2">
-        <v>0.3833014623394959</v>
+        <v>0.3830152455472865</v>
       </c>
       <c r="DG2">
-        <v>0.3920314321074824</v>
+        <v>0.3917519910609898</v>
       </c>
       <c r="DH2">
-        <v>0.4030462378147455</v>
+        <v>0.4027779048271355</v>
       </c>
       <c r="DI2">
-        <v>0.4086972674645599</v>
+        <v>0.4084298721961456</v>
       </c>
       <c r="DJ2">
-        <v>0.4088762263898038</v>
+        <v>0.4085993931616858</v>
       </c>
       <c r="DK2">
-        <v>0.409269495929352</v>
+        <v>0.4089836310992385</v>
       </c>
       <c r="DL2">
-        <v>0.4126348672399117</v>
+        <v>0.4123456062564627</v>
       </c>
       <c r="DM2">
-        <v>0.4207803940234306</v>
+        <v>0.4204968006142134</v>
       </c>
       <c r="DN2">
-        <v>0.4364895856059326</v>
+        <v>0.4362260013540893</v>
       </c>
       <c r="DO2">
-        <v>0.4365270258929376</v>
+        <v>0.4362537353456868</v>
       </c>
       <c r="DP2">
-        <v>0.4365541857162157</v>
+        <v>0.4362711693806096</v>
       </c>
       <c r="DQ2">
-        <v>0.4378663349813432</v>
+        <v>0.437576029345963</v>
       </c>
       <c r="DR2">
-        <v>0.4384749518651682</v>
+        <v>0.4381760229512606</v>
       </c>
       <c r="DS2">
-        <v>0.4481672726075785</v>
+        <v>0.4478769441681243</v>
       </c>
       <c r="DT2">
-        <v>0.4686595150629628</v>
+        <v>0.468398264998463</v>
       </c>
       <c r="DU2">
-        <v>0.4819707827091936</v>
+        <v>0.4817249950609819</v>
       </c>
       <c r="DV2">
-        <v>0.4854379743170472</v>
+        <v>0.4851889835785584</v>
       </c>
       <c r="DW2">
-        <v>0.4862224877961974</v>
+        <v>0.4859652072994672</v>
       </c>
       <c r="DX2">
-        <v>0.4872837376679929</v>
+        <v>0.4870186921372243</v>
       </c>
       <c r="DY2">
-        <v>0.4880490957476523</v>
+        <v>0.4877757241377896</v>
       </c>
       <c r="DZ2">
-        <v>0.4880522489338684</v>
+        <v>0.4877757241377896</v>
       </c>
       <c r="EA2">
-        <v>0.4881571928110794</v>
+        <v>0.4878710897142065</v>
       </c>
       <c r="EB2">
-        <v>0.4964047105918878</v>
+        <v>0.496124468455972</v>
       </c>
       <c r="EC2">
-        <v>0.5028377186209199</v>
+        <v>0.5025598969256369</v>
       </c>
       <c r="ED2">
-        <v>0.5029111281129689</v>
+        <v>0.5026236683240508</v>
       </c>
       <c r="EE2">
-        <v>0.5036841629924242</v>
+        <v>0.5033883916805122</v>
       </c>
       <c r="EF2">
-        <v>0.5037561285055117</v>
+        <v>0.5034507163620134</v>
       </c>
       <c r="EG2">
-        <v>0.5050106923721696</v>
+        <v>0.5046978817403225</v>
       </c>
       <c r="EH2">
-        <v>0.5246495638502336</v>
+        <v>0.5243642135032817</v>
       </c>
       <c r="EI2">
-        <v>0.5361509935445639</v>
+        <v>0.5358776739518486</v>
       </c>
       <c r="EJ2">
-        <v>0.5385277163813985</v>
+        <v>0.5382491260435115</v>
       </c>
       <c r="EK2">
-        <v>0.5402397960358971</v>
+        <v>0.5399546747125035</v>
       </c>
       <c r="EL2">
-        <v>0.573984125139085</v>
+        <v>0.5737532096794382</v>
       </c>
       <c r="EM2">
-        <v>0.638308163429566</v>
+        <v>0.638189436498608</v>
       </c>
       <c r="EN2">
-        <v>0.6624158107888649</v>
+        <v>0.6623330174586546</v>
       </c>
       <c r="EO2">
-        <v>0.6830309852409822</v>
+        <v>0.6829775033790081</v>
       </c>
       <c r="EP2">
-        <v>0.6919222020046832</v>
+        <v>0.691875801631377</v>
       </c>
       <c r="EQ2">
-        <v>0.6938202848542385</v>
+        <v>0.6937677061789933</v>
       </c>
       <c r="ER2">
-        <v>0.6991848227116669</v>
+        <v>0.6991326385340483</v>
       </c>
       <c r="ES2">
-        <v>0.6991990898642878</v>
+        <v>0.6991371554523191</v>
       </c>
       <c r="ET2">
-        <v>0.7049616151111391</v>
+        <v>0.7049008298269117</v>
       </c>
       <c r="EU2">
-        <v>0.7062368312772481</v>
+        <v>0.7061686866638199</v>
       </c>
       <c r="EV2">
-        <v>0.7078237010350744</v>
+        <v>0.7077487880236959</v>
       </c>
       <c r="EW2">
-        <v>0.7252692485714298</v>
+        <v>0.7252176370491108</v>
       </c>
       <c r="EX2">
-        <v>0.7402074281744226</v>
+        <v>0.7401743638816025</v>
       </c>
       <c r="EY2">
-        <v>0.7542228708019388</v>
+        <v>0.7542066041226041</v>
       </c>
       <c r="EZ2">
-        <v>0.7656698724977156</v>
+        <v>0.765665533370838</v>
       </c>
       <c r="FA2">
-        <v>0.7658207193237065</v>
+        <v>0.7658068889333342</v>
       </c>
       <c r="FB2">
-        <v>0.7745032780929531</v>
+        <v>0.7744961335515612</v>
       </c>
       <c r="FC2">
-        <v>0.7833102808588922</v>
+        <v>0.7833100581266897</v>
       </c>
       <c r="FD2">
-        <v>0.7924519196159379</v>
+        <v>0.7924592532014622</v>
       </c>
       <c r="FE2">
-        <v>0.7939620915758026</v>
+        <v>0.793962511335482</v>
       </c>
       <c r="FF2">
-        <v>0.7975798504796545</v>
+        <v>0.7975773526420622</v>
       </c>
       <c r="FG2">
-        <v>0.799752373121916</v>
+        <v>0.7997442173519689</v>
       </c>
       <c r="FH2">
-        <v>0.817748682643634</v>
+        <v>0.8177648726711623</v>
       </c>
       <c r="FI2">
-        <v>0.8341431572079234</v>
+        <v>0.8341806557686071</v>
       </c>
       <c r="FJ2">
-        <v>0.8375543854172643</v>
+        <v>0.8375885747745956</v>
       </c>
       <c r="FK2">
-        <v>0.8376551578645861</v>
+        <v>0.8376797610116099</v>
       </c>
       <c r="FL2">
-        <v>0.838142204201642</v>
+        <v>0.838157953558323</v>
       </c>
       <c r="FM2">
-        <v>0.8391539459747532</v>
+        <v>0.8391618364243155</v>
       </c>
       <c r="FN2">
-        <v>0.8404762468396109</v>
+        <v>0.8404768672380063</v>
       </c>
       <c r="FO2">
-        <v>0.8409794442262376</v>
+        <v>0.840971241458548</v>
       </c>
       <c r="FP2">
-        <v>0.8458609405965036</v>
+        <v>0.8458522164239206</v>
       </c>
       <c r="FQ2">
-        <v>0.8472794607588041</v>
+        <v>0.8472636489779691</v>
       </c>
       <c r="FR2">
-        <v>0.8530262756060729</v>
+        <v>0.8530115831642447</v>
       </c>
       <c r="FS2">
-        <v>0.8680991332054865</v>
+        <v>0.8681032433582129</v>
       </c>
       <c r="FT2">
-        <v>0.8701928091498435</v>
+        <v>0.8701911118677577</v>
       </c>
       <c r="FU2">
-        <v>0.8721934377966735</v>
+        <v>0.872185756651339</v>
       </c>
       <c r="FV2">
-        <v>0.8724493101098733</v>
+        <v>0.8724323368415131</v>
       </c>
       <c r="FW2">
-        <v>0.8738601494723779</v>
+        <v>0.8738360740320812</v>
       </c>
       <c r="FX2">
-        <v>0.8775026911755712</v>
+        <v>0.8774757451290562</v>
       </c>
       <c r="FY2">
-        <v>0.8776853721307162</v>
+        <v>0.8776489951818967</v>
       </c>
       <c r="FZ2">
-        <v>0.8792410141893724</v>
+        <v>0.8791978096312736</v>
       </c>
       <c r="GA2">
-        <v>0.8877173919640985</v>
+        <v>0.8876804823119713</v>
       </c>
       <c r="GB2">
-        <v>0.9037588735377693</v>
+        <v>0.9037426031032662</v>
       </c>
       <c r="GC2">
-        <v>0.9082107344194537</v>
+        <v>0.9081931279414865</v>
       </c>
       <c r="GD2">
-        <v>0.9088355746628475</v>
+        <v>0.9088093756677189</v>
       </c>
       <c r="GE2">
-        <v>0.9100768388298588</v>
+        <v>0.9100432161286129</v>
       </c>
       <c r="GF2">
-        <v>0.9103977589613298</v>
+        <v>0.910354967475244</v>
       </c>
       <c r="GG2">
-        <v>0.9122264514127292</v>
+        <v>0.9121773500524851</v>
       </c>
       <c r="GH2">
-        <v>0.9180830302570808</v>
+        <v>0.9180352563610755</v>
       </c>
       <c r="GI2">
-        <v>0.9437189765757626</v>
+        <v>0.9437100341120687</v>
       </c>
       <c r="GJ2">
-        <v>0.9711960128455144</v>
+        <v>0.9712293927335878</v>
       </c>
       <c r="GK2">
-        <v>0.9855051514652251</v>
+        <v>0.9855558858483489</v>
       </c>
       <c r="GL2">
-        <v>0.9941304482359934</v>
+        <v>0.9941877598927267</v>
       </c>
       <c r="GM2">
-        <v>0.9971136939567087</v>
+        <v>0.997166884905798</v>
       </c>
       <c r="GN2">
-        <v>0.9971366197070994</v>
+        <v>0.9971800768395414</v>
       </c>
       <c r="GO2">
-        <v>0.9984032103734377</v>
+        <v>0.9984392918217337</v>
       </c>
       <c r="GP2">
-        <v>0.9991101532246495</v>
+        <v>0.999137797831823</v>
       </c>
       <c r="GQ2">
-        <v>0.9995996376116406</v>
+        <v>0.9996184330512959</v>
       </c>
       <c r="GR2">
-        <v>0.9999760860416359</v>
+        <v>0.9999858179845268</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.739463942678373E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.219765960965916E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.212058446210185E-05</v>
+        <v>1.220106524975432E-05</v>
       </c>
       <c r="E3">
-        <v>4.276928488323322E-05</v>
+        <v>1.511450539319688E-05</v>
       </c>
       <c r="F3">
-        <v>4.49250026672671E-05</v>
+        <v>1.511450539319688E-05</v>
       </c>
       <c r="G3">
-        <v>5.962631855838315E-05</v>
+        <v>2.208641678283671E-05</v>
       </c>
       <c r="H3">
-        <v>0.0001718011827275703</v>
+        <v>0.0001266727196392465</v>
       </c>
       <c r="I3">
-        <v>0.0004727645804985126</v>
+        <v>0.000420320343736027</v>
       </c>
       <c r="J3">
-        <v>0.001143591625530094</v>
+        <v>0.001084366044960669</v>
       </c>
       <c r="K3">
-        <v>0.002131420818213828</v>
+        <v>0.00206587194213968</v>
       </c>
       <c r="L3">
-        <v>0.003282410709689127</v>
+        <v>0.003210774295128381</v>
       </c>
       <c r="M3">
-        <v>0.003595666847369025</v>
+        <v>0.003516732421375435</v>
       </c>
       <c r="N3">
-        <v>0.003649264842972056</v>
+        <v>0.003562657215749541</v>
       </c>
       <c r="O3">
-        <v>0.00369253896765155</v>
+        <v>0.003598243221851494</v>
       </c>
       <c r="P3">
-        <v>0.003786108446958536</v>
+        <v>0.003684197256226739</v>
       </c>
       <c r="Q3">
-        <v>0.003848173436498858</v>
+        <v>0.003738601278815494</v>
       </c>
       <c r="R3">
-        <v>0.003851685965472842</v>
+        <v>0.003738601278815494</v>
       </c>
       <c r="S3">
-        <v>0.003862133641395463</v>
+        <v>0.003741313403992582</v>
       </c>
       <c r="T3">
-        <v>0.003960482660667049</v>
+        <v>0.003832053884469129</v>
       </c>
       <c r="U3">
-        <v>0.004117410279504779</v>
+        <v>0.003981457606929153</v>
       </c>
       <c r="V3">
-        <v>0.004370234077632262</v>
+        <v>0.00422689607266797</v>
       </c>
       <c r="W3">
-        <v>0.004579215296084462</v>
+        <v>0.004428428608942443</v>
       </c>
       <c r="X3">
-        <v>0.004610055598856046</v>
+        <v>0.004451562827040492</v>
       </c>
       <c r="Y3">
-        <v>0.004622672905762596</v>
+        <v>0.004456447718182759</v>
       </c>
       <c r="Z3">
-        <v>0.004652378065542588</v>
+        <v>0.004478445153078497</v>
       </c>
       <c r="AA3">
-        <v>0.004674538491378459</v>
+        <v>0.004492886952360838</v>
       </c>
       <c r="AB3">
-        <v>0.0047168207940653</v>
+        <v>0.004527479703349309</v>
       </c>
       <c r="AC3">
-        <v>0.004783967703567983</v>
+        <v>0.004586972988957336</v>
       </c>
       <c r="AD3">
-        <v>0.004875482958890183</v>
+        <v>0.004670869831122452</v>
       </c>
       <c r="AE3">
-        <v>0.005023494827793947</v>
+        <v>0.004811344920946766</v>
       </c>
       <c r="AF3">
-        <v>0.005105781297184499</v>
+        <v>0.004885999642161028</v>
       </c>
       <c r="AG3">
-        <v>0.005132848948984026</v>
+        <v>0.004905355758042017</v>
       </c>
       <c r="AH3">
-        <v>0.005135004666768059</v>
+        <v>0.004905355758042017</v>
       </c>
       <c r="AI3">
-        <v>0.005136868097854258</v>
+        <v>0.004905355758042017</v>
       </c>
       <c r="AJ3">
-        <v>0.005137698324798109</v>
+        <v>0.004905355758042017</v>
       </c>
       <c r="AK3">
-        <v>0.005211485444251611</v>
+        <v>0.00497149884828947</v>
       </c>
       <c r="AL3">
-        <v>0.005473361362312051</v>
+        <v>0.005226002513709117</v>
       </c>
       <c r="AM3">
-        <v>0.006209846416857343</v>
+        <v>0.005955801096169971</v>
       </c>
       <c r="AN3">
-        <v>0.006963224911277514</v>
+        <v>0.006702517528471097</v>
       </c>
       <c r="AO3">
-        <v>0.007423945967865226</v>
+        <v>0.007156153651222576</v>
       </c>
       <c r="AP3">
-        <v>0.007738664515534292</v>
+        <v>0.007463576300549885</v>
       </c>
       <c r="AQ3">
-        <v>0.007749135544456739</v>
+        <v>0.007466311812470426</v>
       </c>
       <c r="AR3">
-        <v>0.007749501927884025</v>
+        <v>0.007466311812470426</v>
       </c>
       <c r="AS3">
-        <v>0.007757826018822374</v>
+        <v>0.007466897284215587</v>
       </c>
       <c r="AT3">
-        <v>0.007767192821753</v>
+        <v>0.007468526974606722</v>
       </c>
       <c r="AU3">
-        <v>0.007771102675724042</v>
+        <v>0.007468526974606722</v>
       </c>
       <c r="AV3">
-        <v>0.007771200541559317</v>
+        <v>0.007468526974606722</v>
       </c>
       <c r="AW3">
-        <v>0.007774830032932435</v>
+        <v>0.007468526974606722</v>
       </c>
       <c r="AX3">
-        <v>0.007784387230861651</v>
+        <v>0.007470347335105328</v>
       </c>
       <c r="AY3">
-        <v>0.007810745760666429</v>
+        <v>0.007488993304354582</v>
       </c>
       <c r="AZ3">
-        <v>0.007866325380254785</v>
+        <v>0.007536902586036891</v>
       </c>
       <c r="BA3">
-        <v>0.007881264979144136</v>
+        <v>0.007544113124728814</v>
       </c>
       <c r="BB3">
-        <v>0.007881269236600104</v>
+        <v>0.007544113124728814</v>
       </c>
       <c r="BC3">
-        <v>0.0078874669881542</v>
+        <v>0.007544113124728814</v>
       </c>
       <c r="BD3">
-        <v>0.007937450033784006</v>
+        <v>0.007586417745752787</v>
       </c>
       <c r="BE3">
-        <v>0.00802564067813083</v>
+        <v>0.007666985173087334</v>
       </c>
       <c r="BF3">
-        <v>0.008237615166560861</v>
+        <v>0.007871515304427786</v>
       </c>
       <c r="BG3">
-        <v>0.008540963514314139</v>
+        <v>0.008167551324610655</v>
       </c>
       <c r="BH3">
-        <v>0.008663792503404417</v>
+        <v>0.00828280714693317</v>
       </c>
       <c r="BI3">
-        <v>0.008680677645279359</v>
+        <v>0.008291966039798773</v>
       </c>
       <c r="BJ3">
-        <v>0.008680991717107032</v>
+        <v>0.008291966039798773</v>
       </c>
       <c r="BK3">
-        <v>0.008686034225769686</v>
+        <v>0.008291966039798773</v>
       </c>
       <c r="BL3">
-        <v>0.00886003450448097</v>
+        <v>0.008458467091059445</v>
       </c>
       <c r="BM3">
-        <v>0.009148951222341136</v>
+        <v>0.008740050628545458</v>
       </c>
       <c r="BN3">
-        <v>0.009242520701648122</v>
+        <v>0.008826004662920703</v>
       </c>
       <c r="BO3">
-        <v>0.009569806979224106</v>
+        <v>0.009146013201739618</v>
       </c>
       <c r="BP3">
-        <v>0.009851406007138469</v>
+        <v>0.009420268475674946</v>
       </c>
       <c r="BQ3">
-        <v>0.009918105636644465</v>
+        <v>0.009479313834994629</v>
       </c>
       <c r="BR3">
-        <v>0.009925845100587144</v>
+        <v>0.009479313834994629</v>
       </c>
       <c r="BS3">
-        <v>0.009971408550249682</v>
+        <v>0.009517192474011227</v>
       </c>
       <c r="BT3">
-        <v>0.01007620278947353</v>
+        <v>0.009614387487380275</v>
       </c>
       <c r="BU3">
-        <v>0.01009904830930433</v>
+        <v>0.009629515370575572</v>
       </c>
       <c r="BV3">
-        <v>0.01009939802700174</v>
+        <v>0.009629515370575572</v>
       </c>
       <c r="BW3">
-        <v>0.01010384098796883</v>
+        <v>0.009629515370575572</v>
       </c>
       <c r="BX3">
-        <v>0.01011964196485181</v>
+        <v>0.009637588531898512</v>
       </c>
       <c r="BY3">
-        <v>0.01011973983068708</v>
+        <v>0.009637588531898512</v>
       </c>
       <c r="BZ3">
-        <v>0.01013581674656801</v>
+        <v>0.009645938030934024</v>
       </c>
       <c r="CA3">
-        <v>0.01015733599140863</v>
+        <v>0.009659737722754627</v>
       </c>
       <c r="CB3">
-        <v>0.01017148876330381</v>
+        <v>0.00966616029753652</v>
       </c>
       <c r="CC3">
-        <v>0.01026726647859444</v>
+        <v>0.009754325758658471</v>
       </c>
       <c r="CD3">
-        <v>0.01033566177808787</v>
+        <v>0.009815069238102809</v>
       </c>
       <c r="CE3">
-        <v>0.01037799104777437</v>
+        <v>0.009849709023955313</v>
       </c>
       <c r="CF3">
-        <v>0.0103782431876425</v>
+        <v>0.009849709023955313</v>
       </c>
       <c r="CG3">
-        <v>0.0104098907574081</v>
+        <v>0.009873651675497764</v>
       </c>
       <c r="CH3">
-        <v>0.01047994254688927</v>
+        <v>0.009936054038454396</v>
       </c>
       <c r="CI3">
-        <v>0.01048650506384067</v>
+        <v>0.009936054038454396</v>
       </c>
       <c r="CJ3">
-        <v>0.01049606226176988</v>
+        <v>0.009937874398953</v>
       </c>
       <c r="CK3">
-        <v>0.01061131727091626</v>
+        <v>0.01004554529740369</v>
       </c>
       <c r="CL3">
-        <v>0.01073652434998892</v>
+        <v>0.01016318264590007</v>
       </c>
       <c r="CM3">
-        <v>0.01101021647796185</v>
+        <v>0.01042951959491745</v>
       </c>
       <c r="CN3">
-        <v>0.01131874341567677</v>
+        <v>0.01073074168780098</v>
       </c>
       <c r="CO3">
-        <v>0.03645723122949088</v>
+        <v>0.03589780239927728</v>
       </c>
       <c r="CP3">
-        <v>0.05319572610551876</v>
+        <v>0.05265273270786729</v>
       </c>
       <c r="CQ3">
-        <v>0.1578204153306256</v>
+        <v>0.1574208474266698</v>
       </c>
       <c r="CR3">
-        <v>0.1618700263006325</v>
+        <v>0.1614685591845899</v>
       </c>
       <c r="CS3">
-        <v>0.1709004212337498</v>
+        <v>0.1705042518273285</v>
       </c>
       <c r="CT3">
-        <v>0.1959289510483783</v>
+        <v>0.1955611956571787</v>
       </c>
       <c r="CU3">
-        <v>0.1966233065032356</v>
+        <v>0.1962488037653116</v>
       </c>
       <c r="CV3">
-        <v>0.2146122153700024</v>
+        <v>0.2142559548347517</v>
       </c>
       <c r="CW3">
-        <v>0.2150245246669487</v>
+        <v>0.214661109245893</v>
       </c>
       <c r="CX3">
-        <v>0.2201240946291792</v>
+        <v>0.219760297121196</v>
       </c>
       <c r="CY3">
-        <v>0.2258925501864556</v>
+        <v>0.2255293370894488</v>
       </c>
       <c r="CZ3">
-        <v>0.2541480049771842</v>
+        <v>0.2538178686004238</v>
       </c>
       <c r="DA3">
-        <v>0.2911452547031675</v>
+        <v>0.2908608263942897</v>
       </c>
       <c r="DB3">
-        <v>0.298068519951891</v>
+        <v>0.2977863446818598</v>
       </c>
       <c r="DC3">
-        <v>0.3116230548515005</v>
+        <v>0.3113527143907477</v>
       </c>
       <c r="DD3">
-        <v>0.3491899775732646</v>
+        <v>0.3489661683222893</v>
       </c>
       <c r="DE3">
-        <v>0.3538084020390587</v>
+        <v>0.3535835154759677</v>
       </c>
       <c r="DF3">
-        <v>0.3784921318562409</v>
+        <v>0.3782951610939129</v>
       </c>
       <c r="DG3">
-        <v>0.378663326664973</v>
+        <v>0.3784588526214655</v>
       </c>
       <c r="DH3">
-        <v>0.3788131008238637</v>
+        <v>0.3786010925476757</v>
       </c>
       <c r="DI3">
-        <v>0.3865177591667999</v>
+        <v>0.3863091329936709</v>
       </c>
       <c r="DJ3">
-        <v>0.3865219029191692</v>
+        <v>0.3863091329936709</v>
       </c>
       <c r="DK3">
-        <v>0.3919370914790621</v>
+        <v>0.3917243955157952</v>
       </c>
       <c r="DL3">
-        <v>0.3919475391549847</v>
+        <v>0.3917271076409723</v>
       </c>
       <c r="DM3">
-        <v>0.3946173175352112</v>
+        <v>0.3943929930372093</v>
       </c>
       <c r="DN3">
-        <v>0.3997218238974052</v>
+        <v>0.3994971244452654</v>
       </c>
       <c r="DO3">
-        <v>0.4119121188071189</v>
+        <v>0.4116972829226875</v>
       </c>
       <c r="DP3">
-        <v>0.4203108732449143</v>
+        <v>0.4201004223890432</v>
       </c>
       <c r="DQ3">
-        <v>0.4215546579357023</v>
+        <v>0.4213382536240333</v>
       </c>
       <c r="DR3">
-        <v>0.4248500655112952</v>
+        <v>0.4246306722107448</v>
       </c>
       <c r="DS3">
-        <v>0.4274362893921406</v>
+        <v>0.4272128823765681</v>
       </c>
       <c r="DT3">
-        <v>0.4276294747707098</v>
+        <v>0.4273985962489577</v>
       </c>
       <c r="DU3">
-        <v>0.4369556637016362</v>
+        <v>0.436730510293356</v>
       </c>
       <c r="DV3">
-        <v>0.4509891275976987</v>
+        <v>0.4507765010211808</v>
       </c>
       <c r="DW3">
-        <v>0.452156731289051</v>
+        <v>0.4519380411799496</v>
       </c>
       <c r="DX3">
-        <v>0.4563600772579193</v>
+        <v>0.4561397100742015</v>
       </c>
       <c r="DY3">
-        <v>0.4569632334134521</v>
+        <v>0.456735987105719</v>
       </c>
       <c r="DZ3">
-        <v>0.4585083227020085</v>
+        <v>0.4582755583048007</v>
       </c>
       <c r="EA3">
-        <v>0.4586197667111832</v>
+        <v>0.4583794126966227</v>
       </c>
       <c r="EB3">
-        <v>0.4592351452566254</v>
+        <v>0.4589879297786397</v>
       </c>
       <c r="EC3">
-        <v>0.4635470658246896</v>
+        <v>0.4632983301556013</v>
       </c>
       <c r="ED3">
-        <v>0.472343039759543</v>
+        <v>0.4720992630763765</v>
       </c>
       <c r="EE3">
-        <v>0.4730281835544686</v>
+        <v>0.4727776462143045</v>
       </c>
       <c r="EF3">
-        <v>0.4732313450529639</v>
+        <v>0.4729733506214902</v>
       </c>
       <c r="EG3">
-        <v>0.4741259335763382</v>
+        <v>0.4738614811224168</v>
       </c>
       <c r="EH3">
-        <v>0.4753571255672195</v>
+        <v>0.4750867014618355</v>
       </c>
       <c r="EI3">
-        <v>0.4865867974840479</v>
+        <v>0.4863248489061517</v>
       </c>
       <c r="EJ3">
-        <v>0.5098417283118124</v>
+        <v>0.5096056310093876</v>
       </c>
       <c r="EK3">
-        <v>0.5243036952047012</v>
+        <v>0.5240807438941033</v>
       </c>
       <c r="EL3">
-        <v>0.5257853795937273</v>
+        <v>0.5255568185775353</v>
       </c>
       <c r="EM3">
-        <v>0.5321734882464143</v>
+        <v>0.5319464070012156</v>
       </c>
       <c r="EN3">
-        <v>0.5727178299461264</v>
+        <v>0.5725415820951477</v>
       </c>
       <c r="EO3">
-        <v>0.6112318146608762</v>
+        <v>0.6111034664650978</v>
       </c>
       <c r="EP3">
-        <v>0.6275178855402549</v>
+        <v>0.6274053190526236</v>
       </c>
       <c r="EQ3">
-        <v>0.64121209943883</v>
+        <v>0.6411115695879056</v>
       </c>
       <c r="ER3">
-        <v>0.6481697416872988</v>
+        <v>0.6480715145478385</v>
       </c>
       <c r="ES3">
-        <v>0.6581678266132489</v>
+        <v>0.6580762954350041</v>
       </c>
       <c r="ET3">
-        <v>0.6644279580668838</v>
+        <v>0.6643377217405736</v>
       </c>
       <c r="EU3">
-        <v>0.6655766040583765</v>
+        <v>0.6654802768067906</v>
       </c>
       <c r="EV3">
-        <v>0.6695317796290828</v>
+        <v>0.6694334167121568</v>
       </c>
       <c r="EW3">
-        <v>0.6695622771558569</v>
+        <v>0.6694562076589675</v>
       </c>
       <c r="EX3">
-        <v>0.6716842301401409</v>
+        <v>0.671573476085784</v>
       </c>
       <c r="EY3">
-        <v>0.6878170280206548</v>
+        <v>0.6877218342045356</v>
       </c>
       <c r="EZ3">
-        <v>0.6993925869349215</v>
+        <v>0.6993063684313959</v>
       </c>
       <c r="FA3">
-        <v>0.7080978498704468</v>
+        <v>0.7080164592811151</v>
       </c>
       <c r="FB3">
-        <v>0.7096211197591649</v>
+        <v>0.7095341795526886</v>
       </c>
       <c r="FC3">
-        <v>0.7175061107007654</v>
+        <v>0.7174228131666891</v>
       </c>
       <c r="FD3">
-        <v>0.7314330895976165</v>
+        <v>0.7313621650311303</v>
       </c>
       <c r="FE3">
-        <v>0.7412218545251169</v>
+        <v>0.7411573234655233</v>
       </c>
       <c r="FF3">
-        <v>0.7500980234593764</v>
+        <v>0.7500385672624694</v>
       </c>
       <c r="FG3">
-        <v>0.7501436356620386</v>
+        <v>0.7500764947249307</v>
       </c>
       <c r="FH3">
-        <v>0.7529676538411227</v>
+        <v>0.7528968427869002</v>
       </c>
       <c r="FI3">
-        <v>0.7588431587976063</v>
+        <v>0.7587730868340552</v>
       </c>
       <c r="FJ3">
-        <v>0.7881839605802964</v>
+        <v>0.7881485335956002</v>
       </c>
       <c r="FK3">
-        <v>0.8067839974425369</v>
+        <v>0.8067676957022941</v>
       </c>
       <c r="FL3">
-        <v>0.8100141747186129</v>
+        <v>0.8099947897357804</v>
       </c>
       <c r="FM3">
-        <v>0.8101938403872823</v>
+        <v>0.8101669643631337</v>
       </c>
       <c r="FN3">
-        <v>0.8102515394328549</v>
+        <v>0.8102169961332385</v>
       </c>
       <c r="FO3">
-        <v>0.8106592532398352</v>
+        <v>0.810617548414218</v>
       </c>
       <c r="FP3">
-        <v>0.8133575182198508</v>
+        <v>0.8133119615716012</v>
       </c>
       <c r="FQ3">
-        <v>0.814613703610547</v>
+        <v>0.8145622114247363</v>
       </c>
       <c r="FR3">
-        <v>0.8182230101838149</v>
+        <v>0.8181689825735672</v>
       </c>
       <c r="FS3">
-        <v>0.8190334960378122</v>
+        <v>0.8189728888820128</v>
       </c>
       <c r="FT3">
-        <v>0.8280638909709294</v>
+        <v>0.8280085815247514</v>
       </c>
       <c r="FU3">
-        <v>0.8370472919043946</v>
+        <v>0.836997212264444</v>
       </c>
       <c r="FV3">
-        <v>0.8386203647927438</v>
+        <v>0.8385648074978722</v>
       </c>
       <c r="FW3">
-        <v>0.8417083205698732</v>
+        <v>0.8416494745312296</v>
       </c>
       <c r="FX3">
-        <v>0.8417154222723207</v>
+        <v>0.8416494745312296</v>
       </c>
       <c r="FY3">
-        <v>0.8442231898537471</v>
+        <v>0.844153115033182</v>
       </c>
       <c r="FZ3">
-        <v>0.8454638112445586</v>
+        <v>0.8453877783974247</v>
       </c>
       <c r="GA3">
-        <v>0.8468736023341171</v>
+        <v>0.8467918559000622</v>
       </c>
       <c r="GB3">
-        <v>0.8521295719951892</v>
+        <v>0.8520476694620024</v>
       </c>
       <c r="GC3">
-        <v>0.8671661948838219</v>
+        <v>0.8670982686844807</v>
       </c>
       <c r="GD3">
-        <v>0.8849601277520327</v>
+        <v>0.8849101620272258</v>
       </c>
       <c r="GE3">
-        <v>0.8897669191164317</v>
+        <v>0.8897161482579115</v>
       </c>
       <c r="GF3">
-        <v>0.8937759307867393</v>
+        <v>0.8937232020526802</v>
       </c>
       <c r="GG3">
-        <v>0.8969702667630808</v>
+        <v>0.8969144029979926</v>
       </c>
       <c r="GH3">
-        <v>0.8971009933121126</v>
+        <v>0.8970375677917375</v>
       </c>
       <c r="GI3">
-        <v>0.8992851726959357</v>
+        <v>0.8992171525313535</v>
       </c>
       <c r="GJ3">
-        <v>0.9126426190970049</v>
+        <v>0.9125861489611315</v>
       </c>
       <c r="GK3">
-        <v>0.9422632788776223</v>
+        <v>0.9422418580979298</v>
       </c>
       <c r="GL3">
-        <v>0.9659607797021089</v>
+        <v>0.9659658496838885</v>
       </c>
       <c r="GM3">
-        <v>0.9791565681043756</v>
+        <v>0.9791729545291534</v>
       </c>
       <c r="GN3">
-        <v>0.9904453500207663</v>
+        <v>0.9904702973832891</v>
       </c>
       <c r="GO3">
-        <v>0.9932649839998829</v>
+        <v>0.993286254910396</v>
       </c>
       <c r="GP3">
-        <v>0.9939468913448325</v>
+        <v>0.9939613969218799</v>
       </c>
       <c r="GQ3">
-        <v>0.9970264265220242</v>
+        <v>0.9970376311880587</v>
       </c>
       <c r="GR3">
-        <v>0.9987593786091893</v>
+        <v>0.9987653366357584</v>
       </c>
       <c r="GS3">
         <v>1.000000000000001</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002855443051765782</v>
+        <v>0.0002851493811690933</v>
       </c>
       <c r="C4">
-        <v>0.001134518720567473</v>
+        <v>0.001133775741074825</v>
       </c>
       <c r="D4">
-        <v>0.001903601774510033</v>
+        <v>0.001902504093827654</v>
       </c>
       <c r="E4">
-        <v>0.002431320584076947</v>
+        <v>0.002429848124496403</v>
       </c>
       <c r="F4">
-        <v>0.002872376952072773</v>
+        <v>0.002870522504642141</v>
       </c>
       <c r="G4">
-        <v>0.003146426157040959</v>
+        <v>0.003144175829391324</v>
       </c>
       <c r="H4">
-        <v>0.003338694110526548</v>
+        <v>0.00333604109974422</v>
       </c>
       <c r="I4">
-        <v>0.00360609181537415</v>
+        <v>0.003603042371072639</v>
       </c>
       <c r="J4">
-        <v>0.003653181446227829</v>
+        <v>0.00364971724224086</v>
       </c>
       <c r="K4">
-        <v>0.003683079162769839</v>
+        <v>0.003679198769000574</v>
       </c>
       <c r="L4">
-        <v>0.003683497804747428</v>
+        <v>0.003679198769000574</v>
       </c>
       <c r="M4">
-        <v>0.003690778431379417</v>
+        <v>0.003686061324464157</v>
       </c>
       <c r="N4">
-        <v>0.003690788686650604</v>
+        <v>0.003686061324464157</v>
       </c>
       <c r="O4">
-        <v>0.003692705260985349</v>
+        <v>0.003687559381425722</v>
       </c>
       <c r="P4">
-        <v>0.003692981244940352</v>
+        <v>0.003687559381425722</v>
       </c>
       <c r="Q4">
-        <v>0.003703639110633566</v>
+        <v>0.003697799456883695</v>
       </c>
       <c r="R4">
-        <v>0.003745088441384993</v>
+        <v>0.003738833558765419</v>
       </c>
       <c r="S4">
-        <v>0.004216378209928916</v>
+        <v>0.004209743854402603</v>
       </c>
       <c r="T4">
-        <v>0.005327388130070203</v>
+        <v>0.00532042751629086</v>
       </c>
       <c r="U4">
-        <v>0.006978908060010293</v>
+        <v>0.006971666149908424</v>
       </c>
       <c r="V4">
-        <v>0.008894891394744789</v>
+        <v>0.00888739018751562</v>
       </c>
       <c r="W4">
-        <v>0.01105439073389394</v>
+        <v>0.01104665048623849</v>
       </c>
       <c r="X4">
-        <v>0.01292901556787866</v>
+        <v>0.01292101258271922</v>
       </c>
       <c r="Y4">
-        <v>0.01456087969746241</v>
+        <v>0.01455259378092705</v>
       </c>
       <c r="Z4">
-        <v>0.01549742511444087</v>
+        <v>0.01548879842695017</v>
       </c>
       <c r="AA4">
-        <v>0.01555111733141424</v>
+        <v>0.01554207643346939</v>
       </c>
       <c r="AB4">
-        <v>0.01555964965256892</v>
+        <v>0.01555019078757696</v>
       </c>
       <c r="AC4">
-        <v>0.01562291748371589</v>
+        <v>0.01561304520481025</v>
       </c>
       <c r="AD4">
-        <v>0.01567839573472165</v>
+        <v>0.01566810939393179</v>
       </c>
       <c r="AE4">
-        <v>0.01610513700245796</v>
+        <v>0.01609446748302685</v>
       </c>
       <c r="AF4">
-        <v>0.01689339721674818</v>
+        <v>0.01688237459136542</v>
       </c>
       <c r="AG4">
-        <v>0.01867807474910226</v>
+        <v>0.0186667819040149</v>
       </c>
       <c r="AH4">
-        <v>0.01960780336595713</v>
+        <v>0.0195961691828639</v>
       </c>
       <c r="AI4">
-        <v>0.02014672517572714</v>
+        <v>0.02013471714564914</v>
       </c>
       <c r="AJ4">
-        <v>0.02066796328517657</v>
+        <v>0.02065557993710809</v>
       </c>
       <c r="AK4">
-        <v>0.02135314249759805</v>
+        <v>0.02134039746886005</v>
       </c>
       <c r="AL4">
-        <v>0.0218448158665115</v>
+        <v>0.02183169306046168</v>
       </c>
       <c r="AM4">
-        <v>0.02232579119523102</v>
+        <v>0.0223122897219607</v>
       </c>
       <c r="AN4">
-        <v>0.02256897349963962</v>
+        <v>0.02255507357850972</v>
       </c>
       <c r="AO4">
-        <v>0.02277493013337337</v>
+        <v>0.02276062866779364</v>
       </c>
       <c r="AP4">
-        <v>0.02284924728472065</v>
+        <v>0.02283453332435688</v>
       </c>
       <c r="AQ4">
-        <v>0.02293033354119065</v>
+        <v>0.0229152076491259</v>
       </c>
       <c r="AR4">
-        <v>0.02299488762836094</v>
+        <v>0.02297934842937878</v>
       </c>
       <c r="AS4">
-        <v>0.02306406911561512</v>
+        <v>0.02304811699464245</v>
       </c>
       <c r="AT4">
-        <v>0.02309105716210438</v>
+        <v>0.02307468860931063</v>
       </c>
       <c r="AU4">
-        <v>0.02326051302517641</v>
+        <v>0.02324373989164289</v>
       </c>
       <c r="AV4">
-        <v>0.023964893637946</v>
+        <v>0.02394776042099741</v>
       </c>
       <c r="AW4">
-        <v>0.02577703557079797</v>
+        <v>0.0257596344187509</v>
       </c>
       <c r="AX4">
-        <v>0.02873244512437603</v>
+        <v>0.02871487113911271</v>
       </c>
       <c r="AY4">
-        <v>0.0313034507709853</v>
+        <v>0.03128567197614743</v>
       </c>
       <c r="AZ4">
-        <v>0.03269954569629484</v>
+        <v>0.03268146435779194</v>
       </c>
       <c r="BA4">
-        <v>0.03370922151459906</v>
+        <v>0.03369080548843986</v>
       </c>
       <c r="BB4">
-        <v>0.03490674473630873</v>
+        <v>0.03488800964844232</v>
       </c>
       <c r="BC4">
-        <v>0.03584762531336577</v>
+        <v>0.03582854981516115</v>
       </c>
       <c r="BD4">
-        <v>0.03627647367114028</v>
+        <v>0.03625701516957115</v>
       </c>
       <c r="BE4">
-        <v>0.036456889414411</v>
+        <v>0.03643702724379173</v>
       </c>
       <c r="BF4">
-        <v>0.03647012870365102</v>
+        <v>0.03644984895753033</v>
       </c>
       <c r="BG4">
-        <v>0.03673390289843293</v>
+        <v>0.03671322641737403</v>
       </c>
       <c r="BH4">
-        <v>0.03708197188474301</v>
+        <v>0.03706090568074656</v>
       </c>
       <c r="BI4">
-        <v>0.03752302825273883</v>
+        <v>0.0375015800608923</v>
       </c>
       <c r="BJ4">
-        <v>0.03773600573659986</v>
+        <v>0.03771415658432779</v>
       </c>
       <c r="BK4">
-        <v>0.03799422857128113</v>
+        <v>0.037971982222285</v>
       </c>
       <c r="BL4">
-        <v>0.03817626606458126</v>
+        <v>0.03815361618143907</v>
       </c>
       <c r="BM4">
-        <v>0.03839518416854999</v>
+        <v>0.03837213381914841</v>
       </c>
       <c r="BN4">
-        <v>0.03867258977357902</v>
+        <v>0.03864914382315813</v>
       </c>
       <c r="BO4">
-        <v>0.03944167282752158</v>
+        <v>0.03941787217591096</v>
       </c>
       <c r="BP4">
-        <v>0.04028476791280589</v>
+        <v>0.04026061871664233</v>
       </c>
       <c r="BQ4">
-        <v>0.04108441906730262</v>
+        <v>0.04105991771273444</v>
       </c>
       <c r="BR4">
-        <v>0.04175538707946647</v>
+        <v>0.04173052286208045</v>
       </c>
       <c r="BS4">
-        <v>0.04224706044837993</v>
+        <v>0.04222181845368208</v>
       </c>
       <c r="BT4">
-        <v>0.04245680544218235</v>
+        <v>0.04243116221816665</v>
       </c>
       <c r="BU4">
-        <v>0.04253234736755184</v>
+        <v>0.04250629175063402</v>
       </c>
       <c r="BV4">
-        <v>0.04254500193428126</v>
+        <v>0.04251852869322231</v>
       </c>
       <c r="BW4">
-        <v>0.04255353425543593</v>
+        <v>0.04252664304732988</v>
       </c>
       <c r="BX4">
-        <v>0.04280563539000622</v>
+        <v>0.04277834647594696</v>
       </c>
       <c r="BY4">
-        <v>0.0434420022015428</v>
+        <v>0.04341434754639008</v>
       </c>
       <c r="BZ4">
-        <v>0.04506571123097871</v>
+        <v>0.04503777296607401</v>
       </c>
       <c r="CA4">
-        <v>0.0464131461554061</v>
+        <v>0.04638490129908972</v>
       </c>
       <c r="CB4">
-        <v>0.04767588647829808</v>
+        <v>0.04764732798531144</v>
       </c>
       <c r="CC4">
-        <v>0.0485137310534872</v>
+        <v>0.04848482357918777</v>
       </c>
       <c r="CD4">
-        <v>0.04904845666318114</v>
+        <v>0.04901917499283909</v>
       </c>
       <c r="CE4">
-        <v>0.04963877671388294</v>
+        <v>0.04960912547208127</v>
       </c>
       <c r="CF4">
-        <v>0.05028230217554929</v>
+        <v>0.05025228578814125</v>
       </c>
       <c r="CG4">
-        <v>0.05095224428769454</v>
+        <v>0.05092186495212991</v>
       </c>
       <c r="CH4">
-        <v>0.05128947785380818</v>
+        <v>0.0512587078939695</v>
       </c>
       <c r="CI4">
-        <v>0.05147371463714818</v>
+        <v>0.05144254132610978</v>
       </c>
       <c r="CJ4">
-        <v>0.05151036632781263</v>
+        <v>0.05147877738881634</v>
       </c>
       <c r="CK4">
-        <v>0.05152907916015188</v>
+        <v>0.05149707310096686</v>
       </c>
       <c r="CL4">
-        <v>0.05156821915086144</v>
+        <v>0.05153579767070596</v>
       </c>
       <c r="CM4">
-        <v>0.05398973519476064</v>
+        <v>0.05395709646984715</v>
       </c>
       <c r="CN4">
-        <v>0.1414815027808822</v>
+        <v>0.14145572331797</v>
       </c>
       <c r="CO4">
-        <v>0.1794463164691391</v>
+        <v>0.1794232764047309</v>
       </c>
       <c r="CP4">
-        <v>0.2049616609317019</v>
+        <v>0.2049403246657905</v>
       </c>
       <c r="CQ4">
-        <v>0.2049688350528319</v>
+        <v>0.2049470807068925</v>
       </c>
       <c r="CR4">
-        <v>0.2243901274049168</v>
+        <v>0.224369569928199</v>
       </c>
       <c r="CS4">
-        <v>0.2257249783291161</v>
+        <v>0.2257041132141957</v>
       </c>
       <c r="CT4">
-        <v>0.2539021448399346</v>
+        <v>0.2538832049452344</v>
       </c>
       <c r="CU4">
-        <v>0.2601820349537815</v>
+        <v>0.2601631987703531</v>
       </c>
       <c r="CV4">
-        <v>0.2613858337756049</v>
+        <v>0.2613666790525006</v>
       </c>
       <c r="CW4">
-        <v>0.2669384474762672</v>
+        <v>0.2669193359664772</v>
       </c>
       <c r="CX4">
-        <v>0.2853697538104049</v>
+        <v>0.2853517568185723</v>
       </c>
       <c r="CY4">
-        <v>0.3210768344577317</v>
+        <v>0.3210613890565287</v>
       </c>
       <c r="CZ4">
-        <v>0.3217332221196312</v>
+        <v>0.3217174126427546</v>
       </c>
       <c r="DA4">
-        <v>0.3764791211121092</v>
+        <v>0.3764674469560647</v>
       </c>
       <c r="DB4">
-        <v>0.3858691222823387</v>
+        <v>0.3858578105498833</v>
       </c>
       <c r="DC4">
-        <v>0.3952180354518234</v>
+        <v>0.3952070827250818</v>
       </c>
       <c r="DD4">
-        <v>0.4494967234358314</v>
+        <v>0.4494898671653153</v>
       </c>
       <c r="DE4">
-        <v>0.4561620465566657</v>
+        <v>0.4561553260593847</v>
       </c>
       <c r="DF4">
-        <v>0.4568065774383503</v>
+        <v>0.456799491879098</v>
       </c>
       <c r="DG4">
-        <v>0.4622498422370302</v>
+        <v>0.4622427907949837</v>
       </c>
       <c r="DH4">
-        <v>0.4662603093097352</v>
+        <v>0.4662531727986618</v>
       </c>
       <c r="DI4">
-        <v>0.4698812889753792</v>
+        <v>0.4698740349960534</v>
       </c>
       <c r="DJ4">
-        <v>0.4698901166615393</v>
+        <v>0.4698824447397361</v>
       </c>
       <c r="DK4">
-        <v>0.4727636860136337</v>
+        <v>0.4727558344507968</v>
       </c>
       <c r="DL4">
-        <v>0.4751663797571916</v>
+        <v>0.4751583093838775</v>
       </c>
       <c r="DM4">
-        <v>0.479269540831577</v>
+        <v>0.4792613930999189</v>
       </c>
       <c r="DN4">
-        <v>0.4893414445141687</v>
+        <v>0.4893337159296622</v>
       </c>
       <c r="DO4">
-        <v>0.4919196297609081</v>
+        <v>0.4919116969640568</v>
       </c>
       <c r="DP4">
-        <v>0.4957067243295636</v>
+        <v>0.4956986878826068</v>
       </c>
       <c r="DQ4">
-        <v>0.4973190503587931</v>
+        <v>0.4973107293551979</v>
       </c>
       <c r="DR4">
-        <v>0.4975964559638222</v>
+        <v>0.4975877393592076</v>
       </c>
       <c r="DS4">
-        <v>0.50655665912626</v>
+        <v>0.506548269192801</v>
       </c>
       <c r="DT4">
-        <v>0.5189699873512988</v>
+        <v>0.5189622113346826</v>
       </c>
       <c r="DU4">
-        <v>0.5288460015303392</v>
+        <v>0.5288386283659493</v>
       </c>
       <c r="DV4">
-        <v>0.5289463189221578</v>
+        <v>0.5289385354257949</v>
       </c>
       <c r="DW4">
-        <v>0.5292094500669281</v>
+        <v>0.5292012697821353</v>
       </c>
       <c r="DX4">
-        <v>0.5298245608780793</v>
+        <v>0.5298160130840283</v>
       </c>
       <c r="DY4">
-        <v>0.5299097083896229</v>
+        <v>0.5299007490017035</v>
       </c>
       <c r="DZ4">
-        <v>0.5300403711719917</v>
+        <v>0.5300310039763584</v>
       </c>
       <c r="EA4">
-        <v>0.5310340281900054</v>
+        <v>0.5310243249742037</v>
       </c>
       <c r="EB4">
-        <v>0.5391903763378704</v>
+        <v>0.5391809329251318</v>
       </c>
       <c r="EC4">
-        <v>0.5400883319541492</v>
+        <v>0.5400785445603909</v>
       </c>
       <c r="ED4">
-        <v>0.5413532279770802</v>
+        <v>0.5413431271259721</v>
       </c>
       <c r="EE4">
-        <v>0.5416823300230464</v>
+        <v>0.5416718378712497</v>
       </c>
       <c r="EF4">
-        <v>0.5423690974354968</v>
+        <v>0.5423582437351437</v>
       </c>
       <c r="EG4">
-        <v>0.544720506778125</v>
+        <v>0.5447094300012393</v>
       </c>
       <c r="EH4">
-        <v>0.55552954897408</v>
+        <v>0.555518952662675</v>
       </c>
       <c r="EI4">
-        <v>0.5709828122542293</v>
+        <v>0.5709730827344448</v>
       </c>
       <c r="EJ4">
-        <v>0.5817855504500701</v>
+        <v>0.5817763008713727</v>
       </c>
       <c r="EK4">
-        <v>0.5820880907355548</v>
+        <v>0.5820784476466481</v>
       </c>
       <c r="EL4">
-        <v>0.6054921991598434</v>
+        <v>0.6054840842478051</v>
       </c>
       <c r="EM4">
-        <v>0.6524362630108834</v>
+        <v>0.6524316344297176</v>
       </c>
       <c r="EN4">
-        <v>0.6776137124673206</v>
+        <v>0.6776107595771022</v>
       </c>
       <c r="EO4">
-        <v>0.692874198743975</v>
+        <v>0.6928720966093629</v>
       </c>
       <c r="EP4">
-        <v>0.7006214904844242</v>
+        <v>0.7006196141258166</v>
       </c>
       <c r="EQ4">
-        <v>0.7053947823709583</v>
+        <v>0.705392884398349</v>
       </c>
       <c r="ER4">
-        <v>0.7110945204742878</v>
+        <v>0.7110926779534289</v>
       </c>
       <c r="ES4">
-        <v>0.7111036534414533</v>
+        <v>0.7111013930035116</v>
       </c>
       <c r="ET4">
-        <v>0.715999158530203</v>
+        <v>0.7159968866444756</v>
       </c>
       <c r="EU4">
-        <v>0.7188781045823949</v>
+        <v>0.7188756535028907</v>
       </c>
       <c r="EV4">
-        <v>0.7194591108929278</v>
+        <v>0.7194562894672074</v>
       </c>
       <c r="EW4">
-        <v>0.7298354600810386</v>
+        <v>0.729833083127547</v>
       </c>
       <c r="EX4">
-        <v>0.7464401353820616</v>
+        <v>0.7464387209995588</v>
       </c>
       <c r="EY4">
-        <v>0.7603318536339019</v>
+        <v>0.7603311761470366</v>
       </c>
       <c r="EZ4">
-        <v>0.7670400857555142</v>
+        <v>0.7670395476112377</v>
       </c>
       <c r="FA4">
-        <v>0.7698286926060683</v>
+        <v>0.7698279677532145</v>
       </c>
       <c r="FB4">
-        <v>0.7847341948762874</v>
+        <v>0.7847342912499544</v>
       </c>
       <c r="FC4">
-        <v>0.7997831741491075</v>
+        <v>0.7997841036843251</v>
       </c>
       <c r="FD4">
-        <v>0.8108183283491617</v>
+        <v>0.8108197571588219</v>
       </c>
       <c r="FE4">
-        <v>0.8146390830184274</v>
+        <v>0.814640410977973</v>
       </c>
       <c r="FF4">
-        <v>0.8150093680051402</v>
+        <v>0.81501030808977</v>
       </c>
       <c r="FG4">
-        <v>0.8160736900244351</v>
+        <v>0.816074299967113</v>
       </c>
       <c r="FH4">
-        <v>0.8319494283122433</v>
+        <v>0.8319509401898167</v>
       </c>
       <c r="FI4">
-        <v>0.8488234686181495</v>
+        <v>0.848825965473643</v>
       </c>
       <c r="FJ4">
-        <v>0.8532809121989576</v>
+        <v>0.8532833611668387</v>
       </c>
       <c r="FK4">
-        <v>0.8534572676321548</v>
+        <v>0.8534593125932317</v>
       </c>
       <c r="FL4">
-        <v>0.8534728850534379</v>
+        <v>0.8534745126368366</v>
       </c>
       <c r="FM4">
-        <v>0.8534752767591812</v>
+        <v>0.8534764858647302</v>
       </c>
       <c r="FN4">
-        <v>0.8561257648072315</v>
+        <v>0.8561267757148914</v>
       </c>
       <c r="FO4">
-        <v>0.8562390269092848</v>
+        <v>0.8562396285617679</v>
       </c>
       <c r="FP4">
-        <v>0.8608283894924844</v>
+        <v>0.8608289542309411</v>
       </c>
       <c r="FQ4">
-        <v>0.8614983316046296</v>
+        <v>0.8614985333949298</v>
       </c>
       <c r="FR4">
-        <v>0.8638645056475256</v>
+        <v>0.8638644855894837</v>
       </c>
       <c r="FS4">
-        <v>0.8701572810616062</v>
+        <v>0.8701573657866902</v>
       </c>
       <c r="FT4">
-        <v>0.8721718250981274</v>
+        <v>0.8721716587247842</v>
       </c>
       <c r="FU4">
-        <v>0.8735807889236702</v>
+        <v>0.8735803210771521</v>
       </c>
       <c r="FV4">
-        <v>0.8736278785545238</v>
+        <v>0.8736269959483204</v>
       </c>
       <c r="FW4">
-        <v>0.8766384424091018</v>
+        <v>0.8766373915576523</v>
       </c>
       <c r="FX4">
-        <v>0.8830714270257242</v>
+        <v>0.8830704926206008</v>
       </c>
       <c r="FY4">
-        <v>0.8831015417562701</v>
+        <v>0.8831001911794166</v>
       </c>
       <c r="FZ4">
-        <v>0.8853713762974195</v>
+        <v>0.885369795858293</v>
       </c>
       <c r="GA4">
-        <v>0.8913725741062141</v>
+        <v>0.8913710741955434</v>
       </c>
       <c r="GB4">
-        <v>0.9063447813776424</v>
+        <v>0.9063441082422994</v>
       </c>
       <c r="GC4">
-        <v>0.9134853015070915</v>
+        <v>0.9134848036738997</v>
       </c>
       <c r="GD4">
-        <v>0.9189077080053932</v>
+        <v>0.9189072425543248</v>
       </c>
       <c r="GE4">
-        <v>0.9244272947054568</v>
+        <v>0.9244268697203757</v>
       </c>
       <c r="GF4">
-        <v>0.9254241657235289</v>
+        <v>0.9254234049856335</v>
       </c>
       <c r="GG4">
-        <v>0.9257532677694952</v>
+        <v>0.9257521157309111</v>
       </c>
       <c r="GH4">
-        <v>0.93239379438988</v>
+        <v>0.9323927760618521</v>
       </c>
       <c r="GI4">
-        <v>0.9492232276949776</v>
+        <v>0.949223190634269</v>
       </c>
       <c r="GJ4">
-        <v>0.9722975101132868</v>
+        <v>0.9722989737931111</v>
       </c>
       <c r="GK4">
-        <v>0.9851836853468978</v>
+        <v>0.9851858022769979</v>
       </c>
       <c r="GL4">
-        <v>0.9929772334881856</v>
+        <v>0.9929795800420952</v>
       </c>
       <c r="GM4">
-        <v>0.9961484833456765</v>
+        <v>0.9961506750208881</v>
       </c>
       <c r="GN4">
-        <v>0.9961536552874702</v>
+        <v>0.996155428716104</v>
       </c>
       <c r="GO4">
-        <v>0.9964776436733438</v>
+        <v>0.9964790253759128</v>
       </c>
       <c r="GP4">
-        <v>0.9974259541905355</v>
+        <v>0.9974269961008205</v>
       </c>
       <c r="GQ4">
-        <v>0.9993136942247579</v>
+        <v>0.9993144744885174</v>
       </c>
       <c r="GR4">
-        <v>0.9999988734371794</v>
+        <v>0.9999992920202694</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.001028231789443103</v>
+        <v>0.001014159647250178</v>
       </c>
       <c r="C5">
-        <v>0.001870773530792693</v>
+        <v>0.001842031001037571</v>
       </c>
       <c r="D5">
-        <v>0.002715255392122364</v>
+        <v>0.002671848725370467</v>
       </c>
       <c r="E5">
-        <v>0.003655488082468958</v>
+        <v>0.003597725763157936</v>
       </c>
       <c r="F5">
-        <v>0.003770229261290906</v>
+        <v>0.003695451769003735</v>
       </c>
       <c r="G5">
-        <v>0.003802737420957143</v>
+        <v>0.003710679822147754</v>
       </c>
       <c r="H5">
-        <v>0.0039533011394113</v>
+        <v>0.003844343778595119</v>
       </c>
       <c r="I5">
-        <v>0.003996612678966618</v>
+        <v>0.003870410017327596</v>
       </c>
       <c r="J5">
-        <v>0.004041073328510139</v>
+        <v>0.00389762906818383</v>
       </c>
       <c r="K5">
-        <v>0.004102142033883144</v>
+        <v>0.003941509681735397</v>
       </c>
       <c r="L5">
-        <v>0.004511340549681887</v>
+        <v>0.004334641690036313</v>
       </c>
       <c r="M5">
-        <v>0.00473156537742083</v>
+        <v>0.004538191185868385</v>
       </c>
       <c r="N5">
-        <v>0.004762171172106599</v>
+        <v>0.00455151074510337</v>
       </c>
       <c r="O5">
-        <v>0.004779500181928681</v>
+        <v>0.00455151074510337</v>
       </c>
       <c r="P5">
-        <v>0.004781433772408829</v>
+        <v>0.00455151074510337</v>
       </c>
       <c r="Q5">
-        <v>0.004826490306946232</v>
+        <v>0.004579327600741014</v>
       </c>
       <c r="R5">
-        <v>0.004826573427105378</v>
+        <v>0.004579327600741014</v>
       </c>
       <c r="S5">
-        <v>0.00482672618800381</v>
+        <v>0.004579327600741014</v>
       </c>
       <c r="T5">
-        <v>0.004836576481902676</v>
+        <v>0.004579327600741014</v>
       </c>
       <c r="U5">
-        <v>0.004935403380888016</v>
+        <v>0.004661088055051396</v>
       </c>
       <c r="V5">
-        <v>0.005020982284009374</v>
+        <v>0.00472955783187722</v>
       </c>
       <c r="W5">
-        <v>0.005309978881042235</v>
+        <v>0.005002100661879406</v>
       </c>
       <c r="X5">
-        <v>0.006044890113496871</v>
+        <v>0.005721994749074275</v>
       </c>
       <c r="Y5">
-        <v>0.006709148406676905</v>
+        <v>0.006371008271474592</v>
       </c>
       <c r="Z5">
-        <v>0.006850245405228256</v>
+        <v>0.006495175008692978</v>
       </c>
       <c r="AA5">
-        <v>0.006902600721690722</v>
+        <v>0.006530314161045695</v>
       </c>
       <c r="AB5">
-        <v>0.006971975160978452</v>
+        <v>0.006582527267441201</v>
       </c>
       <c r="AC5">
-        <v>0.007365211296941081</v>
+        <v>0.006959645469241422</v>
       </c>
       <c r="AD5">
-        <v>0.008064473419761728</v>
+        <v>0.007643775594579599</v>
       </c>
       <c r="AE5">
-        <v>0.008399949576317381</v>
+        <v>0.007962947729239203</v>
       </c>
       <c r="AF5">
-        <v>0.008436917635937829</v>
+        <v>0.007982650050983047</v>
       </c>
       <c r="AG5">
-        <v>0.008518669695098477</v>
+        <v>0.008047280654745434</v>
       </c>
       <c r="AH5">
-        <v>0.008749666782726821</v>
+        <v>0.008261637115905683</v>
       </c>
       <c r="AI5">
-        <v>0.00878397666237456</v>
+        <v>0.008278672693707582</v>
       </c>
       <c r="AJ5">
-        <v>0.008886199161325038</v>
+        <v>0.008363839687729071</v>
       </c>
       <c r="AK5">
-        <v>0.009033231839815447</v>
+        <v>0.008493961228114031</v>
       </c>
       <c r="AL5">
-        <v>0.009034756237699797</v>
+        <v>0.008493961228114031</v>
       </c>
       <c r="AM5">
-        <v>0.009047680241567106</v>
+        <v>0.008493961228114031</v>
       </c>
       <c r="AN5">
-        <v>0.009057047405470933</v>
+        <v>0.008493961228114031</v>
       </c>
       <c r="AO5">
-        <v>0.009085382255180019</v>
+        <v>0.008505002525974225</v>
       </c>
       <c r="AP5">
-        <v>0.00928946147308473</v>
+        <v>0.008692354394987761</v>
       </c>
       <c r="AQ5">
-        <v>0.009751721308338689</v>
+        <v>0.009138718672608884</v>
       </c>
       <c r="AR5">
-        <v>0.01016011390414571</v>
+        <v>0.009531042164452039</v>
       </c>
       <c r="AS5">
-        <v>0.01049681470068878</v>
+        <v>0.009851442884572771</v>
       </c>
       <c r="AT5">
-        <v>0.01055879336005245</v>
+        <v>0.009896236383751702</v>
       </c>
       <c r="AU5">
-        <v>0.01056272547851208</v>
+        <v>0.009896236383751702</v>
       </c>
       <c r="AV5">
-        <v>0.01056280360435127</v>
+        <v>0.009896236383751702</v>
       </c>
       <c r="AW5">
-        <v>0.01058856705708676</v>
+        <v>0.009904698000261466</v>
       </c>
       <c r="AX5">
-        <v>0.01063932357656564</v>
+        <v>0.009938233204719702</v>
       </c>
       <c r="AY5">
-        <v>0.01066212575833153</v>
+        <v>0.009943724009809734</v>
       </c>
       <c r="AZ5">
-        <v>0.01067037018224688</v>
+        <v>0.009943724009809734</v>
       </c>
       <c r="BA5">
-        <v>0.01074441853148663</v>
+        <v>0.0100006260842878</v>
       </c>
       <c r="BB5">
-        <v>0.01085958707030419</v>
+        <v>0.01009878082697272</v>
       </c>
       <c r="BC5">
-        <v>0.01089056354598615</v>
+        <v>0.01011247226144232</v>
       </c>
       <c r="BD5">
-        <v>0.01089481082394254</v>
+        <v>0.01011247226144232</v>
       </c>
       <c r="BE5">
-        <v>0.01109666939187005</v>
+        <v>0.01029759632611804</v>
       </c>
       <c r="BF5">
-        <v>0.01122845869051697</v>
+        <v>0.01041242537642718</v>
       </c>
       <c r="BG5">
-        <v>0.01123049295089608</v>
+        <v>0.01041242537642718</v>
       </c>
       <c r="BH5">
-        <v>0.01123670683553228</v>
+        <v>0.01041242537642718</v>
       </c>
       <c r="BI5">
-        <v>0.01150307367279749</v>
+        <v>0.01066226553942124</v>
       </c>
       <c r="BJ5">
-        <v>0.01192635486845164</v>
+        <v>0.01106952559833436</v>
       </c>
       <c r="BK5">
-        <v>0.01219527169569066</v>
+        <v>0.01132192396671125</v>
       </c>
       <c r="BL5">
-        <v>0.01236261493397254</v>
+        <v>0.01147242150226489</v>
       </c>
       <c r="BM5">
-        <v>0.01254497125210028</v>
+        <v>0.01163798048592963</v>
       </c>
       <c r="BN5">
-        <v>0.01262789320124892</v>
+        <v>0.01170378474876335</v>
       </c>
       <c r="BO5">
-        <v>0.01269302973058016</v>
+        <v>0.01175174629175118</v>
       </c>
       <c r="BP5">
-        <v>0.01269475265096247</v>
+        <v>0.01175174629175118</v>
       </c>
       <c r="BQ5">
-        <v>0.01275481798334578</v>
+        <v>0.01179462029970446</v>
       </c>
       <c r="BR5">
-        <v>0.01299160421091468</v>
+        <v>0.01201478455191876</v>
       </c>
       <c r="BS5">
-        <v>0.01339416786678155</v>
+        <v>0.01240126032448296</v>
       </c>
       <c r="BT5">
-        <v>0.01385165256208453</v>
+        <v>0.01284283407788565</v>
       </c>
       <c r="BU5">
-        <v>0.01424798572801536</v>
+        <v>0.01322305928748464</v>
       </c>
       <c r="BV5">
-        <v>0.01447561088567833</v>
+        <v>0.01343403295519216</v>
       </c>
       <c r="BW5">
-        <v>0.01456816749072804</v>
+        <v>0.01350950291429955</v>
       </c>
       <c r="BX5">
-        <v>0.01458761638852836</v>
+        <v>0.01351162963200926</v>
       </c>
       <c r="BY5">
-        <v>0.01459619728244026</v>
+        <v>0.01351162963200926</v>
       </c>
       <c r="BZ5">
-        <v>0.01465454925184116</v>
+        <v>0.01355278475696717</v>
       </c>
       <c r="CA5">
-        <v>0.01471954387117386</v>
+        <v>0.01360060393275911</v>
       </c>
       <c r="CB5">
-        <v>0.01472124377845641</v>
+        <v>0.01360060393275911</v>
       </c>
       <c r="CC5">
-        <v>0.01472167681323196</v>
+        <v>0.01360060393275911</v>
       </c>
       <c r="CD5">
-        <v>0.01502999246006647</v>
+        <v>0.01389252805355109</v>
       </c>
       <c r="CE5">
-        <v>0.01534895518679167</v>
+        <v>0.01419513355637492</v>
       </c>
       <c r="CF5">
-        <v>0.01544280160582814</v>
+        <v>0.01427189748491655</v>
       </c>
       <c r="CG5">
-        <v>0.01579104014225276</v>
+        <v>0.01460387311653641</v>
       </c>
       <c r="CH5">
-        <v>0.01610445960903487</v>
+        <v>0.01490091750046549</v>
       </c>
       <c r="CI5">
-        <v>0.0161808660282504</v>
+        <v>0.01496018524201169</v>
       </c>
       <c r="CJ5">
-        <v>0.01622240674782391</v>
+        <v>0.01498447495563779</v>
       </c>
       <c r="CK5">
-        <v>0.01649351896504039</v>
+        <v>0.01523907578697155</v>
       </c>
       <c r="CL5">
-        <v>0.01685087084137144</v>
+        <v>0.01558019411932494</v>
       </c>
       <c r="CM5">
-        <v>0.02207343278775119</v>
+        <v>0.02080219697183798</v>
       </c>
       <c r="CN5">
-        <v>0.1371577916061755</v>
+        <v>0.1362399430274638</v>
       </c>
       <c r="CO5">
-        <v>0.1899553730641006</v>
+        <v>0.1891902398152623</v>
       </c>
       <c r="CP5">
-        <v>0.206363370895639</v>
+        <v>0.2056337151380407</v>
       </c>
       <c r="CQ5">
-        <v>0.2068914973902167</v>
+        <v>0.2061461582803479</v>
       </c>
       <c r="CR5">
-        <v>0.2373607320773879</v>
+        <v>0.236696172131743</v>
       </c>
       <c r="CS5">
-        <v>0.2431332565181211</v>
+        <v>0.2424699093157053</v>
       </c>
       <c r="CT5">
-        <v>0.2494152804536233</v>
+        <v>0.2487547874701997</v>
       </c>
       <c r="CU5">
-        <v>0.2583583813618042</v>
+        <v>0.2577093158999945</v>
       </c>
       <c r="CV5">
-        <v>0.2590435830247692</v>
+        <v>0.2583793402663074</v>
       </c>
       <c r="CW5">
-        <v>0.2634658419793656</v>
+        <v>0.2627984617575243</v>
       </c>
       <c r="CX5">
-        <v>0.2862479977454603</v>
+        <v>0.2856366309052123</v>
       </c>
       <c r="CY5">
-        <v>0.3162479244374499</v>
+        <v>0.3157158247722925</v>
       </c>
       <c r="CZ5">
-        <v>0.3192679194064434</v>
+        <v>0.3187281645455644</v>
       </c>
       <c r="DA5">
-        <v>0.3731557788531746</v>
+        <v>0.3727722519162187</v>
       </c>
       <c r="DB5">
-        <v>0.38106113677201</v>
+        <v>0.3806856940168162</v>
       </c>
       <c r="DC5">
-        <v>0.4061825405140876</v>
+        <v>0.4058706475932135</v>
       </c>
       <c r="DD5">
-        <v>0.4639473349210141</v>
+        <v>0.4638041604070519</v>
       </c>
       <c r="DE5">
-        <v>0.4771955177849945</v>
+        <v>0.4770776406546601</v>
       </c>
       <c r="DF5">
-        <v>0.4775288724115719</v>
+        <v>0.4773946844243199</v>
       </c>
       <c r="DG5">
-        <v>0.4848346988365627</v>
+        <v>0.484706663495465</v>
       </c>
       <c r="DH5">
-        <v>0.491296616170218</v>
+        <v>0.4911720146181728</v>
       </c>
       <c r="DI5">
-        <v>0.4943669906386943</v>
+        <v>0.4942348962006612</v>
       </c>
       <c r="DJ5">
-        <v>0.494682301235457</v>
+        <v>0.4945338378073032</v>
       </c>
       <c r="DK5">
-        <v>0.4970986322106485</v>
+        <v>0.4969405687373176</v>
       </c>
       <c r="DL5">
-        <v>0.4984931616963308</v>
+        <v>0.4983222061973658</v>
       </c>
       <c r="DM5">
-        <v>0.5003068434777096</v>
+        <v>0.5001243463535358</v>
       </c>
       <c r="DN5">
-        <v>0.5031880048481286</v>
+        <v>0.5029974052422406</v>
       </c>
       <c r="DO5">
-        <v>0.5033609273063533</v>
+        <v>0.5031534999725424</v>
       </c>
       <c r="DP5">
-        <v>0.5040887386588808</v>
+        <v>0.5038662713058311</v>
       </c>
       <c r="DQ5">
-        <v>0.5043255248864498</v>
+        <v>0.5040864355580453</v>
       </c>
       <c r="DR5">
-        <v>0.5065897628632028</v>
+        <v>0.5063405834852676</v>
       </c>
       <c r="DS5">
-        <v>0.519503788730614</v>
+        <v>0.5192788301687798</v>
       </c>
       <c r="DT5">
-        <v>0.5315180356072632</v>
+        <v>0.5313143990060443</v>
       </c>
       <c r="DU5">
-        <v>0.5375970005448502</v>
+        <v>0.5373955639589844</v>
       </c>
       <c r="DV5">
-        <v>0.5381829166388346</v>
+        <v>0.5379659828838598</v>
       </c>
       <c r="DW5">
-        <v>0.5386533510640046</v>
+        <v>0.5384205480878141</v>
       </c>
       <c r="DX5">
-        <v>0.5400862164492933</v>
+        <v>0.5398406449558346</v>
       </c>
       <c r="DY5">
-        <v>0.5401031042921199</v>
+        <v>0.5398406449558346</v>
       </c>
       <c r="DZ5">
-        <v>0.5407941471450249</v>
+        <v>0.5405165293308927</v>
       </c>
       <c r="EA5">
-        <v>0.5420038180326052</v>
+        <v>0.5417127126261866</v>
       </c>
       <c r="EB5">
-        <v>0.5514421289357017</v>
+        <v>0.5511640464895827</v>
       </c>
       <c r="EC5">
-        <v>0.5521184937987574</v>
+        <v>0.5518252055860996</v>
       </c>
       <c r="ED5">
-        <v>0.5538146573813428</v>
+        <v>0.5535094489301958</v>
       </c>
       <c r="EE5">
-        <v>0.553814740501502</v>
+        <v>0.5535094489301958</v>
       </c>
       <c r="EF5">
-        <v>0.5542380216971562</v>
+        <v>0.5539167089891089</v>
       </c>
       <c r="EG5">
-        <v>0.5558364007807456</v>
+        <v>0.5555028527978121</v>
       </c>
       <c r="EH5">
-        <v>0.5585269455531217</v>
+        <v>0.5581846809710334</v>
       </c>
       <c r="EI5">
-        <v>0.5642552130943093</v>
+        <v>0.5639140186711518</v>
       </c>
       <c r="EJ5">
-        <v>0.5678189940577197</v>
+        <v>0.5674718963768489</v>
       </c>
       <c r="EK5">
-        <v>0.5744285232898594</v>
+        <v>0.5740853349654484</v>
       </c>
       <c r="EL5">
-        <v>0.6134614888891063</v>
+        <v>0.6132266698578167</v>
       </c>
       <c r="EM5">
-        <v>0.6604424354067511</v>
+        <v>0.660341592010055</v>
       </c>
       <c r="EN5">
-        <v>0.6849263491553738</v>
+        <v>0.6848870017649088</v>
       </c>
       <c r="EO5">
-        <v>0.6979753740213989</v>
+        <v>0.6979606823789369</v>
       </c>
       <c r="EP5">
-        <v>0.7037885729617145</v>
+        <v>0.7037752251052126</v>
       </c>
       <c r="EQ5">
-        <v>0.7085798449125223</v>
+        <v>0.7085645484571947</v>
       </c>
       <c r="ER5">
-        <v>0.7115890931816263</v>
+        <v>0.7115661069074859</v>
       </c>
       <c r="ES5">
-        <v>0.712672885870499</v>
+        <v>0.7126360064570316</v>
       </c>
       <c r="ET5">
-        <v>0.7214441457804441</v>
+        <v>0.7214181402612828</v>
       </c>
       <c r="EU5">
-        <v>0.7276838837163805</v>
+        <v>0.7276605961816436</v>
       </c>
       <c r="EV5">
-        <v>0.7297981144946736</v>
+        <v>0.7297642536259609</v>
       </c>
       <c r="EW5">
-        <v>0.7454026893344607</v>
+        <v>0.7454017175356412</v>
       </c>
       <c r="EX5">
-        <v>0.7714105760674367</v>
+        <v>0.7714760101221457</v>
       </c>
       <c r="EY5">
-        <v>0.7938845728366952</v>
+        <v>0.7940050274643105</v>
       </c>
       <c r="EZ5">
-        <v>0.8058988197133444</v>
+        <v>0.8060405963015749</v>
       </c>
       <c r="FA5">
-        <v>0.8059799688975112</v>
+        <v>0.8061046220880359</v>
       </c>
       <c r="FB5">
-        <v>0.8150863968040152</v>
+        <v>0.8152230037135534</v>
       </c>
       <c r="FC5">
-        <v>0.8237977227145756</v>
+        <v>0.8239450104265554</v>
       </c>
       <c r="FD5">
-        <v>0.8315380619351053</v>
+        <v>0.8316929021812274</v>
       </c>
       <c r="FE5">
-        <v>0.8335814409141258</v>
+        <v>0.8337254795600767</v>
       </c>
       <c r="FF5">
-        <v>0.8341053745087466</v>
+        <v>0.8342337162939863</v>
       </c>
       <c r="FG5">
-        <v>0.8352343450971553</v>
+        <v>0.8353489392945906</v>
       </c>
       <c r="FH5">
-        <v>0.8475506734707031</v>
+        <v>0.8476875628573058</v>
       </c>
       <c r="FI5">
-        <v>0.8577725743657545</v>
+        <v>0.8579250112372014</v>
       </c>
       <c r="FJ5">
-        <v>0.8585008604082771</v>
+        <v>0.8586382587898137</v>
       </c>
       <c r="FK5">
-        <v>0.8608175396844917</v>
+        <v>0.8609450169688182</v>
       </c>
       <c r="FL5">
-        <v>0.8640178399516341</v>
+        <v>0.8641382429373348</v>
       </c>
       <c r="FM5">
-        <v>0.8647432504441862</v>
+        <v>0.8648486056756973</v>
       </c>
       <c r="FN5">
-        <v>0.8648096510335045</v>
+        <v>0.8648978353511469</v>
       </c>
       <c r="FO5">
-        <v>0.865999431021289</v>
+        <v>0.866074063663304</v>
       </c>
       <c r="FP5">
-        <v>0.8710089169698564</v>
+        <v>0.8710823040421795</v>
       </c>
       <c r="FQ5">
-        <v>0.8727391815520917</v>
+        <v>0.8728007582505378</v>
       </c>
       <c r="FR5">
-        <v>0.8772196925060901</v>
+        <v>0.8772783194140517</v>
       </c>
       <c r="FS5">
-        <v>0.8857408634186029</v>
+        <v>0.8858095584987213</v>
       </c>
       <c r="FT5">
-        <v>0.8878995670964395</v>
+        <v>0.8879578321227766</v>
       </c>
       <c r="FU5">
-        <v>0.8902820855719781</v>
+        <v>0.8903306416179984</v>
       </c>
       <c r="FV5">
-        <v>0.8902942214648535</v>
+        <v>0.8903306416179984</v>
       </c>
       <c r="FW5">
-        <v>0.8928795542383098</v>
+        <v>0.8929069188264167</v>
       </c>
       <c r="FX5">
-        <v>0.8996709681685821</v>
+        <v>0.8997028280986634</v>
       </c>
       <c r="FY5">
-        <v>0.8999059725861692</v>
+        <v>0.8999212048003645</v>
       </c>
       <c r="FZ5">
-        <v>0.9023751289608183</v>
+        <v>0.9023809313196283</v>
       </c>
       <c r="GA5">
-        <v>0.9064921919185482</v>
+        <v>0.9064938735513121</v>
       </c>
       <c r="GB5">
-        <v>0.9131943688497367</v>
+        <v>0.9132002583259148</v>
       </c>
       <c r="GC5">
-        <v>0.914834150732901</v>
+        <v>0.9148279383233183</v>
       </c>
       <c r="GD5">
-        <v>0.9158312054226642</v>
+        <v>0.9158108204263268</v>
       </c>
       <c r="GE5">
-        <v>0.9162600987582606</v>
+        <v>0.9162237107060475</v>
       </c>
       <c r="GF5">
-        <v>0.9168464407522406</v>
+        <v>0.9167945569030583</v>
       </c>
       <c r="GG5">
-        <v>0.9208736863108927</v>
+        <v>0.9208173923672052</v>
       </c>
       <c r="GH5">
-        <v>0.936822272147148</v>
+        <v>0.9367999755879225</v>
       </c>
       <c r="GI5">
-        <v>0.9613926308948831</v>
+        <v>0.9614321088453462</v>
       </c>
       <c r="GJ5">
-        <v>0.9799421587044344</v>
+        <v>0.980024013602547</v>
       </c>
       <c r="GK5">
-        <v>0.9903881525971849</v>
+        <v>0.9904862769498949</v>
       </c>
       <c r="GL5">
-        <v>0.9960945322385973</v>
+        <v>0.9961936562330788</v>
       </c>
       <c r="GM5">
-        <v>0.9983439607155024</v>
+        <v>0.9984329469480699</v>
       </c>
       <c r="GN5">
-        <v>0.9985626055432575</v>
+        <v>0.9986349113535664</v>
       </c>
       <c r="GO5">
-        <v>0.9985929912239455</v>
+        <v>0.9986480100896532</v>
       </c>
       <c r="GP5">
-        <v>0.9986003648343698</v>
+        <v>0.9986480100896532</v>
       </c>
       <c r="GQ5">
-        <v>0.9993370880768058</v>
+        <v>0.9993697220246576</v>
       </c>
       <c r="GR5">
-        <v>0.9994306736658449</v>
+        <v>0.999446224282875</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>9.904919930533083E-05</v>
+        <v>9.246846012617265E-05</v>
       </c>
       <c r="C6">
-        <v>0.0001307267830831641</v>
+        <v>0.0001174793375340938</v>
       </c>
       <c r="D6">
-        <v>0.0001827104527185831</v>
+        <v>0.0001628222116693745</v>
       </c>
       <c r="E6">
-        <v>0.0002886187619758084</v>
+        <v>0.0002621585340745013</v>
       </c>
       <c r="F6">
-        <v>0.0006076223597385167</v>
+        <v>0.0005748620577657722</v>
       </c>
       <c r="G6">
-        <v>0.001062683596547002</v>
+        <v>0.001023796832088616</v>
       </c>
       <c r="H6">
-        <v>0.001355818494491137</v>
+        <v>0.001310598647112788</v>
       </c>
       <c r="I6">
-        <v>0.002186973888661932</v>
+        <v>0.002136107480577265</v>
       </c>
       <c r="J6">
-        <v>0.003148417351918969</v>
+        <v>0.003092070632656071</v>
       </c>
       <c r="K6">
-        <v>0.003975432486118802</v>
+        <v>0.003913433923115834</v>
       </c>
       <c r="L6">
-        <v>0.004506613682393429</v>
+        <v>0.004438585787113505</v>
       </c>
       <c r="M6">
-        <v>0.004766295780572181</v>
+        <v>0.004691892116098614</v>
       </c>
       <c r="N6">
-        <v>0.004885716064734642</v>
+        <v>0.004804757654891387</v>
       </c>
       <c r="O6">
-        <v>0.004943949267326231</v>
+        <v>0.004856358036480518</v>
       </c>
       <c r="P6">
-        <v>0.004944101630665163</v>
+        <v>0.004856358036480518</v>
       </c>
       <c r="Q6">
-        <v>0.004950800210618183</v>
+        <v>0.004856358036480518</v>
       </c>
       <c r="R6">
-        <v>0.004959855854554672</v>
+        <v>0.004858718108112943</v>
       </c>
       <c r="S6">
-        <v>0.004959938585924092</v>
+        <v>0.004858718108112943</v>
       </c>
       <c r="T6">
-        <v>0.004987591908730149</v>
+        <v>0.004879699589531797</v>
       </c>
       <c r="U6">
-        <v>0.005083799688055408</v>
+        <v>0.004969323003983434</v>
       </c>
       <c r="V6">
-        <v>0.005376235116004448</v>
+        <v>0.005255424456478319</v>
       </c>
       <c r="W6">
-        <v>0.005998615171639464</v>
+        <v>0.005871891550947235</v>
       </c>
       <c r="X6">
-        <v>0.006678106366873937</v>
+        <v>0.00654554265968536</v>
       </c>
       <c r="Y6">
-        <v>0.007542157960814019</v>
+        <v>0.007403989668962869</v>
       </c>
       <c r="Z6">
-        <v>0.008563098053653784</v>
+        <v>0.008419525369215112</v>
       </c>
       <c r="AA6">
-        <v>0.009553423146708264</v>
+        <v>0.009404407004483679</v>
       </c>
       <c r="AB6">
-        <v>0.01117190243535726</v>
+        <v>0.01101824436951116</v>
       </c>
       <c r="AC6">
-        <v>0.01224333372784291</v>
+        <v>0.01208433569693648</v>
       </c>
       <c r="AD6">
-        <v>0.01278785818402396</v>
+        <v>0.01262284784704011</v>
       </c>
       <c r="AE6">
-        <v>0.01302552207235713</v>
+        <v>0.01285410787061401</v>
       </c>
       <c r="AF6">
-        <v>0.01302691701634735</v>
+        <v>0.01285410787061401</v>
       </c>
       <c r="AG6">
-        <v>0.01306401078608719</v>
+        <v>0.01288454184511838</v>
       </c>
       <c r="AH6">
-        <v>0.01311108090875707</v>
+        <v>0.01292496490252858</v>
       </c>
       <c r="AI6">
-        <v>0.01313508175358875</v>
+        <v>0.01294228924535643</v>
       </c>
       <c r="AJ6">
-        <v>0.01322769507293921</v>
+        <v>0.0130283136132485</v>
       </c>
       <c r="AK6">
-        <v>0.01356568405056877</v>
+        <v>0.01336002674243576</v>
       </c>
       <c r="AL6">
-        <v>0.01387485869840041</v>
+        <v>0.0136628887743086</v>
       </c>
       <c r="AM6">
-        <v>0.01421549632601139</v>
+        <v>0.01399725393319434</v>
       </c>
       <c r="AN6">
-        <v>0.01440293359469683</v>
+        <v>0.01417822324720135</v>
       </c>
       <c r="AO6">
-        <v>0.01452302825385456</v>
+        <v>0.01429176402150199</v>
       </c>
       <c r="AP6">
-        <v>0.01472508248243748</v>
+        <v>0.0144873689468663</v>
       </c>
       <c r="AQ6">
-        <v>0.01498245263063244</v>
+        <v>0.01473836037578481</v>
       </c>
       <c r="AR6">
-        <v>0.01533340340817109</v>
+        <v>0.01508305184433203</v>
       </c>
       <c r="AS6">
-        <v>0.01571541294549192</v>
+        <v>0.01545884170410423</v>
       </c>
       <c r="AT6">
-        <v>0.01607449134297356</v>
+        <v>0.01581167116355928</v>
       </c>
       <c r="AU6">
-        <v>0.01648595446008782</v>
+        <v>0.01621695218633399</v>
       </c>
       <c r="AV6">
-        <v>0.01672679243839873</v>
+        <v>0.01645139035007199</v>
       </c>
       <c r="AW6">
-        <v>0.01677877610803415</v>
+        <v>0.01649673322420727</v>
       </c>
       <c r="AX6">
-        <v>0.01678891373496305</v>
+        <v>0.01650017665945861</v>
       </c>
       <c r="AY6">
-        <v>0.01682117319173681</v>
+        <v>0.01652577015234111</v>
       </c>
       <c r="AZ6">
-        <v>0.01709835684979281</v>
+        <v>0.01679660037345608</v>
       </c>
       <c r="BA6">
-        <v>0.01803198574324492</v>
+        <v>0.01772471346392218</v>
       </c>
       <c r="BB6">
-        <v>0.01919891533506081</v>
+        <v>0.01888642494793841</v>
       </c>
       <c r="BC6">
-        <v>0.02020872812797861</v>
+        <v>0.01989081914966729</v>
       </c>
       <c r="BD6">
-        <v>0.02188052811625365</v>
+        <v>0.02155804525233236</v>
       </c>
       <c r="BE6">
-        <v>0.02357254620438689</v>
+        <v>0.02324551525345396</v>
       </c>
       <c r="BF6">
-        <v>0.02430219185926961</v>
+        <v>0.02396938481968224</v>
       </c>
       <c r="BG6">
-        <v>0.02451370066778623</v>
+        <v>0.02417445638916588</v>
       </c>
       <c r="BH6">
-        <v>0.0245236430357165</v>
+        <v>0.02417770431626519</v>
       </c>
       <c r="BI6">
-        <v>0.02452364682691587</v>
+        <v>0.02417770431626519</v>
       </c>
       <c r="BJ6">
-        <v>0.02454077928979571</v>
+        <v>0.02418815151298294</v>
       </c>
       <c r="BK6">
-        <v>0.02458603653947831</v>
+        <v>0.02422675938415277</v>
       </c>
       <c r="BL6">
-        <v>0.02459350065842596</v>
+        <v>0.02422752589998662</v>
       </c>
       <c r="BM6">
-        <v>0.02461591934626873</v>
+        <v>0.02424326606696955</v>
       </c>
       <c r="BN6">
-        <v>0.02462378147521359</v>
+        <v>0.02424443110066734</v>
       </c>
       <c r="BO6">
-        <v>0.02462380522562842</v>
+        <v>0.02424443110066734</v>
       </c>
       <c r="BP6">
-        <v>0.02463160928857369</v>
+        <v>0.02424553799427245</v>
       </c>
       <c r="BQ6">
-        <v>0.0247318868338704</v>
+        <v>0.02433923636777789</v>
       </c>
       <c r="BR6">
-        <v>0.02476484892663923</v>
+        <v>0.02436553339322952</v>
       </c>
       <c r="BS6">
-        <v>0.02494011642541001</v>
+        <v>0.02453431740851314</v>
       </c>
       <c r="BT6">
-        <v>0.02520411959355846</v>
+        <v>0.02479195032121797</v>
       </c>
       <c r="BU6">
-        <v>0.02571606772996798</v>
+        <v>0.02529784458367799</v>
       </c>
       <c r="BV6">
-        <v>0.02652896622426681</v>
+        <v>0.02610507322119276</v>
       </c>
       <c r="BW6">
-        <v>0.02725638875916513</v>
+        <v>0.02682671683070223</v>
       </c>
       <c r="BX6">
-        <v>0.027611585256674</v>
+        <v>0.02717565943682197</v>
       </c>
       <c r="BY6">
-        <v>0.02780298038533167</v>
+        <v>0.02736059166108984</v>
       </c>
       <c r="BZ6">
-        <v>0.02782598544517033</v>
+        <v>0.0273769189482881</v>
       </c>
       <c r="CA6">
-        <v>0.02782644501619711</v>
+        <v>0.0273769189482881</v>
       </c>
       <c r="CB6">
-        <v>0.02789311626572952</v>
+        <v>0.02743696814389237</v>
       </c>
       <c r="CC6">
-        <v>0.02823299986334579</v>
+        <v>0.02777057831062983</v>
       </c>
       <c r="CD6">
-        <v>0.02871248517998298</v>
+        <v>0.02824396833027316</v>
       </c>
       <c r="CE6">
-        <v>0.02921841357643471</v>
+        <v>0.02874383517149703</v>
       </c>
       <c r="CF6">
-        <v>0.02965311705338597</v>
+        <v>0.02917238620915608</v>
       </c>
       <c r="CG6">
-        <v>0.03013756290998837</v>
+        <v>0.02965074309848793</v>
       </c>
       <c r="CH6">
-        <v>0.03053090070722975</v>
+        <v>0.03003787567321005</v>
       </c>
       <c r="CI6">
-        <v>0.0307064429659986</v>
+        <v>0.03020693479908962</v>
       </c>
       <c r="CJ6">
-        <v>0.03079592233537105</v>
+        <v>0.03028982121803655</v>
       </c>
       <c r="CK6">
-        <v>0.03084117958505365</v>
+        <v>0.03032842908920637</v>
       </c>
       <c r="CL6">
-        <v>0.03084391408343447</v>
+        <v>0.03032842908920637</v>
       </c>
       <c r="CM6">
-        <v>0.03085610802034895</v>
+        <v>0.03033393145832564</v>
       </c>
       <c r="CN6">
-        <v>0.1425374122370861</v>
+        <v>0.142151035564977</v>
       </c>
       <c r="CO6">
-        <v>0.1503719321821397</v>
+        <v>0.1499888453474134</v>
       </c>
       <c r="CP6">
-        <v>0.2275913056405713</v>
+        <v>0.2273000447558135</v>
       </c>
       <c r="CQ6">
-        <v>0.228404795584866</v>
+        <v>0.2281078655980232</v>
       </c>
       <c r="CR6">
-        <v>0.2565176893876997</v>
+        <v>0.2562499247470867</v>
       </c>
       <c r="CS6">
-        <v>0.2720797042785574</v>
+        <v>0.2718250898746491</v>
       </c>
       <c r="CT6">
-        <v>0.2727426926139077</v>
+        <v>0.2724822170656065</v>
       </c>
       <c r="CU6">
-        <v>0.2953177004555806</v>
+        <v>0.2950793238280559</v>
       </c>
       <c r="CV6">
-        <v>0.2959263210913122</v>
+        <v>0.2956820139453954</v>
       </c>
       <c r="CW6">
-        <v>0.2998553474637564</v>
+        <v>0.299609346686913</v>
       </c>
       <c r="CX6">
-        <v>0.3163561423480302</v>
+        <v>0.3161244897052275</v>
       </c>
       <c r="CY6">
-        <v>0.3426432521636688</v>
+        <v>0.3424384351393749</v>
       </c>
       <c r="CZ6">
-        <v>0.37661247192543</v>
+        <v>0.376444293007027</v>
       </c>
       <c r="DA6">
-        <v>0.4057821397208521</v>
+        <v>0.4056444746081258</v>
       </c>
       <c r="DB6">
-        <v>0.4149273136567136</v>
+        <v>0.4147946107954982</v>
       </c>
       <c r="DC6">
-        <v>0.476108776227625</v>
+        <v>0.4760474347018107</v>
       </c>
       <c r="DD6">
-        <v>0.4982140730725923</v>
+        <v>0.4981742311092855</v>
       </c>
       <c r="DE6">
-        <v>0.5253945748819653</v>
+        <v>0.5253827085187357</v>
       </c>
       <c r="DF6">
-        <v>0.525639574820247</v>
+        <v>0.5256213139531678</v>
       </c>
       <c r="DG6">
-        <v>0.5258709474286243</v>
+        <v>0.5258462746690183</v>
       </c>
       <c r="DH6">
-        <v>0.5340324443713846</v>
+        <v>0.5340114786767093</v>
       </c>
       <c r="DI6">
-        <v>0.5362791253556278</v>
+        <v>0.5362543193321061</v>
       </c>
       <c r="DJ6">
-        <v>0.5403458198271066</v>
+        <v>0.540319495839215</v>
       </c>
       <c r="DK6">
-        <v>0.540462118126291</v>
+        <v>0.5404292354093301</v>
       </c>
       <c r="DL6">
-        <v>0.5411583096814083</v>
+        <v>0.5411196081878605</v>
       </c>
       <c r="DM6">
-        <v>0.5416257273481302</v>
+        <v>0.5415809151590865</v>
       </c>
       <c r="DN6">
-        <v>0.5471444226094255</v>
+        <v>0.5470999452307732</v>
       </c>
       <c r="DO6">
-        <v>0.5499259326899177</v>
+        <v>0.5498782974323585</v>
       </c>
       <c r="DP6">
-        <v>0.5509027294830671</v>
+        <v>0.5508496335054086</v>
       </c>
       <c r="DQ6">
-        <v>0.5531241764674872</v>
+        <v>0.5530672079620206</v>
       </c>
       <c r="DR6">
-        <v>0.5532483595466163</v>
+        <v>0.5531848423731777</v>
       </c>
       <c r="DS6">
-        <v>0.5558718337282169</v>
+        <v>0.5558049570196967</v>
       </c>
       <c r="DT6">
-        <v>0.5627962449796534</v>
+        <v>0.5627314967961881</v>
       </c>
       <c r="DU6">
-        <v>0.571133094421184</v>
+        <v>0.5710722770550647</v>
       </c>
       <c r="DV6">
-        <v>0.5712073498106632</v>
+        <v>0.571139920068092</v>
       </c>
       <c r="DW6">
-        <v>0.5741192725902409</v>
+        <v>0.5740488513773204</v>
       </c>
       <c r="DX6">
-        <v>0.5741354825581272</v>
+        <v>0.5740583749019272</v>
       </c>
       <c r="DY6">
-        <v>0.5741363370978212</v>
+        <v>0.5740583749019272</v>
       </c>
       <c r="DZ6">
-        <v>0.5744800182654108</v>
+        <v>0.5743957874843942</v>
       </c>
       <c r="EA6">
-        <v>0.5757254114566764</v>
+        <v>0.5756360626885886</v>
       </c>
       <c r="EB6">
-        <v>0.5815268777159885</v>
+        <v>0.5814382245783219</v>
       </c>
       <c r="EC6">
-        <v>0.5838809391994786</v>
+        <v>0.5837885827520914</v>
       </c>
       <c r="ED6">
-        <v>0.5843470255162098</v>
+        <v>0.5842485566745041</v>
       </c>
       <c r="EE6">
-        <v>0.5854110735087472</v>
+        <v>0.5853072552807799</v>
       </c>
       <c r="EF6">
-        <v>0.5855612065076943</v>
+        <v>0.5854508727242415</v>
       </c>
       <c r="EG6">
-        <v>0.586326789902325</v>
+        <v>0.586210725887312</v>
       </c>
       <c r="EH6">
-        <v>0.5910141563694508</v>
+        <v>0.5908973663768331</v>
       </c>
       <c r="EI6">
-        <v>0.6039971502783962</v>
+        <v>0.6038902196530721</v>
       </c>
       <c r="EJ6">
-        <v>0.621161509158016</v>
+        <v>0.6210697733843322</v>
       </c>
       <c r="EK6">
-        <v>0.6216799848543798</v>
+        <v>0.6215822035360108</v>
       </c>
       <c r="EL6">
-        <v>0.6326355037775446</v>
+        <v>0.6325449947380124</v>
       </c>
       <c r="EM6">
-        <v>0.6719446665018547</v>
+        <v>0.6718976094154352</v>
       </c>
       <c r="EN6">
-        <v>0.7031737342828336</v>
+        <v>0.7031598188273255</v>
       </c>
       <c r="EO6">
-        <v>0.7175103731822854</v>
+        <v>0.7175080443653586</v>
       </c>
       <c r="EP6">
-        <v>0.7251659281285942</v>
+        <v>0.7251666607870306</v>
       </c>
       <c r="EQ6">
-        <v>0.7276976421108383</v>
+        <v>0.7276948981468041</v>
       </c>
       <c r="ER6">
-        <v>0.7323864290779541</v>
+        <v>0.7323829609488945</v>
       </c>
       <c r="ES6">
-        <v>0.7328659143945914</v>
+        <v>0.7328563509685379</v>
       </c>
       <c r="ET6">
-        <v>0.7370540160652186</v>
+        <v>0.7370430895922003</v>
       </c>
       <c r="EU6">
-        <v>0.745951398002818</v>
+        <v>0.7459451175950085</v>
       </c>
       <c r="EV6">
-        <v>0.7467468214972394</v>
+        <v>0.7467348489342841</v>
       </c>
       <c r="EW6">
-        <v>0.7526725480556801</v>
+        <v>0.7526614296811494</v>
       </c>
       <c r="EX6">
-        <v>0.7795625538670904</v>
+        <v>0.7795790404153914</v>
       </c>
       <c r="EY6">
-        <v>0.802540566705937</v>
+        <v>0.8025796664154284</v>
       </c>
       <c r="EZ6">
-        <v>0.8184867085941007</v>
+        <v>0.8185394486921003</v>
       </c>
       <c r="FA6">
-        <v>0.819615357086185</v>
+        <v>0.8196628302291282</v>
       </c>
       <c r="FB6">
-        <v>0.8298645300143037</v>
+        <v>0.8299183741280117</v>
       </c>
       <c r="FC6">
-        <v>0.8452859269061477</v>
+        <v>0.8453527418258869</v>
       </c>
       <c r="FD6">
-        <v>0.8606029147987239</v>
+        <v>0.8606825672970471</v>
       </c>
       <c r="FE6">
-        <v>0.8721908147174535</v>
+        <v>0.872278546422238</v>
       </c>
       <c r="FF6">
-        <v>0.873000208711777</v>
+        <v>0.8730822660879829</v>
       </c>
       <c r="FG6">
-        <v>0.8730017023874665</v>
+        <v>0.8730822660879829</v>
       </c>
       <c r="FH6">
-        <v>0.8755790870693904</v>
+        <v>0.8756562324239331</v>
       </c>
       <c r="FI6">
-        <v>0.8871271979883991</v>
+        <v>0.8872123717780434</v>
       </c>
       <c r="FJ6">
-        <v>0.8920913665535836</v>
+        <v>0.8921761675692472</v>
       </c>
       <c r="FK6">
-        <v>0.8920915109262025</v>
+        <v>0.8921761675692472</v>
       </c>
       <c r="FL6">
-        <v>0.8937465554145951</v>
+        <v>0.8938266167917609</v>
       </c>
       <c r="FM6">
-        <v>0.8942782148108664</v>
+        <v>0.8943522474659455</v>
       </c>
       <c r="FN6">
-        <v>0.8945654014088523</v>
+        <v>0.8946330933908916</v>
       </c>
       <c r="FO6">
-        <v>0.8950708634053073</v>
+        <v>0.8951324932369854</v>
       </c>
       <c r="FP6">
-        <v>0.8981048615840287</v>
+        <v>0.8981636557153959</v>
       </c>
       <c r="FQ6">
-        <v>0.9004769063673926</v>
+        <v>0.9005320201359993</v>
       </c>
       <c r="FR6">
-        <v>0.9006524486261615</v>
+        <v>0.9007010792618789</v>
       </c>
       <c r="FS6">
-        <v>0.9065151092850444</v>
+        <v>0.9065645136361538</v>
       </c>
       <c r="FT6">
-        <v>0.908558270270715</v>
+        <v>0.9086035745984107</v>
       </c>
       <c r="FU6">
-        <v>0.9089972670876362</v>
+        <v>0.9090364244544057</v>
       </c>
       <c r="FV6">
-        <v>0.9091626196864765</v>
+        <v>0.909195280918198</v>
       </c>
       <c r="FW6">
-        <v>0.9113666643710187</v>
+        <v>0.9113954308693366</v>
       </c>
       <c r="FX6">
-        <v>0.9213534143009778</v>
+        <v>0.9213882169143834</v>
       </c>
       <c r="FY6">
-        <v>0.9259025855690728</v>
+        <v>0.9259364858657294</v>
       </c>
       <c r="FZ6">
-        <v>0.9259187121139597</v>
+        <v>0.9259459258608878</v>
       </c>
       <c r="GA6">
-        <v>0.9279488949997212</v>
+        <v>0.9279719921629858</v>
       </c>
       <c r="GB6">
-        <v>0.9363835769405656</v>
+        <v>0.9364107297569111</v>
       </c>
       <c r="GC6">
-        <v>0.9434333468911229</v>
+        <v>0.9434627881921014</v>
       </c>
       <c r="GD6">
-        <v>0.9463497052706694</v>
+        <v>0.9463761607611908</v>
       </c>
       <c r="GE6">
-        <v>0.9491453167510627</v>
+        <v>0.9491686323562747</v>
       </c>
       <c r="GF6">
-        <v>0.9509463451384315</v>
+        <v>0.9509652517554067</v>
       </c>
       <c r="GG6">
-        <v>0.9510100298779848</v>
+        <v>0.9510223106302004</v>
       </c>
       <c r="GH6">
-        <v>0.9536125036597326</v>
+        <v>0.9536213980800419</v>
       </c>
       <c r="GI6">
-        <v>0.9651826995785865</v>
+        <v>0.965199650614788</v>
       </c>
       <c r="GJ6">
-        <v>0.979167329480507</v>
+        <v>0.9791954179865354</v>
       </c>
       <c r="GK6">
-        <v>0.9897498014062882</v>
+        <v>0.9897846861775959</v>
       </c>
       <c r="GL6">
-        <v>0.9945332873727398</v>
+        <v>0.994567568816364</v>
       </c>
       <c r="GM6">
-        <v>0.9982627648465836</v>
+        <v>0.9982950980318969</v>
       </c>
       <c r="GN6">
-        <v>0.9982637778401765</v>
+        <v>0.9982950980318969</v>
       </c>
       <c r="GO6">
-        <v>0.9984363391389662</v>
+        <v>0.9984611723940477</v>
       </c>
       <c r="GP6">
-        <v>0.9988349867561703</v>
+        <v>0.9988536215641425</v>
       </c>
       <c r="GQ6">
-        <v>0.9996437907504979</v>
+        <v>0.9996567504770426</v>
       </c>
       <c r="GR6">
-        <v>0.9999727770681907</v>
+        <v>0.999979449458764</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>132</v>
       </c>
       <c r="E2">
-        <v>0.02601518943497679</v>
+        <v>0.02558358380939795</v>
       </c>
       <c r="F2">
-        <v>0.5028377186209199</v>
+        <v>0.5025598969256369</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>139</v>
       </c>
       <c r="E3">
-        <v>0.01101021647796185</v>
+        <v>0.03589780239927728</v>
       </c>
       <c r="F3">
-        <v>0.5098417283118124</v>
+        <v>0.5096056310093876</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>122</v>
       </c>
       <c r="E4">
-        <v>0.05151036632781263</v>
+        <v>0.05153579767070596</v>
       </c>
       <c r="F4">
-        <v>0.50655665912626</v>
+        <v>0.506548269192801</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>116</v>
       </c>
       <c r="E5">
-        <v>0.01622240674782391</v>
+        <v>0.01558019411932494</v>
       </c>
       <c r="F5">
-        <v>0.5003068434777096</v>
+        <v>0.5001243463535358</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.03079592233537105</v>
+        <v>0.03032842908920637</v>
       </c>
       <c r="F6">
-        <v>0.5253945748819653</v>
+        <v>0.5253827085187357</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>149</v>
       </c>
       <c r="E2">
-        <v>0.02601518943497679</v>
+        <v>0.02558358380939795</v>
       </c>
       <c r="F2">
-        <v>0.7049616151111391</v>
+        <v>0.7049008298269117</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01101021647796185</v>
+        <v>0.03589780239927728</v>
       </c>
       <c r="F3">
-        <v>0.7080978498704468</v>
+        <v>0.7080164592811151</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>145</v>
       </c>
       <c r="E4">
-        <v>0.05151036632781263</v>
+        <v>0.05153579767070596</v>
       </c>
       <c r="F4">
-        <v>0.7006214904844242</v>
+        <v>0.7006196141258166</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.01622240674782391</v>
+        <v>0.01558019411932494</v>
       </c>
       <c r="F5">
-        <v>0.7037885729617145</v>
+        <v>0.7037752251052126</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.03079592233537105</v>
+        <v>0.03032842908920637</v>
       </c>
       <c r="F6">
-        <v>0.7031737342828336</v>
+        <v>0.7031598188273255</v>
       </c>
       <c r="G6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>163</v>
       </c>
       <c r="E2">
-        <v>0.02601518943497679</v>
+        <v>0.02558358380939795</v>
       </c>
       <c r="F2">
-        <v>0.817748682643634</v>
+        <v>0.8177648726711623</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>166</v>
       </c>
       <c r="E3">
-        <v>0.01101021647796185</v>
+        <v>0.03589780239927728</v>
       </c>
       <c r="F3">
-        <v>0.8067839974425369</v>
+        <v>0.8067676957022941</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>159</v>
       </c>
       <c r="E4">
-        <v>0.05151036632781263</v>
+        <v>0.05153579767070596</v>
       </c>
       <c r="F4">
-        <v>0.8108183283491617</v>
+        <v>0.8108197571588219</v>
       </c>
       <c r="G4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.01622240674782391</v>
+        <v>0.01558019411932494</v>
       </c>
       <c r="F5">
-        <v>0.8058988197133444</v>
+        <v>0.8060405963015749</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>154</v>
       </c>
       <c r="E6">
-        <v>0.03079592233537105</v>
+        <v>0.03032842908920637</v>
       </c>
       <c r="F6">
-        <v>0.802540566705937</v>
+        <v>0.8025796664154284</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>183</v>
       </c>
       <c r="E2">
-        <v>0.02601518943497679</v>
+        <v>0.02558358380939795</v>
       </c>
       <c r="F2">
-        <v>0.9037588735377693</v>
+        <v>0.9037426031032662</v>
       </c>
       <c r="G2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>191</v>
       </c>
       <c r="E3">
-        <v>0.01101021647796185</v>
+        <v>0.03589780239927728</v>
       </c>
       <c r="F3">
-        <v>0.9126426190970049</v>
+        <v>0.9125861489611315</v>
       </c>
       <c r="G3">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>183</v>
       </c>
       <c r="E4">
-        <v>0.05151036632781263</v>
+        <v>0.05153579767070596</v>
       </c>
       <c r="F4">
-        <v>0.9063447813776424</v>
+        <v>0.9063441082422994</v>
       </c>
       <c r="G4">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>181</v>
       </c>
       <c r="E5">
-        <v>0.01622240674782391</v>
+        <v>0.01558019411932494</v>
       </c>
       <c r="F5">
-        <v>0.9023751289608183</v>
+        <v>0.9023809313196283</v>
       </c>
       <c r="G5">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>172</v>
       </c>
       <c r="E6">
-        <v>0.03079592233537105</v>
+        <v>0.03032842908920637</v>
       </c>
       <c r="F6">
-        <v>0.9004769063673926</v>
+        <v>0.9005320201359993</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>8</v>

--- a/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
@@ -1994,13 +1994,13 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.00012417634080768</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.536557641688245E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.61714294543325E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2012,52 +2012,52 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.550376488537108E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.464626007693001E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.691380639653004E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.473078507384298E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.000117927324540232</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002347002874503102</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0002411801706335501</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0004181068344626799</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.00047073141651927</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0006537570125817133</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0006017891032787468</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0005692919023042594</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0004544149375719955</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002683510114679249</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001778658482362458</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3.160241459066004E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -2066,532 +2066,532 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.69134507367637E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001854248736969645</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002141571595671095</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0003673849332308178</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0004881725338454255</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.000537432548455883</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0005278438618601145</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.00051445116617461</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0004843966780357911</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0003971097474615462</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0002448614173954987</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>5.328285483826782E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>5.030552323622805E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.044272889136177E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0001372160284251806</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0002335655900346954</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001712894423837901</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0002245829103073289</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0003554587529266494</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0005230476850923872</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.000694926866557782</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0006431939219256115</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0007898620714963552</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0005359831654976692</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0004246442264814293</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0002724046630061608</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0001133170495918217</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>6.089233578602937E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>5.356009351264372E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.108817337549786E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
       <c r="BF2">
-        <v>1.532871560449043E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0001076235346109285</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.000197098946888254</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0002870570125875019</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0003706844776207733</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0006069266260440016</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0006920752699092256</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0005991327761779395</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0005278438618601145</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0004034853733377631</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0002689814846388207</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0001318513958544676</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>6.141451400866348E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
       </c>
       <c r="BT2">
-        <v>2.250703157224016E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>4.411158219868935E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>6.884065799109604E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0001976008467340464</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0003876102997504263</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0005934328891379199</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0005774796977125226</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0008519753208621475</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001056993878619245</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.001035743362002395</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0009438833669004858</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0006732373190747251</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0003412514856638926</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001507262465219265</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>2.209552279159873E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>4.59648885822545E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
         <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0001233367619040457</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0001936301922678246</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001674157761678967</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1314590575710049</v>
+        <v>0.6158237470692225</v>
       </c>
       <c r="CO2">
-        <v>0.0519892859753332</v>
+        <v>0.1332438158792209</v>
       </c>
       <c r="CP2">
-        <v>0.02794062787385974</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.000187800629817004</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.01975284749403787</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.0001941278741310823</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01468538632039181</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.000623272310262271</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.005682989277993475</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.0004865525179642915</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.0105815838715242</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.03070890183417331</v>
+        <v>0.004018751954448519</v>
       </c>
       <c r="CZ2">
-        <v>0.003545191694643211</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01891418432342894</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.001815133157709845</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0005391335275599704</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.03256753930682817</v>
+        <v>0.01530532200053368</v>
       </c>
       <c r="DE2">
-        <v>0.003621318865364502</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0004625695501817904</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.008736745513703358</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.01102591376614569</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.005651967369010064</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0001695209655401858</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.0003842379375527211</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.003361975157224123</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.008151194357750741</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.01572920073987586</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>2.773399159756925E-05</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>1.743403492270229E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001304859965353469</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0005999936052976216</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.009700921216863731</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.02052132083033862</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.01332673006251892</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.003463988517576531</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0007762237209087851</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001053484837757076</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0007570320005652533</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
         <v>0</v>
       </c>
       <c r="EA2">
-        <v>9.536557641688245E-05</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.008253378741765544</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.006435428469664837</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>6.377139841397021E-05</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0007647233564614092</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>6.232468150124938E-05</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001247165378309062</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.01966633176295918</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.01151346044856688</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.00237145209166286</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.001705548668991963</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.03379853496693476</v>
+        <v>0.02278053916828739</v>
       </c>
       <c r="EM2">
-        <v>0.06443622681916981</v>
+        <v>0.2088278239282871</v>
       </c>
       <c r="EN2">
-        <v>0.02414358096004652</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0206444859203535</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.008898298252368876</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001891904547616373</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.005364932355054988</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>4.516918270835825E-06</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.005763674374592525</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.001267856836908242</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.001580101359875913</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.01746884902541486</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.01495672683249168</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01403224024100157</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.01145892924823393</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0001413555624961668</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.008689244618227034</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.008813924575128508</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.009149195074772375</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.001503258134019803</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.003614841306580188</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.002166864709906631</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.01802065531919334</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01641578309744483</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.003407919005988508</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>9.118623701427959E-05</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.000478192546713131</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.001003882865992477</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.001315030813690721</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0004943742205416284</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.004880974965372698</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.001411432554048551</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.005747934186275653</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.01509166019396814</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.002087868509544835</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001994644783581362</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.000246580190174127</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001403737190568039</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.003639671096975047</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.000173250052840385</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.001548814449376957</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.008482672680697684</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0160621207912949</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.004450524838220383</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0006162477262323159</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.00123384046089398</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.000311751346631126</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.001822382577241136</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.005857906308590374</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.02567477775099316</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.02751935862151913</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.01432649311476114</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.008631874044377817</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.002979125013071336</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>1.319193374339521E-05</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.001259214982192437</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0006985060100892993</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0004806352194729558</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0003673849332308178</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>1.418201547372926E-05</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2773,94 +2773,94 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.220106524975432E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.913440143442563E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6.971911389639826E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001045863028564098</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002936476240967805</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0006640457012246421</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0009815058971790107</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001144902352988701</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0003059581262470533</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.592479437410655E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.558600610195249E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>8.595403437524505E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.440402258875576E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>2.712125177087828E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9.074048047654669E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.000149403722460024</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0002454384657388169</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0002015325362744739</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2.31342180980486E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>4.884891142267157E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>2.199743489573837E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.444179928234084E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.459275098847186E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.949328560802685E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>8.389684216511598E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0001404750898243143</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.465472121426143E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.935611588098969E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -2872,34 +2872,34 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.614309024745328E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.000254503665419647</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0007297985824608542</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0007467164323011261</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0004536361227514785</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0003074226493273088</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.7355119205409E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>5.854717451607644E-07</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>1.629690391135158E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2911,16 +2911,16 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>1.820360498605192E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.864596924925374E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>4.790928168230897E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>7.210538691923405E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -2929,22 +2929,22 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>4.230462102397234E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>8.056742733454763E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0002045301313404516</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0002960360201828681</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001152558223225155</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>9.158892865602196E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
@@ -2953,34 +2953,34 @@
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001665010512606719</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0002815835374860127</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>8.595403437524505E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0003200085388189151</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0002742552739353292</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>5.904535931968314E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>3.78786390165975E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>9.719501336904922E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>1.512788319529588E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>0</v>
@@ -2989,382 +2989,382 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>8.073161322939574E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>8.349499035511718E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>1.379969182060211E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>6.42257478189255E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>8.816546112195162E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>6.074347944433829E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>3.463978585250476E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>2.39426515424511E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>6.240236295663135E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1.820360498605192E-06</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0001076708984506916</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0001176373484963825</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0002663369490173701</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.0003012220928835338</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.02516706071147631</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.01675493030859001</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.1047681147188025</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CR3">
-        <v>0.004047711757920079</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.009035692642738629</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.02505694382985027</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0006876081081329066</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01800715106944</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0004051544111413337</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.005099187875303046</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.005769039968252747</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.02828853151097499</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.03704295779386588</v>
+        <v>0.06464139946378146</v>
       </c>
       <c r="DB3">
-        <v>0.006925518287570158</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.01356636970888785</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.03761345393154164</v>
+        <v>0.06990410425867416</v>
       </c>
       <c r="DE3">
-        <v>0.004617347153678404</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.02471164561794519</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0001636915275525706</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.0001422399262102139</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.007708040445995239</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
         <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.005415262522124347</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>2.712125177087828E-06</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.002665885396236962</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.005104131408056086</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.01220015847742211</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.008403139466355708</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.001237831234990121</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.003292418586711457</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.002582210165823321</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0001857138723895007</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.009331914044398293</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01404599072782489</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.001161540158768715</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.004201668894251945</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0005962770315174917</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.001539571199081698</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0001038543918220076</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0006085170820169306</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.004310400376961659</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.008800932920775171</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0006783831379279253</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0001957044071857609</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.0008881305009265984</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.00122522033941861</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.01123814744431627</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.02328078210323588</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.01447511288471573</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.001476074683431987</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.006389588423680359</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.04059517509393205</v>
+        <v>0.09740984395092674</v>
       </c>
       <c r="EO3">
-        <v>0.03856188436995014</v>
+        <v>0.07865317210717788</v>
       </c>
       <c r="EP3">
-        <v>0.01630185258752578</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.01370625053528197</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.006959944959932862</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.01000478088716563</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.006261426305569515</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.001142555066216995</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.003953139905366305</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>2.279094681068209E-05</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.002117268426816469</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01614835811875163</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.01158453422686039</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.008710090849719132</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.001517720271573456</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.007888633614000442</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01393935186444115</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.009795158434393086</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.008881243796946076</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>3.79274624612756E-05</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002820348061969552</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.005876244047155043</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.02937544676154501</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.01861916210669386</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.003227094033486307</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0001721746273533196</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>5.003177010477166E-05</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0004005522809794204</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.002694413157383294</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.00125024985313505</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.003606771148830927</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0008039063084456149</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.009035692642738629</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.00898863073969261</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.00156759523342818</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.003084667033357367</v>
+        <v>0</v>
       </c>
       <c r="FX3">
         <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.002503640501952415</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001234663364242675</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001404077502637452</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0052558135619402</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.01505059922247828</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0178118933427451</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.004805986230685664</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.004007053794768692</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.003191200945312428</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0001231647937448272</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.002179584739616036</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.01336899642977807</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.02965570913679829</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.02372399158595871</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.01320710484526487</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.01129734285413561</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.002815957527106924</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0006751420114838412</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.003076234266178806</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.001727705447699685</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001234663364242675</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002851493811690933</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.000848626359905732</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0007687283527528285</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0005273440306687493</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0004406743801457381</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0002736533247491834</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001918652703528959</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002670012713284188</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.667487116822162E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.948152675971359E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.86255546358271E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.498056961565123E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.02400754579734E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>4.103410188172403E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0004709102956371829</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001110683661888257</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001651238633617564</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001915724037607197</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002159260298722873</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.00187436209648073</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001631581198207827</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0009362046460231159</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>5.327800651922404E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>8.11435410756937E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>6.285441723329179E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>5.506418912153959E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0004263580890950597</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0007879071083385686</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001784407312649483</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0009293872788489944</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0005385479627852383</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0005208627914589546</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0006848175317519583</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0004912955916016267</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0004805966614990218</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0002427838565490181</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0002055550892839267</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>7.390465656323583E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>8.067432476901872E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>6.414078025287818E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>6.876856526366467E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.657161466818593E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0001690512823322553</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0007040205293545247</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.001811873997753482</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.002955236720361819</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.002570800837034711</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.001395792381644505</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.00100934113064792</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.001197204160002463</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0009405401667188328</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0004284653544100051</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0001800120742205767</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1.282171373860441E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0002633774598436897</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0003476792633725381</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0004406743801457381</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0002125765234354978</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0002578256379572136</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0001816339591540692</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0002185176377093403</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0002770100040097192</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0007687283527528285</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0008427465407313646</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0007992989960921166</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0006706051493460093</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0004912955916016267</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0002093437644845714</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>7.512953246737228E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1.223694258828899E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>8.11435410756937E-06</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0002517034286170806</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0006360010704431213</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.001623425419683934</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001347128333015713</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.001262426686221713</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0008374955938763307</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0005343514136513267</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0005899504792421698</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.000643160316059983</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0006695791639886671</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0003368429418395875</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0001838334321402758</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>3.623606270656097E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>1.829571215051935E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>3.872456973909326E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.002421298799141193</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.08749862684812283</v>
+        <v>0.4192430393211163</v>
       </c>
       <c r="CO4">
-        <v>0.03796755308676095</v>
+        <v>0.05808123212230676</v>
       </c>
       <c r="CP4">
-        <v>0.02551704826105952</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>6.756041102069481E-06</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01942248922130646</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.00133454328599671</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0281790917310387</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.006279993825118681</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.001203480282147445</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.005552656913976627</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01843242085209514</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.03570963223795645</v>
+        <v>0.04161732951855909</v>
       </c>
       <c r="CZ4">
-        <v>0.0006560235862258943</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.05475003431331013</v>
+        <v>0.1804527211447959</v>
       </c>
       <c r="DB4">
-        <v>0.009390363593818625</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.009349272175198408</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.05428278444023354</v>
+        <v>0.1770457122560568</v>
       </c>
       <c r="DE4">
-        <v>0.006665458894069379</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0006441658197133402</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.005443298915885694</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.004010382003678119</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.003620862197391609</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>8.409743682646291E-06</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.00287338971106075</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.002402474933080656</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.004103083716041398</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.01007232282974329</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002577981034394663</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.00378699091854999</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.001612041472591013</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0002770100040097192</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.008960529833593444</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01241394214188147</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.009876417031266731</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>9.990705984560839E-05</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0002627343563403863</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0006147433018929036</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>8.473591767518237E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.00013025497465489</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0009933209978453125</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.008156607950928069</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0008976116352591343</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.001264582565581127</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0003287107452776066</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0006864058638940103</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.002351186266095486</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.01080952266143574</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.01545413007176978</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.01080321813692781</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0003021467752754223</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.02340563660115703</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.04694755018191253</v>
+        <v>0.1235599656371651</v>
       </c>
       <c r="EN4">
-        <v>0.02517912514738452</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.01526133703226069</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.00774751751645379</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.004773270272532376</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.005699793555079827</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>8.715050082758213E-06</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.004895493640963945</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.002878766858415095</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0005806359643166475</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.01037679366033961</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.01660563787201174</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01389245514747784</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.006708371464201167</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.002788420141976827</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.01490632349673987</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.01504981243437064</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.01103565347449684</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0038206538191511</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0003698971117970599</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.001063991877342919</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01587664022270379</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.01687502528382626</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.004457395693195731</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0001759514263930393</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>1.52000436048947E-05</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>1.973227893637991E-06</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.00265028985016116</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0001128528468765497</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.004589325669173157</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0006695791639886671</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.002365952194553964</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.006292880197206569</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.002014292938093997</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.001408662352367872</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>4.667487116822162E-05</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.003010395609331958</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.006433101062948531</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>2.969855881579926E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.002269604678876334</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.006001278337250417</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.01497303404675597</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.007140695431600326</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.00542243888042507</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.005519627166050957</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0009965352652578266</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0003287107452776066</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.006640660330941064</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0168304145724168</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0230757831588422</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.01288682848388678</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.007793777765097292</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.003171094978792829</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>4.753695215946183E-06</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.000323596659808821</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0009479707249076738</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.001887478387696849</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0006848175317519583</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>7.079797307121745E-07</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,43 +4313,43 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.001014159647250178</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.000827871353787393</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0008298177243328962</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0009258770377874685</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>9.772600584579883E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.522805314401945E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001336639564473649</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.60662387324771E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.721905085623398E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.388061355156613E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0003931320083009168</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002035494958320726</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.331955923498485E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.781685563764295E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -4370,55 +4370,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>8.176045431038307E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>6.84697768258232E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002725428300021864</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0007198940871948686</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0006490135224003169</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001241667372183863</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>3.513915235271676E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>5.221310639550594E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0003771182018002213</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0006841301253381773</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003191721346596041</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.970232174384305E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>6.463060376238606E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0002143564611602494</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.703557780189836E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>8.516699402148893E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0001301215403849597</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -4430,22 +4430,22 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>1.104129786019474E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0001873518690135345</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.000446364277621124</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0003923234918431555</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0003204007201207328</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>4.479349917893084E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -4454,34 +4454,34 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>8.461616509765225E-06</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>3.353520445823657E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>5.490805090031999E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>5.69020744780642E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>9.81547426849254E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.3691434469598E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001851240646757246</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0001148290503091331</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -4490,61 +4490,61 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0002498401629940597</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0004072600589131197</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0002523983683768854</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0001504975355536481</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001655589836647357</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>6.58042628337212E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>4.796154298783349E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>4.287400795327674E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0002201642522143051</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0003864757725641906</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0004415737534026972</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0003802252095989862</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0002109736677075255</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>7.546995910738251E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>2.126717709711617E-06</v>
+        <v>0</v>
       </c>
       <c r="BY5">
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>4.11551249579182E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>4.781917579193201E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
         <v>0</v>
@@ -4553,364 +4553,364 @@
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0002919241207919848</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0003026055028238263</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>7.676392854163278E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0003319756316198535</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0002970443839290847</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>5.926774154620161E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>2.428971362609812E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0002546008313337604</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0003411183323533938</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.005222002852513037</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1154377460556258</v>
+        <v>0.4573991619895039</v>
       </c>
       <c r="CO5">
-        <v>0.0529502967877985</v>
+        <v>0.1225559526927339</v>
       </c>
       <c r="CP5">
-        <v>0.01644347532277839</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.0005124431423071612</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.03055001385139512</v>
+        <v>0.00252252653330232</v>
       </c>
       <c r="CS5">
-        <v>0.005773737183962281</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.006284878154494316</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.008954528429794835</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.0006700243663128459</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.004419121491216905</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.022838169147688</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.03007919386708022</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.003012339773271875</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.05404408737065428</v>
+        <v>0.1284171032654231</v>
       </c>
       <c r="DB5">
-        <v>0.007913442100597601</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.0251849535763972</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.05793351281383845</v>
+        <v>0.1492588516961249</v>
       </c>
       <c r="DE5">
-        <v>0.01327348024760819</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.0003170437696598094</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.007311979071145116</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.006465351122707843</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.003062881582488407</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0002989416066419672</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.002406730930014422</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.001381637460048134</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001802140156169984</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.002873058888704851</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0001560947303018504</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0007127713332886116</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0002201642522143051</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.002254147927222214</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0129382466835123</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.01203556883726447</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.006081164952940117</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0005704189248754622</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0004545652039543225</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.001420096868020505</v>
+        <v>0</v>
       </c>
       <c r="DY5">
         <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0006758843750580203</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.001196183295293913</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.00945133386339618</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0006611590965169041</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.001684243344096218</v>
+        <v>0</v>
       </c>
       <c r="EE5">
         <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0004072600589131197</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.001586143808703171</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.00268182817322129</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.005729337700118354</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.003557877705697193</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.006613438588599523</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.03914133489236823</v>
+        <v>0.04855969948827903</v>
       </c>
       <c r="EM5">
-        <v>0.0471149221522383</v>
+        <v>0.09128670433463265</v>
       </c>
       <c r="EN5">
-        <v>0.02454540975485377</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.01307368061402814</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.005814542726275679</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.004789323351982101</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.003001558450291153</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.001069899549545731</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.008782133804251148</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.006242455920360784</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.002103657444317338</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01563746390968032</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.02607429258650447</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.02252901734216477</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.01203556883726447</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>6.402578646107467E-05</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.009118381625517471</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.008722006713002056</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.007747891754671973</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.002032577378849282</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.0005082367339096185</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.001115223000604268</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.01233862356271518</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0102374483798956</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0007132475526122848</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.002306758179004525</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.003193225968516561</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0007103627383625879</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>4.922967544961358E-05</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.001176228312157019</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.005008240378875508</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.001718454208358328</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0044775611635138</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.008531239084669703</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.002148273624055245</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.002372809495221818</v>
+        <v>0</v>
       </c>
       <c r="FV5">
         <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.002576277208418348</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.006795909272246764</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0002183767017010981</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.00245972651926376</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.004112942231683784</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.006706384774602769</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.00162767999740354</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0009828821030084772</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0004128902797207195</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0005708461970108608</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.00402283546414689</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.01598258322071732</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.02463213325742373</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.01859190475720074</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.01046226334734785</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.005707379283183876</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.002239290714991203</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0002019644054964774</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>1.30987360868018E-05</v>
+        <v>0</v>
       </c>
       <c r="GP5">
         <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0007217119350043635</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>7.650225821743449E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0005537757171249274</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,46 +5086,46 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>9.246846012617265E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.501087740792111E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4.534287413528074E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>9.933632240512685E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0003127035236912709</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0004489347743228439</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002868018150241723</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.000825508833464476</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.000955963152078807</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0008213632904597622</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0005251518639976708</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0002533063289851092</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001128655387927736</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>5.160038158913108E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5134,556 +5134,556 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>2.360071632424742E-06</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2.098148141885453E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>8.962341445163675E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.000286101452494885</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0006164670944689161</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0006736511087381248</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.000858447009277509</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001015535700252242</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0009848816352685664</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001613837365027478</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001066091327425321</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0005385121501036347</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0002312600235738982</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>3.043397450436653E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>4.04230574102E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1.732434282785511E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>8.602436789206711E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0003317131291872625</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0003028620318728387</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0003343651588857441</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0001809693140070059</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0001135407743006412</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0001956049253643077</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0002509914289185075</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0003446914685472303</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0003757898597721984</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.000352829459455041</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0004052810227747104</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0002344381637380019</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>4.534287413528074E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>3.443435251344644E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>2.559349288250046E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0002708302211149705</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0009281130904661005</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.001161711484016227</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001004394201728876</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.001667226102665077</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0016874700011216</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0007238695662282825</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0002050715694836402</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>3.247927099306506E-06</v>
+        <v>0</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1.044719671775513E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>3.860787116982268E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>7.665158338572074E-07</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1.574016698293014E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>1.165033697785117E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.106893605106948E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>9.369837350544552E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>2.629702545162899E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0001687840152836223</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0002576329127048222</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0005058942624600277</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0008072286375147627</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.000721643609509468</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0003489426061197435</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.000184932224267868</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.632728719826929E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
         <v>0</v>
       </c>
       <c r="CB6">
-        <v>6.004919560426462E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0003336101667374625</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0004733900196433241</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0004998668412238744</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0004285510376590489</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0004783568893318469</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0003871325747221243</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0001690591258795692</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>8.288641894692287E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>3.860787116982268E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>5.502369119271574E-06</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1118171041066513</v>
+        <v>0.4678475044054483</v>
       </c>
       <c r="CO6">
-        <v>0.007837809782436438</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.0773111994084001</v>
+        <v>0.2704592714814826</v>
       </c>
       <c r="CQ6">
-        <v>0.0008078208422096703</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.0281420591490635</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.01557516512756242</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0006571271909574124</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.02259710676244943</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.0006026901173394797</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.003927332741517574</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01651514301831452</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.02631394543414741</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.03400585786765217</v>
+        <v>0.02273457283504324</v>
       </c>
       <c r="DA6">
-        <v>0.02920018160109876</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.009150136187372419</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.06125282390631244</v>
+        <v>0.1785986351148834</v>
       </c>
       <c r="DD6">
-        <v>0.02212679640747482</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.02720847740945025</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.0002386054344320885</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.0002249607158505435</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.00816520400769097</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.002242840655396767</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.004065176507108926</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0001097395701150646</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0006903727785304091</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0004613069712258732</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.005519030071686737</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002778352201585269</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0009713360730500898</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.00221757445661192</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0001176344111571025</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.002620114646519003</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.006926539776491348</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.008340780258876664</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>6.764301302726959E-05</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.002908931309228471</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>9.523524606792648E-06</v>
+        <v>0</v>
       </c>
       <c r="DY6">
         <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0003374125824670088</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.001240275204194348</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.005802161889733415</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.002350358173769447</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0004599739224126766</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.001058698606275754</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0001436174434615675</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0007598531630705643</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.004686640489521083</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.01299285327623904</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.01717955373126007</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.000512430151678543</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01096279120200162</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.03935261467742274</v>
+        <v>0.05332026208979511</v>
       </c>
       <c r="EN6">
-        <v>0.03126220941189028</v>
+        <v>0.007039754073347289</v>
       </c>
       <c r="EO6">
-        <v>0.0143482255380332</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.007658616421671991</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.00252823735977345</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.00468806280209039</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0004733900196433241</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.004186738623662451</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.008902028002808151</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0007897313392756727</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.005926580746865249</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.02691761073424209</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.02300062600003709</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.01595978227667183</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001123381537027933</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.01025554389888355</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.01543436769787519</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01532982547116016</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.01159597912519097</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.000803719665744869</v>
+        <v>0</v>
       </c>
       <c r="FG6">
         <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.00257396633595016</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.01155613935411028</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.004963795791203853</v>
+        <v>0</v>
       </c>
       <c r="FK6">
         <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001650449222513713</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0005256306741846769</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0002808459249460276</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0004993998460937622</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.003031162478410515</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.002368364420603384</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0001690591258795692</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.005863434374274884</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002039060962256876</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0004328498559950613</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0001588564637923059</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.002200149951138609</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.009992786045046833</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.004548268951345937</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>9.439995158380651E-06</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.002026066302097979</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.008438737593925352</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.007052058435190325</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.002913372569089376</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.002792471595083907</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.001796619399132053</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>5.705887479373388E-05</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.002599087449841453</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.01157825253474606</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.01399576737174743</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0105892681910604</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.004782882638768133</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.003727529215532891</v>
+        <v>0</v>
       </c>
       <c r="GN6">
         <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0001660743621508826</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.000392449170094707</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0008031289129001731</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.000322698981721447</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>2.055054123651289E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.00012417634080768</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002195419172245625</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.000255713346678895</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.000255713346678895</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.000255713346678895</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000255713346678895</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.000271217111564266</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0003158633716411961</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0003427771780377261</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0004375079631115691</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0005554352876518011</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0007901355751021113</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001031315745735661</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001449422580198341</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001920153996717611</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.002573911009299324</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.003175700112578071</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.003744992014882331</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.004199406952454326</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.00446775796392225</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.004645623812158496</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.004677226226749156</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.004677226226749156</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.004677226226749156</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.00472413967748592</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.004909564551182885</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.005123721710749995</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.005491106643980812</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.005979279177826238</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.006516711726282121</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.007044555588142236</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.007559006754316845</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.008043403432352636</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.008440513179814181</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.00868537459720968</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.008738657452047948</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.00874368800437157</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.00874368800437157</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.008784130733262932</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.008921346761688114</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.00915491235172281</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.009326201794106601</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.00955078470441393</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.009906243457340579</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01042929114243297</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.01112421800899075</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.01176741193091636</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.01255727400241271</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.01309325716791038</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01351790139439181</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.01379030605739797</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0139036231069898</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.01396451544277582</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.01401807553628847</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.01402916370966397</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01402916370966397</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.01404449242526846</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01415211595987938</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.01434921490676764</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.01463627191935514</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.01500695639697591</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.01561388302301992</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.01630595829292914</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.01690509106910708</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0174329349309672</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.01783642030430496</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.01810540178894378</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.01823725318479824</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.01829866769880691</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01829866769880691</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.01832117473037915</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01836528631257784</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01843412697056893</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01863172781730298</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01901933811705341</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01961277100619133</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.02019025070390385</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.021042226024766</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.02209921990338524</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.02313496326538764</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.02407884663228812</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.02475208395136285</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.02509333543702674</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.02524406168354867</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.02526615720634027</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.02526661685522609</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.02526661685522609</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.02538995361713013</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.02558358380939795</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.02725774157107692</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1587167991420818</v>
+        <v>0.6158237470692225</v>
       </c>
       <c r="CO2">
-        <v>0.210706085117415</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CP2">
-        <v>0.2386467129912747</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CQ2">
-        <v>0.2388345136210917</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CR2">
-        <v>0.2585873611151296</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CS2">
-        <v>0.2587814889892607</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CT2">
-        <v>0.2734668753096525</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CU2">
-        <v>0.2740901476199147</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CV2">
-        <v>0.2797731368979082</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CW2">
-        <v>0.2802596894158725</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CX2">
-        <v>0.2908412732873967</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="CY2">
-        <v>0.32155017512157</v>
+        <v>0.753086314902892</v>
       </c>
       <c r="CZ2">
-        <v>0.3250953668162133</v>
+        <v>0.753086314902892</v>
       </c>
       <c r="DA2">
-        <v>0.3440095511396422</v>
+        <v>0.753086314902892</v>
       </c>
       <c r="DB2">
-        <v>0.3458246842973521</v>
+        <v>0.753086314902892</v>
       </c>
       <c r="DC2">
-        <v>0.346363817824912</v>
+        <v>0.753086314902892</v>
       </c>
       <c r="DD2">
-        <v>0.3789313571317402</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DE2">
-        <v>0.3825526759971047</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DF2">
-        <v>0.3830152455472865</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DG2">
-        <v>0.3917519910609898</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DH2">
-        <v>0.4027779048271355</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DI2">
-        <v>0.4084298721961456</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DJ2">
-        <v>0.4085993931616858</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DK2">
-        <v>0.4089836310992385</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DL2">
-        <v>0.4123456062564627</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DM2">
-        <v>0.4204968006142134</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DN2">
-        <v>0.4362260013540893</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DO2">
-        <v>0.4362537353456868</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DP2">
-        <v>0.4362711693806096</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DQ2">
-        <v>0.437576029345963</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DR2">
-        <v>0.4381760229512606</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DS2">
-        <v>0.4478769441681243</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DT2">
-        <v>0.468398264998463</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DU2">
-        <v>0.4817249950609819</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DV2">
-        <v>0.4851889835785584</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DW2">
-        <v>0.4859652072994672</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DX2">
-        <v>0.4870186921372243</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DY2">
-        <v>0.4877757241377896</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="DZ2">
-        <v>0.4877757241377896</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EA2">
-        <v>0.4878710897142065</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EB2">
-        <v>0.496124468455972</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EC2">
-        <v>0.5025598969256369</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="ED2">
-        <v>0.5026236683240508</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EE2">
-        <v>0.5033883916805122</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EF2">
-        <v>0.5034507163620134</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EG2">
-        <v>0.5046978817403225</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EH2">
-        <v>0.5243642135032817</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EI2">
-        <v>0.5358776739518486</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EJ2">
-        <v>0.5382491260435115</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EK2">
-        <v>0.5399546747125035</v>
+        <v>0.7683916369034257</v>
       </c>
       <c r="EL2">
-        <v>0.5737532096794382</v>
+        <v>0.7911721760717131</v>
       </c>
       <c r="EM2">
-        <v>0.638189436498608</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.6623330174586546</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.6829775033790081</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.691875801631377</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.6937677061789933</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.6991326385340483</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.6991371554523191</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7049008298269117</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7061686866638199</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7077487880236959</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7252176370491108</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.7401743638816025</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.7542066041226041</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.765665533370838</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.7658068889333342</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.7744961335515612</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.7833100581266897</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.7924592532014622</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.793962511335482</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.7975773526420622</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.7997442173519689</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8177648726711623</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8341806557686071</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8375885747745956</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8376797610116099</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.838157953558323</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8391618364243155</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.8404768672380063</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.840971241458548</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.8458522164239206</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.8472636489779691</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.8530115831642447</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.8681032433582129</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.8701911118677577</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.872185756651339</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.8724323368415131</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.8738360740320812</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.8774757451290562</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.8776489951818967</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.8791978096312736</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.8876804823119713</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9037426031032662</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9081931279414865</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9088093756677189</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9100432161286129</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.910354967475244</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9121773500524851</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9180352563610755</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9437100341120687</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9712293927335878</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9855558858483489</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9941877598927267</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.997166884905798</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9971800768395414</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9984392918217337</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.999137797831823</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9996184330512959</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9999858179845268</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7424,766 +7424,766 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.220106524975432E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.511450539319688E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.511450539319688E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.208641678283671E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001266727196392465</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.000420320343736027</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001084366044960669</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00206587194213968</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.003210774295128381</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.003516732421375435</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.003562657215749541</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.003598243221851494</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.003684197256226739</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.003738601278815494</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003738601278815494</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.003741313403992582</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003832053884469129</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.003981457606929153</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.00422689607266797</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.004428428608942443</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.004451562827040492</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.004456447718182759</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.004478445153078497</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.004492886952360838</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004527479703349309</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004586972988957336</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004670869831122452</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004811344920946766</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004885999642161028</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004905355758042017</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004905355758042017</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004905355758042017</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004905355758042017</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.00497149884828947</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.005226002513709117</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.005955801096169971</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.006702517528471097</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.007156153651222576</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.007463576300549885</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.007466311812470426</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.007466311812470426</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.007466897284215587</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.007468526974606722</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.007468526974606722</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.007468526974606722</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.007468526974606722</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.007470347335105328</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.007488993304354582</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.007536902586036891</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.007544113124728814</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.007544113124728814</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.007544113124728814</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.007586417745752787</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.007666985173087334</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.007871515304427786</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.008167551324610655</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.00828280714693317</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.008291966039798773</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.008291966039798773</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.008291966039798773</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.008458467091059445</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.008740050628545458</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.008826004662920703</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.009146013201739618</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.009420268475674946</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.009479313834994629</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.009479313834994629</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.009517192474011227</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.009614387487380275</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.009629515370575572</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.009629515370575572</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.009629515370575572</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.009637588531898512</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.009637588531898512</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.009645938030934024</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.009659737722754627</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00966616029753652</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.009754325758658471</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.009815069238102809</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.009849709023955313</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.009849709023955313</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.009873651675497764</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.009936054038454396</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.009936054038454396</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.009937874398953</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01004554529740369</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01016318264590007</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01042951959491745</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01073074168780098</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.03589780239927728</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.05265273270786729</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.1574208474266698</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CR3">
-        <v>0.1614685591845899</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CS3">
-        <v>0.1705042518273285</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CT3">
-        <v>0.1955611956571787</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CU3">
-        <v>0.1962488037653116</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CV3">
-        <v>0.2142559548347517</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CW3">
-        <v>0.214661109245893</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CX3">
-        <v>0.219760297121196</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CY3">
-        <v>0.2255293370894488</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="CZ3">
-        <v>0.2538178686004238</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="DA3">
-        <v>0.2908608263942897</v>
+        <v>0.7540328796832213</v>
       </c>
       <c r="DB3">
-        <v>0.2977863446818598</v>
+        <v>0.7540328796832213</v>
       </c>
       <c r="DC3">
-        <v>0.3113527143907477</v>
+        <v>0.7540328796832213</v>
       </c>
       <c r="DD3">
-        <v>0.3489661683222893</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DE3">
-        <v>0.3535835154759677</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DF3">
-        <v>0.3782951610939129</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DG3">
-        <v>0.3784588526214655</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DH3">
-        <v>0.3786010925476757</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DI3">
-        <v>0.3863091329936709</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DJ3">
-        <v>0.3863091329936709</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DK3">
-        <v>0.3917243955157952</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DL3">
-        <v>0.3917271076409723</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DM3">
-        <v>0.3943929930372093</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DN3">
-        <v>0.3994971244452654</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DO3">
-        <v>0.4116972829226875</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DP3">
-        <v>0.4201004223890432</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DQ3">
-        <v>0.4213382536240333</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DR3">
-        <v>0.4246306722107448</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DS3">
-        <v>0.4272128823765681</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DT3">
-        <v>0.4273985962489577</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DU3">
-        <v>0.436730510293356</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DV3">
-        <v>0.4507765010211808</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DW3">
-        <v>0.4519380411799496</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DX3">
-        <v>0.4561397100742015</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DY3">
-        <v>0.456735987105719</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="DZ3">
-        <v>0.4582755583048007</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EA3">
-        <v>0.4583794126966227</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EB3">
-        <v>0.4589879297786397</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EC3">
-        <v>0.4632983301556013</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="ED3">
-        <v>0.4720992630763765</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EE3">
-        <v>0.4727776462143045</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EF3">
-        <v>0.4729733506214902</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EG3">
-        <v>0.4738614811224168</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EH3">
-        <v>0.4750867014618355</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EI3">
-        <v>0.4863248489061517</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EJ3">
-        <v>0.5096056310093876</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EK3">
-        <v>0.5240807438941033</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EL3">
-        <v>0.5255568185775353</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EM3">
-        <v>0.5319464070012156</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="EN3">
-        <v>0.5725415820951477</v>
+        <v>0.9213468278928223</v>
       </c>
       <c r="EO3">
-        <v>0.6111034664650978</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.6274053190526236</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.6411115695879056</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.6480715145478385</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.6580762954350041</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.6643377217405736</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.6654802768067906</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.6694334167121568</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.6694562076589675</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.671573476085784</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.6877218342045356</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.6993063684313959</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.7080164592811151</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.7095341795526886</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.7174228131666891</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.7313621650311303</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.7411573234655233</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.7500385672624694</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.7500764947249307</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.7528968427869002</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.7587730868340552</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.7881485335956002</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8067676957022941</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8099947897357804</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8101669643631337</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.8102169961332385</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.810617548414218</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.8133119615716012</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.8145622114247363</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.8181689825735672</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.8189728888820128</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.8280085815247514</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.836997212264444</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.8385648074978722</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.8416494745312296</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.8416494745312296</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.844153115033182</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.8453877783974247</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.8467918559000622</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.8520476694620024</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.8670982686844807</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.8849101620272258</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.8897161482579115</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.8937232020526802</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.8969144029979926</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.8970375677917375</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.8992171525313535</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9125861489611315</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9422418580979298</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9659658496838885</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9791729545291534</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9904702973832891</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.993286254910396</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9939613969218799</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9970376311880587</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9987653366357584</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002851493811690933</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001133775741074825</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001902504093827654</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002429848124496403</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.002870522504642141</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.003144175829391324</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.00333604109974422</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003603042371072639</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00364971724224086</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.003679198769000574</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.003679198769000574</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.003686061324464157</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.003686061324464157</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.003687559381425722</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.003687559381425722</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.003697799456883695</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.003738833558765419</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.004209743854402603</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.00532042751629086</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.006971666149908424</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.00888739018751562</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01104665048623849</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01292101258271922</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.01455259378092705</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01548879842695017</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01554207643346939</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01555019078757696</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01561304520481025</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01566810939393179</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01609446748302685</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01688237459136542</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0186667819040149</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0195961691828639</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02013471714564914</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.02065557993710809</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.02134039746886005</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.02183169306046168</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0223122897219607</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.02255507357850972</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.02276062866779364</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.02283453332435688</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0229152076491259</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.02297934842937878</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.02304811699464245</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.02307468860931063</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.02324373989164289</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.02394776042099741</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0257596344187509</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.02871487113911271</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.03128567197614743</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.03268146435779194</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.03369080548843986</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.03488800964844232</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.03582854981516115</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.03625701516957115</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.03643702724379173</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.03644984895753033</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.03671322641737403</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.03706090568074656</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0375015800608923</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.03771415658432779</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.037971982222285</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.03815361618143907</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.03837213381914841</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.03864914382315813</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.03941787217591096</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.04026061871664233</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.04105991771273444</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.04173052286208045</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.04222181845368208</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.04243116221816665</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.04250629175063402</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.04251852869322231</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.04252664304732988</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.04277834647594696</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.04341434754639008</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.04503777296607401</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.04638490129908972</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.04764732798531144</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.04848482357918777</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.04901917499283909</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.04960912547208127</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.05025228578814125</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.05092186495212991</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0512587078939695</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.05144254132610978</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.05147877738881634</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.05149707310096686</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.05153579767070596</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.05395709646984715</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.14145572331797</v>
+        <v>0.4192430393211163</v>
       </c>
       <c r="CO4">
-        <v>0.1794232764047309</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CP4">
-        <v>0.2049403246657905</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CQ4">
-        <v>0.2049470807068925</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CR4">
-        <v>0.224369569928199</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CS4">
-        <v>0.2257041132141957</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CT4">
-        <v>0.2538832049452344</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CU4">
-        <v>0.2601631987703531</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CV4">
-        <v>0.2613666790525006</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CW4">
-        <v>0.2669193359664772</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CX4">
-        <v>0.2853517568185723</v>
+        <v>0.4773242714434231</v>
       </c>
       <c r="CY4">
-        <v>0.3210613890565287</v>
+        <v>0.5189416009619822</v>
       </c>
       <c r="CZ4">
-        <v>0.3217174126427546</v>
+        <v>0.5189416009619822</v>
       </c>
       <c r="DA4">
-        <v>0.3764674469560647</v>
+        <v>0.6993943221067781</v>
       </c>
       <c r="DB4">
-        <v>0.3858578105498833</v>
+        <v>0.6993943221067781</v>
       </c>
       <c r="DC4">
-        <v>0.3952070827250818</v>
+        <v>0.6993943221067781</v>
       </c>
       <c r="DD4">
-        <v>0.4494898671653153</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DE4">
-        <v>0.4561553260593847</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DF4">
-        <v>0.456799491879098</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DG4">
-        <v>0.4622427907949837</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DH4">
-        <v>0.4662531727986618</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DI4">
-        <v>0.4698740349960534</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DJ4">
-        <v>0.4698824447397361</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DK4">
-        <v>0.4727558344507968</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DL4">
-        <v>0.4751583093838775</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DM4">
-        <v>0.4792613930999189</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DN4">
-        <v>0.4893337159296622</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DO4">
-        <v>0.4919116969640568</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DP4">
-        <v>0.4956986878826068</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DQ4">
-        <v>0.4973107293551979</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DR4">
-        <v>0.4975877393592076</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DS4">
-        <v>0.506548269192801</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DT4">
-        <v>0.5189622113346826</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DU4">
-        <v>0.5288386283659493</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DV4">
-        <v>0.5289385354257949</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DW4">
-        <v>0.5292012697821353</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DX4">
-        <v>0.5298160130840283</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DY4">
-        <v>0.5299007490017035</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="DZ4">
-        <v>0.5300310039763584</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EA4">
-        <v>0.5310243249742037</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EB4">
-        <v>0.5391809329251318</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EC4">
-        <v>0.5400785445603909</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="ED4">
-        <v>0.5413431271259721</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EE4">
-        <v>0.5416718378712497</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EF4">
-        <v>0.5423582437351437</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EG4">
-        <v>0.5447094300012393</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EH4">
-        <v>0.555518952662675</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EI4">
-        <v>0.5709730827344448</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EJ4">
-        <v>0.5817763008713727</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EK4">
-        <v>0.5820784476466481</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EL4">
-        <v>0.6054840842478051</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="EM4">
-        <v>0.6524316344297176</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.6776107595771022</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.6928720966093629</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7006196141258166</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.705392884398349</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.7110926779534289</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7111013930035116</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7159968866444756</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.7188756535028907</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.7194562894672074</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.729833083127547</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.7464387209995588</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.7603311761470366</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.7670395476112377</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.7698279677532145</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.7847342912499544</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.7997841036843251</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8108197571588219</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.814640410977973</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.81501030808977</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.816074299967113</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8319509401898167</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.848825965473643</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8532833611668387</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8534593125932317</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8534745126368366</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8534764858647302</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8561267757148914</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.8562396285617679</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.8608289542309411</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.8614985333949298</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.8638644855894837</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.8701573657866902</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.8721716587247842</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.8735803210771521</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.8736269959483204</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.8766373915576523</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.8830704926206008</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.8831001911794166</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.885369795858293</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.8913710741955434</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9063441082422994</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9134848036738997</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9189072425543248</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9244268697203757</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9254234049856335</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9257521157309111</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9323927760618521</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.949223190634269</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9722989737931111</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9851858022769979</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9929795800420952</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9961506750208881</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.996155428716104</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9964790253759128</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9974269961008205</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9993144744885174</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9999992920202694</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.001014159647250178</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.001842031001037571</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002671848725370467</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.003597725763157936</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.003695451769003735</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.003710679822147754</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.003844343778595119</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.003870410017327596</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00389762906818383</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.003941509681735397</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.004334641690036313</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.004538191185868385</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.00455151074510337</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.00455151074510337</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00455151074510337</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.004579327600741014</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.004579327600741014</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.004579327600741014</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.004579327600741014</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.004661088055051396</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.00472955783187722</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.005002100661879406</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.005721994749074275</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.006371008271474592</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.006495175008692978</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.006530314161045695</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.006582527267441201</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.006959645469241422</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.007643775594579599</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.007962947729239203</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.007982650050983047</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.008047280654745434</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.008261637115905683</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.008278672693707582</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.008363839687729071</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.008493961228114031</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.008493961228114031</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.008493961228114031</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.008493961228114031</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.008505002525974225</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.008692354394987761</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.009138718672608884</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.009531042164452039</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.009851442884572771</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.009896236383751702</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.009896236383751702</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.009896236383751702</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.009904698000261466</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.009938233204719702</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.009943724009809734</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.009943724009809734</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0100006260842878</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01009878082697272</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01011247226144232</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01011247226144232</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01029759632611804</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01041242537642718</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01041242537642718</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01041242537642718</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01066226553942124</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01106952559833436</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01132192396671125</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.01147242150226489</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01163798048592963</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01170378474876335</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.01175174629175118</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.01175174629175118</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.01179462029970446</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.01201478455191876</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01240126032448296</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01284283407788565</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.01322305928748464</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.01343403295519216</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01350950291429955</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01351162963200926</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01351162963200926</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01355278475696717</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01360060393275911</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.01360060393275911</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01360060393275911</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.01389252805355109</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.01419513355637492</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.01427189748491655</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01460387311653641</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.01490091750046549</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.01496018524201169</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.01498447495563779</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.01523907578697155</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.01558019411932494</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.02080219697183798</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1362399430274638</v>
+        <v>0.4573991619895039</v>
       </c>
       <c r="CO5">
-        <v>0.1891902398152623</v>
+        <v>0.5799551146822378</v>
       </c>
       <c r="CP5">
-        <v>0.2056337151380407</v>
+        <v>0.5799551146822378</v>
       </c>
       <c r="CQ5">
-        <v>0.2061461582803479</v>
+        <v>0.5799551146822378</v>
       </c>
       <c r="CR5">
-        <v>0.236696172131743</v>
+        <v>0.5824776412155401</v>
       </c>
       <c r="CS5">
-        <v>0.2424699093157053</v>
+        <v>0.5824776412155401</v>
       </c>
       <c r="CT5">
-        <v>0.2487547874701997</v>
+        <v>0.5824776412155401</v>
       </c>
       <c r="CU5">
-        <v>0.2577093158999945</v>
+        <v>0.5824776412155401</v>
       </c>
       <c r="CV5">
-        <v>0.2583793402663074</v>
+        <v>0.5824776412155401</v>
       </c>
       <c r="CW5">
-        <v>0.2627984617575243</v>
+        <v>0.5824776412155401</v>
       </c>
       <c r="CX5">
-        <v>0.2856366309052123</v>
+        <v>0.5824776412155401</v>
       </c>
       <c r="CY5">
-        <v>0.3157158247722925</v>
+        <v>0.5824776412155401</v>
       </c>
       <c r="CZ5">
-        <v>0.3187281645455644</v>
+        <v>0.5824776412155401</v>
       </c>
       <c r="DA5">
-        <v>0.3727722519162187</v>
+        <v>0.7108947444809632</v>
       </c>
       <c r="DB5">
-        <v>0.3806856940168162</v>
+        <v>0.7108947444809632</v>
       </c>
       <c r="DC5">
-        <v>0.4058706475932135</v>
+        <v>0.7108947444809632</v>
       </c>
       <c r="DD5">
-        <v>0.4638041604070519</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DE5">
-        <v>0.4770776406546601</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DF5">
-        <v>0.4773946844243199</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DG5">
-        <v>0.484706663495465</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DH5">
-        <v>0.4911720146181728</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DI5">
-        <v>0.4942348962006612</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DJ5">
-        <v>0.4945338378073032</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DK5">
-        <v>0.4969405687373176</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DL5">
-        <v>0.4983222061973658</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DM5">
-        <v>0.5001243463535358</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DN5">
-        <v>0.5029974052422406</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DO5">
-        <v>0.5031534999725424</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DP5">
-        <v>0.5038662713058311</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DQ5">
-        <v>0.5040864355580453</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DR5">
-        <v>0.5063405834852676</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DS5">
-        <v>0.5192788301687798</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DT5">
-        <v>0.5313143990060443</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DU5">
-        <v>0.5373955639589844</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DV5">
-        <v>0.5379659828838598</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DW5">
-        <v>0.5384205480878141</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DX5">
-        <v>0.5398406449558346</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DY5">
-        <v>0.5398406449558346</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="DZ5">
-        <v>0.5405165293308927</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EA5">
-        <v>0.5417127126261866</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EB5">
-        <v>0.5511640464895827</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EC5">
-        <v>0.5518252055860996</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="ED5">
-        <v>0.5535094489301958</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EE5">
-        <v>0.5535094489301958</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EF5">
-        <v>0.5539167089891089</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EG5">
-        <v>0.5555028527978121</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EH5">
-        <v>0.5581846809710334</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EI5">
-        <v>0.5639140186711518</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EJ5">
-        <v>0.5674718963768489</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EK5">
-        <v>0.5740853349654484</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="EL5">
-        <v>0.6132266698578167</v>
+        <v>0.9087132956653671</v>
       </c>
       <c r="EM5">
-        <v>0.660341592010055</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN5">
-        <v>0.6848870017649088</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO5">
-        <v>0.6979606823789369</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP5">
-        <v>0.7037752251052126</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ5">
-        <v>0.7085645484571947</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER5">
-        <v>0.7115661069074859</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES5">
-        <v>0.7126360064570316</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET5">
-        <v>0.7214181402612828</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU5">
-        <v>0.7276605961816436</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV5">
-        <v>0.7297642536259609</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW5">
-        <v>0.7454017175356412</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX5">
-        <v>0.7714760101221457</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY5">
-        <v>0.7940050274643105</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ5">
-        <v>0.8060405963015749</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA5">
-        <v>0.8061046220880359</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB5">
-        <v>0.8152230037135534</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC5">
-        <v>0.8239450104265554</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD5">
-        <v>0.8316929021812274</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE5">
-        <v>0.8337254795600767</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF5">
-        <v>0.8342337162939863</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG5">
-        <v>0.8353489392945906</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH5">
-        <v>0.8476875628573058</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI5">
-        <v>0.8579250112372014</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ5">
-        <v>0.8586382587898137</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK5">
-        <v>0.8609450169688182</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL5">
-        <v>0.8641382429373348</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM5">
-        <v>0.8648486056756973</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN5">
-        <v>0.8648978353511469</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO5">
-        <v>0.866074063663304</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP5">
-        <v>0.8710823040421795</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ5">
-        <v>0.8728007582505378</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR5">
-        <v>0.8772783194140517</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS5">
-        <v>0.8858095584987213</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT5">
-        <v>0.8879578321227766</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU5">
-        <v>0.8903306416179984</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV5">
-        <v>0.8903306416179984</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW5">
-        <v>0.8929069188264167</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX5">
-        <v>0.8997028280986634</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY5">
-        <v>0.8999212048003645</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ5">
-        <v>0.9023809313196283</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA5">
-        <v>0.9064938735513121</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB5">
-        <v>0.9132002583259148</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC5">
-        <v>0.9148279383233183</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD5">
-        <v>0.9158108204263268</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE5">
-        <v>0.9162237107060475</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF5">
-        <v>0.9167945569030583</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG5">
-        <v>0.9208173923672052</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH5">
-        <v>0.9367999755879225</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI5">
-        <v>0.9614321088453462</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ5">
-        <v>0.980024013602547</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK5">
-        <v>0.9904862769498949</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL5">
-        <v>0.9961936562330788</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM5">
-        <v>0.9984329469480699</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN5">
-        <v>0.9986349113535664</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO5">
-        <v>0.9986480100896532</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP5">
-        <v>0.9986480100896532</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ5">
-        <v>0.9993697220246576</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR5">
-        <v>0.999446224282875</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>9.246846012617265E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001174793375340938</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001628222116693745</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002621585340745013</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0005748620577657722</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.001023796832088616</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001310598647112788</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002136107480577265</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.003092070632656071</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.003913433923115834</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.004438585787113505</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.004691892116098614</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.004804757654891387</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004856358036480518</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.004856358036480518</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.004856358036480518</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.004858718108112943</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.004858718108112943</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.004879699589531797</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.004969323003983434</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.005255424456478319</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.005871891550947235</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.00654554265968536</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.007403989668962869</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.008419525369215112</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.009404407004483679</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01101824436951116</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01208433569693648</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01262284784704011</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01285410787061401</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01285410787061401</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01288454184511838</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01292496490252858</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01294228924535643</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0130283136132485</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.01336002674243576</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0136628887743086</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01399725393319434</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01417822324720135</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.01429176402150199</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0144873689468663</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.01473836037578481</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.01508305184433203</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.01545884170410423</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.01581167116355928</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.01621695218633399</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.01645139035007199</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.01649673322420727</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.01650017665945861</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01652577015234111</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.01679660037345608</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.01772471346392218</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.01888642494793841</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01989081914966729</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.02155804525233236</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.02324551525345396</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.02396938481968224</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.02417445638916588</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.02417770431626519</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.02417770431626519</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.02418815151298294</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.02422675938415277</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.02422752589998662</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.02424326606696955</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.02424443110066734</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.02424443110066734</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.02424553799427245</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.02433923636777789</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.02436553339322952</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.02453431740851314</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.02479195032121797</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.02529784458367799</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.02610507322119276</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.02682671683070223</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.02717565943682197</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.02736059166108984</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0273769189482881</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0273769189482881</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.02743696814389237</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.02777057831062983</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.02824396833027316</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.02874383517149703</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.02917238620915608</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.02965074309848793</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.03003787567321005</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.03020693479908962</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.03028982121803655</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.03032842908920637</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.03032842908920637</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.03033393145832564</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.142151035564977</v>
+        <v>0.4678475044054483</v>
       </c>
       <c r="CO6">
-        <v>0.1499888453474134</v>
+        <v>0.4678475044054483</v>
       </c>
       <c r="CP6">
-        <v>0.2273000447558135</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CQ6">
-        <v>0.2281078655980232</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CR6">
-        <v>0.2562499247470867</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CS6">
-        <v>0.2718250898746491</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CT6">
-        <v>0.2724822170656065</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CU6">
-        <v>0.2950793238280559</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CV6">
-        <v>0.2956820139453954</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CW6">
-        <v>0.299609346686913</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CX6">
-        <v>0.3161244897052275</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CY6">
-        <v>0.3424384351393749</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="CZ6">
-        <v>0.376444293007027</v>
+        <v>0.761041348721974</v>
       </c>
       <c r="DA6">
-        <v>0.4056444746081258</v>
+        <v>0.761041348721974</v>
       </c>
       <c r="DB6">
-        <v>0.4147946107954982</v>
+        <v>0.761041348721974</v>
       </c>
       <c r="DC6">
-        <v>0.4760474347018107</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DD6">
-        <v>0.4981742311092855</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DE6">
-        <v>0.5253827085187357</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DF6">
-        <v>0.5256213139531678</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DG6">
-        <v>0.5258462746690183</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DH6">
-        <v>0.5340114786767093</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DI6">
-        <v>0.5362543193321061</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DJ6">
-        <v>0.540319495839215</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DK6">
-        <v>0.5404292354093301</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DL6">
-        <v>0.5411196081878605</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DM6">
-        <v>0.5415809151590865</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DN6">
-        <v>0.5470999452307732</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DO6">
-        <v>0.5498782974323585</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DP6">
-        <v>0.5508496335054086</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DQ6">
-        <v>0.5530672079620206</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DR6">
-        <v>0.5531848423731777</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DS6">
-        <v>0.5558049570196967</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DT6">
-        <v>0.5627314967961881</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DU6">
-        <v>0.5710722770550647</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DV6">
-        <v>0.571139920068092</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DW6">
-        <v>0.5740488513773204</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DX6">
-        <v>0.5740583749019272</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DY6">
-        <v>0.5740583749019272</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="DZ6">
-        <v>0.5743957874843942</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EA6">
-        <v>0.5756360626885886</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EB6">
-        <v>0.5814382245783219</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EC6">
-        <v>0.5837885827520914</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="ED6">
-        <v>0.5842485566745041</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EE6">
-        <v>0.5853072552807799</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EF6">
-        <v>0.5854508727242415</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EG6">
-        <v>0.586210725887312</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EH6">
-        <v>0.5908973663768331</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EI6">
-        <v>0.6038902196530721</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EJ6">
-        <v>0.6210697733843322</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EK6">
-        <v>0.6215822035360108</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EL6">
-        <v>0.6325449947380124</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="EM6">
-        <v>0.6718976094154352</v>
+        <v>0.9929602459266526</v>
       </c>
       <c r="EN6">
-        <v>0.7031598188273255</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO6">
-        <v>0.7175080443653586</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP6">
-        <v>0.7251666607870306</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ6">
-        <v>0.7276948981468041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER6">
-        <v>0.7323829609488945</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES6">
-        <v>0.7328563509685379</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET6">
-        <v>0.7370430895922003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU6">
-        <v>0.7459451175950085</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV6">
-        <v>0.7467348489342841</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW6">
-        <v>0.7526614296811494</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX6">
-        <v>0.7795790404153914</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY6">
-        <v>0.8025796664154284</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ6">
-        <v>0.8185394486921003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA6">
-        <v>0.8196628302291282</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB6">
-        <v>0.8299183741280117</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC6">
-        <v>0.8453527418258869</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD6">
-        <v>0.8606825672970471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.872278546422238</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.8730822660879829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.8730822660879829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.8756562324239331</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.8872123717780434</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.8921761675692472</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.8921761675692472</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.8938266167917609</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.8943522474659455</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.8946330933908916</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.8951324932369854</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.8981636557153959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9005320201359993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9007010792618789</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9065645136361538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9086035745984107</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9090364244544057</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.909195280918198</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9113954308693366</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9213882169143834</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9259364858657294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9259459258608878</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9279719921629858</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9364107297569111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9434627881921014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9463761607611908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9491686323562747</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9509652517554067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9510223106302004</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9536213980800419</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.965199650614788</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9791954179865354</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9897846861775959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.994567568816364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9982950980318969</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9982950980318969</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9984611723940477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.9988536215641425</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9996567504770426</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>0.999979449458764</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>0.02558358380939795</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5025598969256369</v>
+        <v>0.6158237470692225</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -10611,16 +10611,16 @@
         <v>92</v>
       </c>
       <c r="D3">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.03589780239927728</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5096056310093876</v>
+        <v>0.6893914802194399</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.05153579767070596</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.506548269192801</v>
+        <v>0.5189416009619822</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>0.01558019411932494</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5001243463535358</v>
+        <v>0.5799551146822378</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.03032842908920637</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5253827085187357</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>0.02558358380939795</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7049008298269117</v>
+        <v>0.7490675629484435</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -10870,16 +10870,16 @@
         <v>92</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>0.03589780239927728</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7080164592811151</v>
+        <v>0.7540328796832213</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.05153579767070596</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006196141258166</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.01558019411932494</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7037752251052126</v>
+        <v>0.7108947444809632</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.03032842908920637</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7031598188273255</v>
+        <v>0.7383067758869308</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E2">
-        <v>0.02558358380939795</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8177648726711623</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -11129,16 +11129,16 @@
         <v>92</v>
       </c>
       <c r="D3">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.03589780239927728</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8067676957022941</v>
+        <v>0.8239369839418955</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.05153579767070596</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8108197571588219</v>
+        <v>0.8764400343628349</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.01558019411932494</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8060405963015749</v>
+        <v>0.8601535961770881</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.03032842908920637</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8025796664154284</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="E2">
-        <v>0.02558358380939795</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9037426031032662</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -11388,16 +11388,16 @@
         <v>92</v>
       </c>
       <c r="D3">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="E3">
-        <v>0.03589780239927728</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9125861489611315</v>
+        <v>0.9213468278928223</v>
       </c>
       <c r="G3">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="E4">
-        <v>0.05153579767070596</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9063441082422994</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="E5">
-        <v>0.01558019411932494</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9023809313196283</v>
+        <v>0.9087132956653671</v>
       </c>
       <c r="G5">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.03032842908920637</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9005320201359993</v>
+        <v>0.9396399838368574</v>
       </c>
       <c r="G6">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>8</v>

--- a/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
@@ -674,46 +674,46 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.516287837649309</v>
+        <v>0.3786520299737919</v>
       </c>
       <c r="E2">
-        <v>0.1710423371467625</v>
+        <v>0.1421951288996609</v>
       </c>
       <c r="F2">
-        <v>0.06656624723297161</v>
+        <v>0.07063998213772633</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.03099556068791934</v>
+        <v>0.04627779842416825</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008980672082552538</v>
+        <v>0.03119991231257551</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00441389211718877</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01898932720334994</v>
       </c>
       <c r="O2">
-        <v>0.0785926329865287</v>
+        <v>0.07887679305131914</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02735210380769721</v>
+        <v>0.04378241319296176</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.08666722803839699</v>
+        <v>0.08440704245533479</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.01350013612711985</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.02031140058832637</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.004321588536640657</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.01175786848274584</v>
       </c>
       <c r="AD2">
-        <v>0.01351538036786206</v>
+        <v>0.03430571113358452</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.01636897536350555</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -787,58 +787,58 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06149811949073115</v>
+        <v>0.06604996764108562</v>
       </c>
       <c r="F3">
-        <v>0.02065876497603733</v>
+        <v>0.03959899280803546</v>
       </c>
       <c r="G3">
-        <v>0.4479466775436444</v>
+        <v>0.3163463105876501</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01532673935370118</v>
       </c>
       <c r="J3">
-        <v>0.06096352217098022</v>
+        <v>0.06570371779412831</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02673806773690111</v>
+        <v>0.04353645671364749</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.002948853664019736</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.005055126392079109</v>
       </c>
       <c r="P3">
-        <v>0.07665228930058714</v>
+        <v>0.07586507292420286</v>
       </c>
       <c r="Q3">
-        <v>0.1191534277062713</v>
+        <v>0.1033923577136883</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00869153922143054</v>
       </c>
       <c r="S3">
-        <v>0.005178886457018979</v>
+        <v>0.02957293137805114</v>
       </c>
       <c r="T3">
-        <v>0.1219230821100844</v>
+        <v>0.1051862170878649</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.001433761031021667</v>
       </c>
       <c r="V3">
-        <v>0.05928716250774401</v>
+        <v>0.06461796735095107</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.01115208998889177</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.003942713973836958</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.002964398033183597</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.02527703757120627</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.01333774877132388</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -894,64 +894,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3085692187607922</v>
+        <v>0.2394341149645782</v>
       </c>
       <c r="E4">
-        <v>0.101810873078259</v>
+        <v>0.09650293452196865</v>
       </c>
       <c r="F4">
-        <v>0.04983853359139458</v>
+        <v>0.06057467339809788</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02439791926522491</v>
+        <v>0.04298768301654452</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06095074380996732</v>
+        <v>0.06825649789047293</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.005062553632330828</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.002963686892839475</v>
       </c>
       <c r="N4">
-        <v>0.02026506119077667</v>
+        <v>0.04013065549858562</v>
       </c>
       <c r="O4">
-        <v>0.09238559831780969</v>
+        <v>0.08998728146303257</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1718662502656659</v>
+        <v>0.1449319240493028</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01403810754006961</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.01391953056356904</v>
       </c>
       <c r="T4">
-        <v>0.1699158017201097</v>
+        <v>0.1435835871195956</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.006174885208059629</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00264811392881924</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.01600602850770448</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01279774180442921</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1004,28 +1004,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3709558008553827</v>
+        <v>0.2833614872253823</v>
       </c>
       <c r="E5">
-        <v>0.1402718220640897</v>
+        <v>0.1230702783450254</v>
       </c>
       <c r="F5">
-        <v>0.005500137073737788</v>
+        <v>0.0294239123375672</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.05757703368070863</v>
+        <v>0.06560964467843743</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002054172577870518</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.003365338340513393</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.01021345704162382</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1034,37 +1034,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0291073323100101</v>
+        <v>0.0458274176114216</v>
       </c>
       <c r="O5">
-        <v>0.05583891460961806</v>
+        <v>0.0644019092798072</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1443097523456755</v>
+        <v>0.125876042011845</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00754288898017861</v>
       </c>
       <c r="S5">
-        <v>0.03777092117022655</v>
+        <v>0.05184732908911848</v>
       </c>
       <c r="T5">
-        <v>0.1586682858905511</v>
+        <v>0.1358530968195374</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.02129232193505377</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.006000031378893573</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.003828282989144883</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.0204323893585793</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1114,28 +1114,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.339304990416008</v>
+        <v>0.2544969714732909</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006179699233415971</v>
       </c>
       <c r="F6">
-        <v>0.2174139905405829</v>
+        <v>0.1720919870335821</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.04372558208887532</v>
+        <v>0.05466912061646601</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02465759895508065</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02413821590976835</v>
+        <v>0.04142698947590744</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1144,28 +1144,28 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.00265387436122582</v>
+        <v>0.02690239920415287</v>
       </c>
       <c r="O6">
-        <v>0.03726782911744279</v>
+        <v>0.050303326311142</v>
       </c>
       <c r="P6">
-        <v>0.06443926269303094</v>
+        <v>0.06867270192779365</v>
       </c>
       <c r="Q6">
-        <v>0.04746336565945795</v>
+        <v>0.05719606680025034</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.009313720437156475</v>
       </c>
       <c r="S6">
-        <v>0.1606882949403254</v>
+        <v>0.1337423134067492</v>
       </c>
       <c r="T6">
-        <v>0.02247685968911763</v>
+        <v>0.04030382177975714</v>
       </c>
       <c r="U6">
-        <v>0.04042773458416506</v>
+        <v>0.05243959528163469</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.006961562983219855</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.0006421250804007732</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1347,97 +1347,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.516287837649309</v>
+        <v>0.3786520299737919</v>
       </c>
       <c r="E2">
-        <v>0.6873301747960715</v>
+        <v>0.5208471588734528</v>
       </c>
       <c r="F2">
-        <v>0.7538964220290432</v>
+        <v>0.5914871410111792</v>
       </c>
       <c r="G2">
-        <v>0.7538964220290432</v>
+        <v>0.5914871410111792</v>
       </c>
       <c r="H2">
-        <v>0.7848919827169625</v>
+        <v>0.6377649394353474</v>
       </c>
       <c r="I2">
-        <v>0.7848919827169625</v>
+        <v>0.6377649394353474</v>
       </c>
       <c r="J2">
-        <v>0.793872654799515</v>
+        <v>0.6689648517479229</v>
       </c>
       <c r="K2">
-        <v>0.793872654799515</v>
+        <v>0.6689648517479229</v>
       </c>
       <c r="L2">
-        <v>0.793872654799515</v>
+        <v>0.6733787438651117</v>
       </c>
       <c r="M2">
-        <v>0.793872654799515</v>
+        <v>0.6733787438651117</v>
       </c>
       <c r="N2">
-        <v>0.793872654799515</v>
+        <v>0.6923680710684615</v>
       </c>
       <c r="O2">
-        <v>0.8724652877860437</v>
+        <v>0.7712448641197807</v>
       </c>
       <c r="P2">
-        <v>0.8724652877860437</v>
+        <v>0.7712448641197807</v>
       </c>
       <c r="Q2">
-        <v>0.899817391593741</v>
+        <v>0.8150272773127424</v>
       </c>
       <c r="R2">
-        <v>0.899817391593741</v>
+        <v>0.8150272773127424</v>
       </c>
       <c r="S2">
-        <v>0.899817391593741</v>
+        <v>0.8150272773127424</v>
       </c>
       <c r="T2">
-        <v>0.986484619632138</v>
+        <v>0.8994343197680772</v>
       </c>
       <c r="U2">
-        <v>0.986484619632138</v>
+        <v>0.8994343197680772</v>
       </c>
       <c r="V2">
-        <v>0.986484619632138</v>
+        <v>0.8994343197680772</v>
       </c>
       <c r="W2">
-        <v>0.986484619632138</v>
+        <v>0.9129344558951971</v>
       </c>
       <c r="X2">
-        <v>0.986484619632138</v>
+        <v>0.9332458564835234</v>
       </c>
       <c r="Y2">
-        <v>0.986484619632138</v>
+        <v>0.9375674450201641</v>
       </c>
       <c r="Z2">
-        <v>0.986484619632138</v>
+        <v>0.9375674450201641</v>
       </c>
       <c r="AA2">
-        <v>0.986484619632138</v>
+        <v>0.9375674450201641</v>
       </c>
       <c r="AB2">
-        <v>0.986484619632138</v>
+        <v>0.9375674450201641</v>
       </c>
       <c r="AC2">
-        <v>0.986484619632138</v>
+        <v>0.9493253135029099</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9836310246364944</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9836310246364944</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9836310246364944</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9836310246364944</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9836310246364944</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1460,100 +1460,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06149811949073115</v>
+        <v>0.06604996764108562</v>
       </c>
       <c r="F3">
-        <v>0.08215688446676848</v>
+        <v>0.1056489604491211</v>
       </c>
       <c r="G3">
-        <v>0.5301035620104129</v>
+        <v>0.4219952710367711</v>
       </c>
       <c r="H3">
-        <v>0.5301035620104129</v>
+        <v>0.4219952710367711</v>
       </c>
       <c r="I3">
-        <v>0.5301035620104129</v>
+        <v>0.4373220103904723</v>
       </c>
       <c r="J3">
-        <v>0.5910670841813931</v>
+        <v>0.5030257281846007</v>
       </c>
       <c r="K3">
-        <v>0.5910670841813931</v>
+        <v>0.5030257281846007</v>
       </c>
       <c r="L3">
-        <v>0.6178051519182942</v>
+        <v>0.5465621848982481</v>
       </c>
       <c r="M3">
-        <v>0.6178051519182942</v>
+        <v>0.5465621848982481</v>
       </c>
       <c r="N3">
-        <v>0.6178051519182942</v>
+        <v>0.5495110385622679</v>
       </c>
       <c r="O3">
-        <v>0.6178051519182942</v>
+        <v>0.554566164954347</v>
       </c>
       <c r="P3">
-        <v>0.6944574412188813</v>
+        <v>0.6304312378785498</v>
       </c>
       <c r="Q3">
-        <v>0.8136108689251526</v>
+        <v>0.7338235955922381</v>
       </c>
       <c r="R3">
-        <v>0.8136108689251526</v>
+        <v>0.7425151348136686</v>
       </c>
       <c r="S3">
-        <v>0.8187897553821716</v>
+        <v>0.7720880661917198</v>
       </c>
       <c r="T3">
-        <v>0.940712837492256</v>
+        <v>0.8772742832795847</v>
       </c>
       <c r="U3">
-        <v>0.940712837492256</v>
+        <v>0.8787080443106063</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.9433260116615574</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.9433260116615574</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9433260116615574</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9544781016504491</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9544781016504491</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.958420815624286</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.958420815624286</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.958420815624286</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9613852136574697</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9866622512286759</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,97 +1567,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3085692187607922</v>
+        <v>0.2394341149645782</v>
       </c>
       <c r="E4">
-        <v>0.4103800918390513</v>
+        <v>0.3359370494865468</v>
       </c>
       <c r="F4">
-        <v>0.4602186254304458</v>
+        <v>0.3965117228846447</v>
       </c>
       <c r="G4">
-        <v>0.4602186254304458</v>
+        <v>0.3965117228846447</v>
       </c>
       <c r="H4">
-        <v>0.4846165446956707</v>
+        <v>0.4394994059011892</v>
       </c>
       <c r="I4">
-        <v>0.4846165446956707</v>
+        <v>0.4394994059011892</v>
       </c>
       <c r="J4">
-        <v>0.5455672885056381</v>
+        <v>0.5077559037916621</v>
       </c>
       <c r="K4">
-        <v>0.5455672885056381</v>
+        <v>0.512818457423993</v>
       </c>
       <c r="L4">
-        <v>0.5455672885056381</v>
+        <v>0.512818457423993</v>
       </c>
       <c r="M4">
-        <v>0.5455672885056381</v>
+        <v>0.5157821443168324</v>
       </c>
       <c r="N4">
-        <v>0.5658323496964147</v>
+        <v>0.5559127998154181</v>
       </c>
       <c r="O4">
-        <v>0.6582179480142244</v>
+        <v>0.6459000812784507</v>
       </c>
       <c r="P4">
-        <v>0.6582179480142244</v>
+        <v>0.6459000812784507</v>
       </c>
       <c r="Q4">
-        <v>0.8300841982798903</v>
+        <v>0.7908320053277534</v>
       </c>
       <c r="R4">
-        <v>0.8300841982798903</v>
+        <v>0.8048701128678231</v>
       </c>
       <c r="S4">
-        <v>0.8300841982798903</v>
+        <v>0.8187896434313922</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.9623732305509878</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9685481157590474</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9685481157590474</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9711962296878667</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9711962296878667</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9711962296878667</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9711962296878667</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9711962296878667</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9711962296878667</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9711962296878667</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9872022581955712</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9872022581955712</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9872022581955712</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9872022581955712</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9872022581955712</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3709558008553827</v>
+        <v>0.2833614872253823</v>
       </c>
       <c r="E5">
-        <v>0.5112276229194723</v>
+        <v>0.4064317655704077</v>
       </c>
       <c r="F5">
-        <v>0.5167277599932101</v>
+        <v>0.4358556779079749</v>
       </c>
       <c r="G5">
-        <v>0.5167277599932101</v>
+        <v>0.4358556779079749</v>
       </c>
       <c r="H5">
-        <v>0.5743047936739187</v>
+        <v>0.5014653225864123</v>
       </c>
       <c r="I5">
-        <v>0.5743047936739187</v>
+        <v>0.5035194951642828</v>
       </c>
       <c r="J5">
-        <v>0.5743047936739187</v>
+        <v>0.5068848335047963</v>
       </c>
       <c r="K5">
-        <v>0.5743047936739187</v>
+        <v>0.5170982905464201</v>
       </c>
       <c r="L5">
-        <v>0.5743047936739187</v>
+        <v>0.5170982905464201</v>
       </c>
       <c r="M5">
-        <v>0.5743047936739187</v>
+        <v>0.5170982905464201</v>
       </c>
       <c r="N5">
-        <v>0.6034121259839288</v>
+        <v>0.5629257081578417</v>
       </c>
       <c r="O5">
-        <v>0.6592510405935469</v>
+        <v>0.6273276174376489</v>
       </c>
       <c r="P5">
-        <v>0.6592510405935469</v>
+        <v>0.6273276174376489</v>
       </c>
       <c r="Q5">
-        <v>0.8035607929392223</v>
+        <v>0.7532036594494939</v>
       </c>
       <c r="R5">
-        <v>0.8035607929392223</v>
+        <v>0.7607465484296725</v>
       </c>
       <c r="S5">
-        <v>0.8413317141094488</v>
+        <v>0.812593877518791</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9484469743383284</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9697392962733822</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9697392962733822</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9757393276522758</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9795676106414206</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.339304990416008</v>
+        <v>0.2544969714732909</v>
       </c>
       <c r="E6">
-        <v>0.339304990416008</v>
+        <v>0.2606766707067069</v>
       </c>
       <c r="F6">
-        <v>0.5567189809565909</v>
+        <v>0.4327686577402889</v>
       </c>
       <c r="G6">
-        <v>0.5567189809565909</v>
+        <v>0.4327686577402889</v>
       </c>
       <c r="H6">
-        <v>0.6004445630454662</v>
+        <v>0.4874377783567549</v>
       </c>
       <c r="I6">
-        <v>0.6004445630454662</v>
+        <v>0.5120953773118356</v>
       </c>
       <c r="J6">
-        <v>0.6004445630454662</v>
+        <v>0.5120953773118356</v>
       </c>
       <c r="K6">
-        <v>0.6245827789552346</v>
+        <v>0.553522366787743</v>
       </c>
       <c r="L6">
-        <v>0.6245827789552346</v>
+        <v>0.553522366787743</v>
       </c>
       <c r="M6">
-        <v>0.6245827789552346</v>
+        <v>0.553522366787743</v>
       </c>
       <c r="N6">
-        <v>0.6272366533164604</v>
+        <v>0.5804247659918959</v>
       </c>
       <c r="O6">
-        <v>0.6645044824339031</v>
+        <v>0.6307280923030378</v>
       </c>
       <c r="P6">
-        <v>0.7289437451269341</v>
+        <v>0.6994007942308315</v>
       </c>
       <c r="Q6">
-        <v>0.776407110786392</v>
+        <v>0.7565968610310818</v>
       </c>
       <c r="R6">
-        <v>0.776407110786392</v>
+        <v>0.7659105814682383</v>
       </c>
       <c r="S6">
-        <v>0.9370954057267173</v>
+        <v>0.8996528948749876</v>
       </c>
       <c r="T6">
-        <v>0.959572265415835</v>
+        <v>0.9399567166547447</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.9923963119363793</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.9923963119363793</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9923963119363793</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9993578749195992</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9993578749195992</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9993578749195992</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9993578749195992</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9993578749195992</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9993578749195992</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5208471588734528</v>
+      </c>
+      <c r="G2">
         <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.516287837649309</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1992,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5301035620104129</v>
+        <v>0.5030257281846007</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5455672885056381</v>
+        <v>0.5077559037916621</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -2074,16 +2074,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5112276229194723</v>
+        <v>0.5014653225864123</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -2115,16 +2115,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5567189809565909</v>
+        <v>0.5120953773118356</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -2210,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7538964220290432</v>
+        <v>0.7712448641197807</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8136108689251526</v>
+        <v>0.7338235955922381</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8300841982798903</v>
+        <v>0.7908320053277534</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8035607929392223</v>
+        <v>0.7532036594494939</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -2374,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.7565968610310818</v>
+      </c>
+      <c r="G6">
         <v>15</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7289437451269341</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8724652877860437</v>
+        <v>0.8150272773127424</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8136108689251526</v>
+        <v>0.8772742832795847</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8048701128678231</v>
+      </c>
+      <c r="G4">
         <v>16</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8300841982798903</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -2592,16 +2592,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8035607929392223</v>
+        <v>0.812593877518791</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9370954057267173</v>
+        <v>0.8996528948749876</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2728,16 +2728,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.986484619632138</v>
+        <v>0.9129344558951971</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9433260116615574</v>
+      </c>
+      <c r="G3">
         <v>19</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.940712837492256</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9623732305509878</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.9484469743383284</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -2892,16 +2892,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9399567166547447</v>
+      </c>
+      <c r="G6">
         <v>18</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9370954057267173</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
       </c>
       <c r="H6">
         <v>8</v>
